--- a/templates/NOMADS_sWGA_Worksheet.xlsx
+++ b/templates/NOMADS_sWGA_Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\templates\Plasmodium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD644A4-F247-40D0-9110-9665EFD84732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BE8C29-E2D9-418F-AEAE-7E2CCA2B7642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -24,8 +24,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Instructions!#REF!</definedName>
     <definedName name="exp_date">Assay!$C$2</definedName>
     <definedName name="exp_id">Assay!$C$5</definedName>
-    <definedName name="exp_notes">Assay!$C$13</definedName>
-    <definedName name="exp_rxns">Assay!$C$11</definedName>
+    <definedName name="exp_notes">Assay!$C$14</definedName>
+    <definedName name="exp_rxns">Assay!$C$12</definedName>
     <definedName name="exp_summary">Assay!$C$9</definedName>
     <definedName name="exp_type">reference!$B$7</definedName>
     <definedName name="exp_user">Assay!$C$3</definedName>
@@ -33,12 +33,13 @@
     <definedName name="export_folder">reference!$A$11</definedName>
     <definedName name="expt_summary">Assay!$C$9</definedName>
     <definedName name="expt_type">reference!$B$7</definedName>
-    <definedName name="swga_notes">Assay!$C$13</definedName>
-    <definedName name="swga_rxnvol">Assay!$C$12</definedName>
+    <definedName name="swga_enzyme">Assay!$C$11</definedName>
+    <definedName name="swga_notes">Assay!$C$14</definedName>
+    <definedName name="swga_rxnvol">Assay!$C$13</definedName>
     <definedName name="swga_targetmass">reference!$B$3</definedName>
     <definedName name="swga_template_maxvol">reference!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="236">
   <si>
     <t>ng</t>
   </si>
@@ -70,9 +71,6 @@
   </si>
   <si>
     <t>10mM dNTP</t>
-  </si>
-  <si>
-    <t>Phi29 (10U)</t>
   </si>
   <si>
     <t>Required fields</t>
@@ -708,9 +706,6 @@
   </si>
   <si>
     <t>Changelog from previous version</t>
-  </si>
-  <si>
-    <t>10x Phi29 Buffer</t>
   </si>
   <si>
     <t>100nM Primer Mix</t>
@@ -1002,9 +997,6 @@
     <t>Please contact the NOMADS team if any changes need to be made to the template.</t>
   </si>
   <si>
-    <t>Ability to filter sWGA table</t>
-  </si>
-  <si>
     <t>Person A</t>
   </si>
   <si>
@@ -1021,6 +1013,27 @@
   </si>
   <si>
     <t>PC</t>
+  </si>
+  <si>
+    <t>sWGA enzyme</t>
+  </si>
+  <si>
+    <t>DNA Polymerase</t>
+  </si>
+  <si>
+    <t>10x Buffer</t>
+  </si>
+  <si>
+    <t>phi29</t>
+  </si>
+  <si>
+    <t>equiphi29</t>
+  </si>
+  <si>
+    <t>swga_enzyme</t>
+  </si>
+  <si>
+    <t>Addition of swga enzyme capture</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1431,7 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1576,83 +1589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1681,6 +1617,83 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1694,6 +1707,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2069,9 +2085,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FB4FA29E-6DC2-47A8-8DE8-3C1612926E90}" name="tbl_expt_metadata" displayName="tbl_expt_metadata" ref="A1:J2" totalsRowShown="0">
-  <autoFilter ref="A1:J2" xr:uid="{FB4FA29E-6DC2-47A8-8DE8-3C1612926E90}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FB4FA29E-6DC2-47A8-8DE8-3C1612926E90}" name="tbl_expt_metadata" displayName="tbl_expt_metadata" ref="A1:K2" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{FB4FA29E-6DC2-47A8-8DE8-3C1612926E90}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{7A035B8A-404A-4AC3-B440-D82E5E6068A8}" name="expt_id">
       <calculatedColumnFormula>IF(LEN(exp_id)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
@@ -2095,6 +2111,9 @@
     </tableColumn>
     <tableColumn id="9" xr3:uid="{2D9B1B77-2E59-4E0D-ACB3-C21F2162AD9D}" name="expt_summary">
       <calculatedColumnFormula>IF(LEN(exp_summary)=0,"",exp_summary)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00542FAB-A3C8-4C82-A468-72F2D2CB8137}" name="swga_enzyme">
+      <calculatedColumnFormula>swga_enzyme</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{D27AA281-2010-4088-B71D-18AD05E1377E}" name="swga_rxnvol_ul">
       <calculatedColumnFormula>IF(LEN(swga_rxnvol)=0,"",swga_rxnvol)</calculatedColumnFormula>
@@ -2435,10 +2454,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2447,992 +2466,1024 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="A1" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="K2" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="62"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A3" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="60"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="61"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="77" t="str">
+        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!G3:H7,2,FALSE),C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="79"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="75"/>
-      <c r="K2" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="84"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="26" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="85" t="str">
+        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
+        <v/>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="23"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="85"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="80" t="str">
-        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!G3:H7,2,FALSE),C4))</f>
-        <v/>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" s="82"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="76" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="88" t="str">
+        <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
+        <v/>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91" t="str">
+        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
+        <v/>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="63" t="str">
-        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
-        <v/>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="23"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="66" t="str">
-        <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
-        <v/>
-      </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69" t="str">
-        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
-        <v/>
-      </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" t="s">
-        <v>145</v>
+      <c r="B12" s="72"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="20" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="29"/>
       <c r="B13" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+        <v>151</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="29"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="B14" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="55">
-        <v>0.1</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="14" t="str">
-        <f>CONCATENATE("  1. Make up master mix as below and add ", SUM(D19:D24), " µl to each well")</f>
-        <v xml:space="preserve">  1. Make up master mix as below and add -10 µl to each well</v>
+      <c r="A17" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0.1</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="64" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" s="14" t="str">
+        <f>CONCATENATE("  1. Make up master mix as below and add ", SUM(D20:D25), " µl to each well")</f>
+        <v xml:space="preserve">  1. Make up master mix as below and add -10 µl to each well</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A19" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65" t="str">
+      <c r="E19" s="87"/>
+      <c r="F19" s="87" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="J18" s="89" t="s">
+      <c r="G19" s="87"/>
+      <c r="J19" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="65"/>
+      <c r="L19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="89"/>
-      <c r="L18" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="70">
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="68">
         <f>swga_rxnvol/10</f>
         <v>0</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="73" t="str">
-        <f t="shared" ref="F19:F22" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D19*exp_rxns*(1+$D$16)))</f>
-        <v/>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="J19" s="90">
+      <c r="E20" s="68"/>
+      <c r="F20" s="83" t="str">
+        <f t="shared" ref="F20:F23" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D20*exp_rxns*(1+$D$17)))</f>
+        <v/>
+      </c>
+      <c r="G20" s="83"/>
+      <c r="J20" s="66">
         <v>35</v>
       </c>
-      <c r="K19" s="90"/>
-      <c r="L19" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="70">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="J20" s="90">
-        <v>34</v>
-      </c>
-      <c r="K20" s="90"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="70">
+      <c r="A21" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="68"/>
+      <c r="F21" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="83"/>
+      <c r="J21" s="66">
+        <v>34</v>
+      </c>
+      <c r="K21" s="66"/>
+      <c r="L21" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="68">
         <v>1.25</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="73" t="str">
+      <c r="E22" s="68"/>
+      <c r="F22" s="83" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="73"/>
-      <c r="J21" s="87">
+      <c r="G22" s="83"/>
+      <c r="J22" s="63">
         <v>33</v>
       </c>
-      <c r="K21" s="87"/>
-      <c r="L21" s="6" t="s">
+      <c r="K22" s="63"/>
+      <c r="L22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="68">
+        <v>5</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="J23" s="64">
+        <v>32</v>
+      </c>
+      <c r="K23" s="64"/>
+      <c r="L23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="70">
-        <v>5</v>
-      </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="73"/>
-      <c r="J22" s="88">
-        <v>32</v>
-      </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="7" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" s="96" t="str">
+        <f>IF(C11="","",C11)</f>
+        <v/>
+      </c>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="68">
+        <v>1</v>
+      </c>
+      <c r="E24" s="68"/>
+      <c r="F24" s="83" t="str">
+        <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$17)))</f>
+        <v/>
+      </c>
+      <c r="G24" s="83"/>
+      <c r="J24" s="63">
+        <v>31</v>
+      </c>
+      <c r="K24" s="63"/>
+      <c r="L24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="70">
-        <v>1</v>
-      </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="73" t="str">
-        <f>IF(ISBLANK(swga_rxnvol),"",SUM(D23*exp_rxns*(1+$D$16)))</f>
-        <v/>
-      </c>
-      <c r="G23" s="73"/>
-      <c r="J23" s="87">
-        <v>31</v>
-      </c>
-      <c r="K23" s="87"/>
-      <c r="L23" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="59" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="68">
+        <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D20:E24)</f>
+        <v>-17.5</v>
+      </c>
+      <c r="E25" s="68"/>
+      <c r="F25" s="83" t="str">
+        <f>IF(ISBLANK(swga_rxnvol),"",SUM(D25*exp_rxns*(1+$D$17)))</f>
+        <v/>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="J25" s="63">
+        <v>30</v>
+      </c>
+      <c r="K25" s="63"/>
+      <c r="L25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="70">
-        <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D19:E23)</f>
-        <v>-17.5</v>
-      </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="73" t="str">
-        <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$16)))</f>
-        <v/>
-      </c>
-      <c r="G24" s="73"/>
-      <c r="J24" s="87">
-        <v>30</v>
-      </c>
-      <c r="K24" s="87"/>
-      <c r="L24" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="G25" s="17" t="str">
-        <f>CONCATENATE("Add ",SUM(D19:D24)," µl of MM to each well")</f>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="G26" s="17" t="str">
+        <f>CONCATENATE("Add ",SUM(D20:D25)," µl of MM to each well")</f>
         <v>Add -10 µl of MM to each well</v>
       </c>
-      <c r="J25" s="87">
+      <c r="J26" s="63">
         <v>65</v>
       </c>
-      <c r="K25" s="87"/>
-      <c r="L25" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
-      <c r="G26" s="10"/>
-      <c r="J26" s="87">
-        <v>10</v>
-      </c>
-      <c r="K26" s="87"/>
-      <c r="L26" s="13" t="s">
-        <v>12</v>
+      <c r="K26" s="63"/>
+      <c r="L26" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="14" t="str">
-        <f>CONCATENATE("  2. For each sample add target of ",swga_targetmass," ng of DNA for each up to a max vol of ",swga_template_maxvol,"ul. Add TE as required.")</f>
-        <v xml:space="preserve">  2. For each sample add target of 40 ng of DNA for each up to a max vol of 10ul. Add TE as required.</v>
-      </c>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
       <c r="D27" s="7"/>
-      <c r="F27" s="13"/>
       <c r="G27" s="10"/>
-      <c r="K27" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
+      <c r="J27" s="63">
+        <v>10</v>
+      </c>
+      <c r="K27" s="63"/>
+      <c r="L27" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="14" t="s">
-        <v>155</v>
+      <c r="A28" s="14" t="str">
+        <f>CONCATENATE("  2. For each sample add target of ",swga_targetmass," ng of DNA for each up to a max vol of ",swga_template_maxvol,"ul. Add TE as required.")</f>
+        <v xml:space="preserve">  2. For each sample add target of 40 ng of DNA for each up to a max vol of 10ul. Add TE as required.</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="7"/>
       <c r="F28" s="13"/>
       <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="18.75">
+      <c r="K28" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
       <c r="D29" s="7"/>
       <c r="F29" s="13"/>
       <c r="G29" s="10"/>
-      <c r="K29" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="14"/>
+    </row>
+    <row r="30" spans="1:13" ht="18.75">
+      <c r="A30" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
       <c r="D30" s="7"/>
       <c r="F30" s="13"/>
       <c r="G30" s="10"/>
+      <c r="K30" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32"/>
-      <c r="B32" s="27">
+      <c r="A32" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33"/>
+      <c r="B33" s="27">
         <v>1</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C33" s="27">
         <v>2</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D33" s="27">
         <v>3</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E33" s="27">
         <v>4</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F33" s="27">
         <v>5</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G33" s="27">
         <v>6</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H33" s="27">
         <v>7</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I33" s="27">
         <v>8</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J33" s="27">
         <v>9</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K33" s="27">
         <v>10</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L33" s="27">
         <v>11</v>
       </c>
-      <c r="M32" s="27">
+      <c r="M33" s="27">
         <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D3),"",sWGA!$D3)</f>
-        <v/>
-      </c>
-      <c r="C33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D11),"",sWGA!$D11)</f>
-        <v/>
-      </c>
-      <c r="D33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D19),"",sWGA!$D19)</f>
-        <v/>
-      </c>
-      <c r="E33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D27),"",sWGA!$D27)</f>
-        <v/>
-      </c>
-      <c r="F33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D35),"",sWGA!$D35)</f>
-        <v/>
-      </c>
-      <c r="G33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D43),"",sWGA!$D43)</f>
-        <v/>
-      </c>
-      <c r="H33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D51),"",sWGA!$D51)</f>
-        <v/>
-      </c>
-      <c r="I33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D59),"",sWGA!$D59)</f>
-        <v/>
-      </c>
-      <c r="J33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D67),"",sWGA!$D67)</f>
-        <v/>
-      </c>
-      <c r="K33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D75),"",sWGA!$D75)</f>
-        <v/>
-      </c>
-      <c r="L33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D83),"",sWGA!$D83)</f>
-        <v/>
-      </c>
-      <c r="M33" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D91),"",sWGA!$D91)</f>
-        <v/>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D4),"",sWGA!$D4)</f>
+        <f>IF(ISBLANK(sWGA!$D3),"",sWGA!$D3)</f>
         <v/>
       </c>
       <c r="C34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D12),"",sWGA!$D12)</f>
+        <f>IF(ISBLANK(sWGA!$D11),"",sWGA!$D11)</f>
         <v/>
       </c>
       <c r="D34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D20),"",sWGA!$D20)</f>
+        <f>IF(ISBLANK(sWGA!$D19),"",sWGA!$D19)</f>
         <v/>
       </c>
       <c r="E34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D28),"",sWGA!$D28)</f>
+        <f>IF(ISBLANK(sWGA!$D27),"",sWGA!$D27)</f>
         <v/>
       </c>
       <c r="F34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D36),"",sWGA!$D36)</f>
+        <f>IF(ISBLANK(sWGA!$D35),"",sWGA!$D35)</f>
         <v/>
       </c>
       <c r="G34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D44),"",sWGA!$D44)</f>
+        <f>IF(ISBLANK(sWGA!$D43),"",sWGA!$D43)</f>
         <v/>
       </c>
       <c r="H34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D52),"",sWGA!$D52)</f>
+        <f>IF(ISBLANK(sWGA!$D51),"",sWGA!$D51)</f>
         <v/>
       </c>
       <c r="I34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D60),"",sWGA!$D60)</f>
+        <f>IF(ISBLANK(sWGA!$D59),"",sWGA!$D59)</f>
         <v/>
       </c>
       <c r="J34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D68),"",sWGA!$D68)</f>
+        <f>IF(ISBLANK(sWGA!$D67),"",sWGA!$D67)</f>
         <v/>
       </c>
       <c r="K34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D76),"",sWGA!$D76)</f>
+        <f>IF(ISBLANK(sWGA!$D75),"",sWGA!$D75)</f>
         <v/>
       </c>
       <c r="L34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D84),"",sWGA!$D84)</f>
+        <f>IF(ISBLANK(sWGA!$D83),"",sWGA!$D83)</f>
         <v/>
       </c>
       <c r="M34" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D92),"",sWGA!$D92)</f>
+        <f>IF(ISBLANK(sWGA!$D91),"",sWGA!$D91)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D5),"",sWGA!$D5)</f>
+        <f>IF(ISBLANK(sWGA!$D4),"",sWGA!$D4)</f>
         <v/>
       </c>
       <c r="C35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D13),"",sWGA!$D13)</f>
+        <f>IF(ISBLANK(sWGA!$D12),"",sWGA!$D12)</f>
         <v/>
       </c>
       <c r="D35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D21),"",sWGA!$D21)</f>
+        <f>IF(ISBLANK(sWGA!$D20),"",sWGA!$D20)</f>
         <v/>
       </c>
       <c r="E35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D29),"",sWGA!$D29)</f>
+        <f>IF(ISBLANK(sWGA!$D28),"",sWGA!$D28)</f>
         <v/>
       </c>
       <c r="F35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D37),"",sWGA!$D37)</f>
+        <f>IF(ISBLANK(sWGA!$D36),"",sWGA!$D36)</f>
         <v/>
       </c>
       <c r="G35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D45),"",sWGA!$D45)</f>
+        <f>IF(ISBLANK(sWGA!$D44),"",sWGA!$D44)</f>
         <v/>
       </c>
       <c r="H35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D53),"",sWGA!$D53)</f>
+        <f>IF(ISBLANK(sWGA!$D52),"",sWGA!$D52)</f>
         <v/>
       </c>
       <c r="I35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D61),"",sWGA!$D61)</f>
+        <f>IF(ISBLANK(sWGA!$D60),"",sWGA!$D60)</f>
         <v/>
       </c>
       <c r="J35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D69),"",sWGA!$D69)</f>
+        <f>IF(ISBLANK(sWGA!$D68),"",sWGA!$D68)</f>
         <v/>
       </c>
       <c r="K35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D77),"",sWGA!$D77)</f>
+        <f>IF(ISBLANK(sWGA!$D76),"",sWGA!$D76)</f>
         <v/>
       </c>
       <c r="L35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D85),"",sWGA!$D85)</f>
+        <f>IF(ISBLANK(sWGA!$D84),"",sWGA!$D84)</f>
         <v/>
       </c>
       <c r="M35" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D93),"",sWGA!$D93)</f>
+        <f>IF(ISBLANK(sWGA!$D92),"",sWGA!$D92)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D6),"",sWGA!$D6)</f>
+        <f>IF(ISBLANK(sWGA!$D5),"",sWGA!$D5)</f>
         <v/>
       </c>
       <c r="C36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D14),"",sWGA!$D14)</f>
+        <f>IF(ISBLANK(sWGA!$D13),"",sWGA!$D13)</f>
         <v/>
       </c>
       <c r="D36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D22),"",sWGA!$D22)</f>
+        <f>IF(ISBLANK(sWGA!$D21),"",sWGA!$D21)</f>
         <v/>
       </c>
       <c r="E36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D30),"",sWGA!$D30)</f>
+        <f>IF(ISBLANK(sWGA!$D29),"",sWGA!$D29)</f>
         <v/>
       </c>
       <c r="F36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D38),"",sWGA!$D38)</f>
+        <f>IF(ISBLANK(sWGA!$D37),"",sWGA!$D37)</f>
         <v/>
       </c>
       <c r="G36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D46),"",sWGA!$D46)</f>
+        <f>IF(ISBLANK(sWGA!$D45),"",sWGA!$D45)</f>
         <v/>
       </c>
       <c r="H36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D54),"",sWGA!$D54)</f>
+        <f>IF(ISBLANK(sWGA!$D53),"",sWGA!$D53)</f>
         <v/>
       </c>
       <c r="I36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D62),"",sWGA!$D62)</f>
+        <f>IF(ISBLANK(sWGA!$D61),"",sWGA!$D61)</f>
         <v/>
       </c>
       <c r="J36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D70),"",sWGA!$D70)</f>
+        <f>IF(ISBLANK(sWGA!$D69),"",sWGA!$D69)</f>
         <v/>
       </c>
       <c r="K36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D78),"",sWGA!$D78)</f>
+        <f>IF(ISBLANK(sWGA!$D77),"",sWGA!$D77)</f>
         <v/>
       </c>
       <c r="L36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D86),"",sWGA!$D86)</f>
+        <f>IF(ISBLANK(sWGA!$D85),"",sWGA!$D85)</f>
         <v/>
       </c>
       <c r="M36" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D94),"",sWGA!$D94)</f>
+        <f>IF(ISBLANK(sWGA!$D93),"",sWGA!$D93)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D7),"",sWGA!$D7)</f>
+        <f>IF(ISBLANK(sWGA!$D6),"",sWGA!$D6)</f>
         <v/>
       </c>
       <c r="C37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D15),"",sWGA!$D15)</f>
+        <f>IF(ISBLANK(sWGA!$D14),"",sWGA!$D14)</f>
         <v/>
       </c>
       <c r="D37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D23),"",sWGA!$D23)</f>
+        <f>IF(ISBLANK(sWGA!$D22),"",sWGA!$D22)</f>
         <v/>
       </c>
       <c r="E37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D31),"",sWGA!$D31)</f>
+        <f>IF(ISBLANK(sWGA!$D30),"",sWGA!$D30)</f>
         <v/>
       </c>
       <c r="F37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D39),"",sWGA!$D39)</f>
+        <f>IF(ISBLANK(sWGA!$D38),"",sWGA!$D38)</f>
         <v/>
       </c>
       <c r="G37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D47),"",sWGA!$D47)</f>
+        <f>IF(ISBLANK(sWGA!$D46),"",sWGA!$D46)</f>
         <v/>
       </c>
       <c r="H37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D55),"",sWGA!$D55)</f>
+        <f>IF(ISBLANK(sWGA!$D54),"",sWGA!$D54)</f>
         <v/>
       </c>
       <c r="I37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D63),"",sWGA!$D63)</f>
+        <f>IF(ISBLANK(sWGA!$D62),"",sWGA!$D62)</f>
         <v/>
       </c>
       <c r="J37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D71),"",sWGA!$D71)</f>
+        <f>IF(ISBLANK(sWGA!$D70),"",sWGA!$D70)</f>
         <v/>
       </c>
       <c r="K37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D79),"",sWGA!$D79)</f>
+        <f>IF(ISBLANK(sWGA!$D78),"",sWGA!$D78)</f>
         <v/>
       </c>
       <c r="L37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D87),"",sWGA!$D87)</f>
+        <f>IF(ISBLANK(sWGA!$D86),"",sWGA!$D86)</f>
         <v/>
       </c>
       <c r="M37" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D95),"",sWGA!$D95)</f>
+        <f>IF(ISBLANK(sWGA!$D94),"",sWGA!$D94)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D8),"",sWGA!$D8)</f>
+        <f>IF(ISBLANK(sWGA!$D7),"",sWGA!$D7)</f>
         <v/>
       </c>
       <c r="C38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D16),"",sWGA!$D16)</f>
+        <f>IF(ISBLANK(sWGA!$D15),"",sWGA!$D15)</f>
         <v/>
       </c>
       <c r="D38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D24),"",sWGA!$D24)</f>
+        <f>IF(ISBLANK(sWGA!$D23),"",sWGA!$D23)</f>
         <v/>
       </c>
       <c r="E38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D32),"",sWGA!$D32)</f>
+        <f>IF(ISBLANK(sWGA!$D31),"",sWGA!$D31)</f>
         <v/>
       </c>
       <c r="F38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D40),"",sWGA!$D40)</f>
+        <f>IF(ISBLANK(sWGA!$D39),"",sWGA!$D39)</f>
         <v/>
       </c>
       <c r="G38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D48),"",sWGA!$D48)</f>
+        <f>IF(ISBLANK(sWGA!$D47),"",sWGA!$D47)</f>
         <v/>
       </c>
       <c r="H38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D56),"",sWGA!$D56)</f>
+        <f>IF(ISBLANK(sWGA!$D55),"",sWGA!$D55)</f>
         <v/>
       </c>
       <c r="I38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D64),"",sWGA!$D64)</f>
+        <f>IF(ISBLANK(sWGA!$D63),"",sWGA!$D63)</f>
         <v/>
       </c>
       <c r="J38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D72),"",sWGA!$D72)</f>
+        <f>IF(ISBLANK(sWGA!$D71),"",sWGA!$D71)</f>
         <v/>
       </c>
       <c r="K38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D80),"",sWGA!$D80)</f>
+        <f>IF(ISBLANK(sWGA!$D79),"",sWGA!$D79)</f>
         <v/>
       </c>
       <c r="L38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D88),"",sWGA!$D88)</f>
+        <f>IF(ISBLANK(sWGA!$D87),"",sWGA!$D87)</f>
         <v/>
       </c>
       <c r="M38" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D96),"",sWGA!$D96)</f>
+        <f>IF(ISBLANK(sWGA!$D95),"",sWGA!$D95)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D9),"",sWGA!$D9)</f>
+        <f>IF(ISBLANK(sWGA!$D8),"",sWGA!$D8)</f>
         <v/>
       </c>
       <c r="C39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D17),"",sWGA!$D17)</f>
+        <f>IF(ISBLANK(sWGA!$D16),"",sWGA!$D16)</f>
         <v/>
       </c>
       <c r="D39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D25),"",sWGA!$D25)</f>
+        <f>IF(ISBLANK(sWGA!$D24),"",sWGA!$D24)</f>
         <v/>
       </c>
       <c r="E39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D33),"",sWGA!$D33)</f>
+        <f>IF(ISBLANK(sWGA!$D32),"",sWGA!$D32)</f>
         <v/>
       </c>
       <c r="F39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D41),"",sWGA!$D41)</f>
+        <f>IF(ISBLANK(sWGA!$D40),"",sWGA!$D40)</f>
         <v/>
       </c>
       <c r="G39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D49),"",sWGA!$D49)</f>
+        <f>IF(ISBLANK(sWGA!$D48),"",sWGA!$D48)</f>
         <v/>
       </c>
       <c r="H39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D57),"",sWGA!$D57)</f>
+        <f>IF(ISBLANK(sWGA!$D56),"",sWGA!$D56)</f>
         <v/>
       </c>
       <c r="I39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D65),"",sWGA!$D65)</f>
+        <f>IF(ISBLANK(sWGA!$D64),"",sWGA!$D64)</f>
         <v/>
       </c>
       <c r="J39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D73),"",sWGA!$D73)</f>
+        <f>IF(ISBLANK(sWGA!$D72),"",sWGA!$D72)</f>
         <v/>
       </c>
       <c r="K39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D81),"",sWGA!$D81)</f>
+        <f>IF(ISBLANK(sWGA!$D80),"",sWGA!$D80)</f>
         <v/>
       </c>
       <c r="L39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D89),"",sWGA!$D89)</f>
+        <f>IF(ISBLANK(sWGA!$D88),"",sWGA!$D88)</f>
         <v/>
       </c>
       <c r="M39" s="32" t="str">
-        <f>IF(ISBLANK(sWGA!$D97),"",sWGA!$D97)</f>
+        <f>IF(ISBLANK(sWGA!$D96),"",sWGA!$D96)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D9),"",sWGA!$D9)</f>
+        <v/>
+      </c>
+      <c r="C40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D17),"",sWGA!$D17)</f>
+        <v/>
+      </c>
+      <c r="D40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D25),"",sWGA!$D25)</f>
+        <v/>
+      </c>
+      <c r="E40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D33),"",sWGA!$D33)</f>
+        <v/>
+      </c>
+      <c r="F40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D41),"",sWGA!$D41)</f>
+        <v/>
+      </c>
+      <c r="G40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D49),"",sWGA!$D49)</f>
+        <v/>
+      </c>
+      <c r="H40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D57),"",sWGA!$D57)</f>
+        <v/>
+      </c>
+      <c r="I40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D65),"",sWGA!$D65)</f>
+        <v/>
+      </c>
+      <c r="J40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D73),"",sWGA!$D73)</f>
+        <v/>
+      </c>
+      <c r="K40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D81),"",sWGA!$D81)</f>
+        <v/>
+      </c>
+      <c r="L40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D89),"",sWGA!$D89)</f>
+        <v/>
+      </c>
+      <c r="M40" s="32" t="str">
+        <f>IF(ISBLANK(sWGA!$D97),"",sWGA!$D97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D10),"",sWGA!$D10)</f>
         <v/>
       </c>
-      <c r="C40" s="32" t="str">
+      <c r="C41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D18),"",sWGA!$D18)</f>
         <v/>
       </c>
-      <c r="D40" s="32" t="str">
+      <c r="D41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D26),"",sWGA!$D26)</f>
         <v/>
       </c>
-      <c r="E40" s="32" t="str">
+      <c r="E41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D34),"",sWGA!$D34)</f>
         <v/>
       </c>
-      <c r="F40" s="32" t="str">
+      <c r="F41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D42),"",sWGA!$D42)</f>
         <v/>
       </c>
-      <c r="G40" s="32" t="str">
+      <c r="G41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D50),"",sWGA!$D50)</f>
         <v/>
       </c>
-      <c r="H40" s="32" t="str">
+      <c r="H41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D58),"",sWGA!$D58)</f>
         <v/>
       </c>
-      <c r="I40" s="32" t="str">
+      <c r="I41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D66),"",sWGA!$D66)</f>
         <v/>
       </c>
-      <c r="J40" s="32" t="str">
+      <c r="J41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D74),"",sWGA!$D74)</f>
         <v/>
       </c>
-      <c r="K40" s="32" t="str">
+      <c r="K41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D82),"",sWGA!$D82)</f>
         <v/>
       </c>
-      <c r="L40" s="32" t="str">
+      <c r="L41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D90),"",sWGA!$D90)</f>
         <v/>
       </c>
-      <c r="M40" s="32" t="str">
+      <c r="M41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D98),"",sWGA!$D98)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="7"/>
+    <row r="42" spans="1:13">
+      <c r="A42" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="60">
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="C13:K14"/>
+  <mergeCells count="62">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A3:B3"/>
@@ -3445,41 +3496,25 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="K5:L6"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C14:K15"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C4 C11:C13">
+  <conditionalFormatting sqref="C2:C4 C11:C14">
     <cfRule type="expression" dxfId="4" priority="15">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
@@ -3489,9 +3524,9 @@
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>COUNTIF(D16,"")</formula>
+      <formula>COUNTIF(D17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3504,12 +3539,12 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85B9980E-D072-4E08-B792-4B86FA663CD4}">
           <x14:formula1>
             <xm:f>reference!$E$3:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C12</xm:sqref>
+          <xm:sqref>C13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECC56CCB-ED86-47E8-A451-039865410494}">
           <x14:formula1>
@@ -3522,6 +3557,12 @@
             <xm:f>reference!$G$3:$G$7</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49BACFA1-87AC-4545-9963-95B02395023D}">
+          <x14:formula1>
+            <xm:f>reference!$E$7:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:F11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3556,7 +3597,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="93"/>
       <c r="E1" s="94" t="s">
@@ -3570,34 +3611,34 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="45" t="s">
+      <c r="I2" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>157</v>
-      </c>
       <c r="J2" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
@@ -3605,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="39"/>
@@ -3627,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="39"/>
@@ -3649,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="39"/>
@@ -3671,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="39"/>
@@ -3693,7 +3734,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="39"/>
@@ -3715,7 +3756,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="39"/>
@@ -3737,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="39"/>
@@ -3759,7 +3800,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="39"/>
@@ -3781,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="39"/>
@@ -3803,7 +3844,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="39"/>
@@ -3825,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="39"/>
@@ -3847,7 +3888,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="39"/>
@@ -3869,7 +3910,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="39"/>
@@ -3891,7 +3932,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="39"/>
@@ -3913,7 +3954,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="39"/>
@@ -3935,7 +3976,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="39"/>
@@ -3957,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="39"/>
@@ -3979,7 +4020,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="39"/>
@@ -4001,7 +4042,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="39"/>
@@ -4023,7 +4064,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="39"/>
@@ -4045,7 +4086,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="39"/>
@@ -4067,7 +4108,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="39"/>
@@ -4089,7 +4130,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="39"/>
@@ -4111,7 +4152,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="39"/>
@@ -4133,7 +4174,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="39"/>
@@ -4155,7 +4196,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="39"/>
@@ -4177,7 +4218,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="39"/>
@@ -4199,7 +4240,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="39"/>
@@ -4221,7 +4262,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="39"/>
@@ -4243,7 +4284,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="39"/>
@@ -4265,7 +4306,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="39"/>
@@ -4287,7 +4328,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="39"/>
@@ -4309,7 +4350,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="39"/>
@@ -4331,7 +4372,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="39"/>
@@ -4353,7 +4394,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="39"/>
@@ -4375,7 +4416,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="39"/>
@@ -4397,7 +4438,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="39"/>
@@ -4419,7 +4460,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="39"/>
@@ -4441,7 +4482,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="39"/>
@@ -4463,7 +4504,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="39"/>
@@ -4485,7 +4526,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="39"/>
@@ -4507,7 +4548,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="39"/>
@@ -4529,7 +4570,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="39"/>
@@ -4551,7 +4592,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="39"/>
@@ -4573,7 +4614,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="39"/>
@@ -4595,7 +4636,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="39"/>
@@ -4617,7 +4658,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="39"/>
@@ -4639,7 +4680,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="39"/>
@@ -4661,7 +4702,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="39"/>
@@ -4683,7 +4724,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="39"/>
@@ -4705,7 +4746,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="39"/>
@@ -4727,7 +4768,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="39"/>
@@ -4749,7 +4790,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="39"/>
@@ -4771,7 +4812,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="39"/>
@@ -4793,7 +4834,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="39"/>
@@ -4815,7 +4856,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="39"/>
@@ -4837,7 +4878,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="39"/>
@@ -4859,7 +4900,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="39"/>
@@ -4881,7 +4922,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="39"/>
@@ -4903,7 +4944,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="39"/>
@@ -4925,7 +4966,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="39"/>
@@ -4947,7 +4988,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="39"/>
@@ -4969,7 +5010,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="39"/>
@@ -4991,7 +5032,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="39"/>
@@ -5013,7 +5054,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="39"/>
@@ -5035,7 +5076,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="39"/>
@@ -5057,7 +5098,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="39"/>
@@ -5079,7 +5120,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="39"/>
@@ -5101,7 +5142,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="39"/>
@@ -5123,7 +5164,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="39"/>
@@ -5145,7 +5186,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="30"/>
       <c r="D73" s="39"/>
@@ -5167,7 +5208,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="39"/>
@@ -5189,7 +5230,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="39"/>
@@ -5211,7 +5252,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="39"/>
@@ -5233,7 +5274,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="30"/>
       <c r="D77" s="39"/>
@@ -5255,7 +5296,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C78" s="30"/>
       <c r="D78" s="39"/>
@@ -5277,7 +5318,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79" s="30"/>
       <c r="D79" s="39"/>
@@ -5299,7 +5340,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" s="30"/>
       <c r="D80" s="39"/>
@@ -5321,7 +5362,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" s="30"/>
       <c r="D81" s="39"/>
@@ -5343,7 +5384,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="39"/>
@@ -5365,7 +5406,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="39"/>
@@ -5387,7 +5428,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="39"/>
@@ -5409,7 +5450,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="39"/>
@@ -5431,7 +5472,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="39"/>
@@ -5453,7 +5494,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="39"/>
@@ -5475,7 +5516,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" s="30"/>
       <c r="D88" s="39"/>
@@ -5497,7 +5538,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="39"/>
@@ -5519,7 +5560,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" s="30"/>
       <c r="D90" s="39"/>
@@ -5541,7 +5582,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="30"/>
       <c r="D91" s="39"/>
@@ -5563,7 +5604,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="39"/>
@@ -5585,7 +5626,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="39"/>
@@ -5607,7 +5648,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94" s="30"/>
       <c r="D94" s="39"/>
@@ -5629,7 +5670,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="39"/>
@@ -5651,7 +5692,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C96" s="30"/>
       <c r="D96" s="39"/>
@@ -5673,7 +5714,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="30"/>
       <c r="D97" s="39"/>
@@ -5695,7 +5736,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="30"/>
       <c r="D98" s="39"/>
@@ -5908,7 +5949,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5930,34 +5971,34 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1">
       <c r="A2" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="E2" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>142</v>
-      </c>
       <c r="J2" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="37">
         <v>40</v>
@@ -5969,105 +6010,114 @@
         <v>30</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="38">
         <v>10</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="37">
         <v>50</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="E5" s="4"/>
       <c r="G5" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
+      <c r="E6" s="24" t="s">
+        <v>230</v>
+      </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>232</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>233</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="G9" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickBot="1">
       <c r="A10" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="G12" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -6075,6 +6125,7 @@
       <c r="N12" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6086,7 +6137,9 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
   <cols>
@@ -6102,12 +6155,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="46.5">
       <c r="A1" s="52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6115,93 +6168,93 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B11" s="48"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -6209,17 +6262,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="46" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="47" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6233,52 +6286,55 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="1" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
         <v>173</v>
       </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="D1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
         <v>160</v>
       </c>
-      <c r="J1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="str">
         <f>IF(LEN(exp_id)=0,"",exp_id)</f>
         <v/>
@@ -6297,7 +6353,7 @@
       </c>
       <c r="E2">
         <f>IF(LEN(exp_version)=0,"",exp_version)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="str">
         <f>IF(LEN(exp_rxns)=0,"",exp_rxns)</f>
@@ -6311,17 +6367,21 @@
         <f>IF(LEN(exp_summary)=0,"",exp_summary)</f>
         <v/>
       </c>
-      <c r="I2" t="str">
+      <c r="I2">
+        <f>swga_enzyme</f>
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
         <f>IF(LEN(swga_rxnvol)=0,"",swga_rxnvol)</f>
         <v/>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>IF(LEN(swga_targetmass)=0,"",swga_targetmass)</f>
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MdJATUqKFoAcT0nd7E0Eso0OUUv+PvS9cO/adsidY8Hz5f81ZMuL73JBUiuxigJW2EiT3bDWxP07Uk7KG0JD1A==" saltValue="dUEvDhlHGdkEHcej9awLlg==" spinCount="100000" sheet="1" scenarios="1" formatColumns="0" insertRows="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tDcrRq4wnjvk/XNE0KlG9X1Y0ZMU7FkLxcMq6SYhRbf4l5KeeZE5iy/NQ043rCKPXQ6532BBkrBRwBm4vOOJmg==" saltValue="H2ijzumCfyyiA1dSXFCSgQ==" spinCount="100000" sheet="1" scenarios="1" formatColumns="0" insertRows="0" autoFilter="0"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6353,22 +6413,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
         <v>168</v>
-      </c>
-      <c r="F1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/templates/NOMADS_sWGA_Worksheet.xlsx
+++ b/templates/NOMADS_sWGA_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BE8C29-E2D9-418F-AEAE-7E2CCA2B7642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F502889-389F-4990-90FA-1E37447F897C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="29625" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="241">
   <si>
     <t>ng</t>
   </si>
@@ -1034,6 +1034,21 @@
   </si>
   <si>
     <t>Addition of swga enzyme capture</t>
+  </si>
+  <si>
+    <t>Sample Type</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>positive_control</t>
+  </si>
+  <si>
+    <t>negative_control</t>
+  </si>
+  <si>
+    <t>sample_type</t>
   </si>
 </sst>
 </file>
@@ -1589,6 +1604,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,83 +1712,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1708,9 +1726,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1721,7 +1736,10 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{50147B5D-B577-4D84-8D3E-2790725A5EE2}"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1756,6 +1774,67 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Andale Mono"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1896,47 +1975,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Andale Mono"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2062,23 +2100,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_sWGA" displayName="tbl_sWGA" ref="A2:J98" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="A2:J98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_sWGA" displayName="tbl_sWGA" ref="A2:K98" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A2:K98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5587DAF9-72AA-46A4-AAFA-83520030B12F}" name="Sample Type" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="14">
       <calculatedColumnFormula>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="10">
       <calculatedColumnFormula>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2127,26 +2166,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CCB33337-57AD-4E7A-90CB-3035C0FB4E08}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:F97" totalsRowShown="0">
-  <autoFilter ref="A1:F97" xr:uid="{CCB33337-57AD-4E7A-90CB-3035C0FB4E08}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CCB33337-57AD-4E7A-90CB-3035C0FB4E08}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:G97" totalsRowShown="0">
+  <autoFilter ref="A1:G97" xr:uid="{CCB33337-57AD-4E7A-90CB-3035C0FB4E08}"/>
+  <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{5F3394BF-DF77-48C1-B2AA-E7EF228DDFEA}" name="sample_id">
       <calculatedColumnFormula>IF(LEN(sWGA!C3)=0,"",sWGA!C3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E11C4165-C164-4B88-9BF1-7FC2458E8999}" name="extraction_id">
       <calculatedColumnFormula>IF(LEN(sWGA!D3)=0,"",sWGA!D3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="5">
-      <calculatedColumnFormula>IF(LEN(sWGA!E3)=0,"",exp_id)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{1FB0E1F2-B22B-4383-B21B-4C2C979A2F8D}" name="sample_type" dataDxfId="0">
+      <calculatedColumnFormula>IF(LEN(sWGA!E3)=0,"",sWGA!E3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="8">
+      <calculatedColumnFormula>IF(LEN(sWGA!F3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F5CC8E00-1DA6-4870-97ED-B9F5BA34367D}" name="swga_identifier">
-      <calculatedColumnFormula>IF(LEN(sWGA!E3)=0,"",sWGA!E3)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(sWGA!F3)=0,"",sWGA!F3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{69977892-2940-4767-BCD3-8A7DBDFEFE49}" name="swga_template_ul">
-      <calculatedColumnFormula>IF(LEN(sWGA!F3)=0,"",sWGA!F3)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(sWGA!G3)=0,"",sWGA!G3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{93535458-6311-412F-9B5D-5D2548EC8C00}" name="swga_product_ngul">
-      <calculatedColumnFormula>IF(LEN(sWGA!I3)=0,"",sWGA!I3)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(sWGA!J3)=0,"",sWGA!J3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2466,190 +2508,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="70" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="K2" s="62" t="s">
+      <c r="H2" s="76"/>
+      <c r="K2" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="62"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="60"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="61"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="77" t="str">
+      <c r="B5" s="78"/>
+      <c r="C5" s="81" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!G3:H7,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="L5" s="79"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="85" t="str">
+      <c r="B6" s="78"/>
+      <c r="C6" s="63" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="23"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="88" t="str">
+      <c r="B9" s="68"/>
+      <c r="C9" s="66" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91" t="str">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" t="s">
         <v>144</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="20" t="s">
         <v>150</v>
       </c>
@@ -2659,10 +2701,10 @@
       <c r="B13" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" t="s">
         <v>144</v>
       </c>
@@ -2672,28 +2714,28 @@
       <c r="B14" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="29"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7"/>
@@ -2732,165 +2774,165 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87" t="s">
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87" t="str">
+      <c r="E19" s="65"/>
+      <c r="F19" s="65" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="J19" s="65" t="s">
+      <c r="G19" s="65"/>
+      <c r="J19" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="65"/>
+      <c r="K19" s="90"/>
       <c r="L19" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="68">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="70">
         <f>swga_rxnvol/10</f>
         <v>0</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="83" t="str">
+      <c r="E20" s="70"/>
+      <c r="F20" s="74" t="str">
         <f t="shared" ref="F20:F23" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D20*exp_rxns*(1+$D$17)))</f>
         <v/>
       </c>
-      <c r="G20" s="83"/>
-      <c r="J20" s="66">
+      <c r="G20" s="74"/>
+      <c r="J20" s="91">
         <v>35</v>
       </c>
-      <c r="K20" s="66"/>
+      <c r="K20" s="91"/>
       <c r="L20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="68">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="70">
         <v>0.25</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="83" t="str">
+      <c r="E21" s="70"/>
+      <c r="F21" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="83"/>
-      <c r="J21" s="66">
+      <c r="G21" s="74"/>
+      <c r="J21" s="91">
         <v>34</v>
       </c>
-      <c r="K21" s="66"/>
+      <c r="K21" s="91"/>
       <c r="L21" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="68">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="70">
         <v>1.25</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="83" t="str">
+      <c r="E22" s="70"/>
+      <c r="F22" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="83"/>
-      <c r="J22" s="63">
+      <c r="G22" s="74"/>
+      <c r="J22" s="88">
         <v>33</v>
       </c>
-      <c r="K22" s="63"/>
+      <c r="K22" s="88"/>
       <c r="L22" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="68">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="70">
         <v>5</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="83" t="str">
+      <c r="E23" s="70"/>
+      <c r="F23" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G23" s="83"/>
-      <c r="J23" s="64">
+      <c r="G23" s="74"/>
+      <c r="J23" s="89">
         <v>32</v>
       </c>
-      <c r="K23" s="64"/>
+      <c r="K23" s="89"/>
       <c r="L23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="96" t="str">
+      <c r="A24" s="72" t="str">
         <f>IF(C11="","",C11)</f>
         <v/>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="68">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="70">
         <v>1</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="83" t="str">
+      <c r="E24" s="70"/>
+      <c r="F24" s="74" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$17)))</f>
         <v/>
       </c>
-      <c r="G24" s="83"/>
-      <c r="J24" s="63">
+      <c r="G24" s="74"/>
+      <c r="J24" s="88">
         <v>31</v>
       </c>
-      <c r="K24" s="63"/>
+      <c r="K24" s="88"/>
       <c r="L24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="68">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="70">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D20:E24)</f>
         <v>-17.5</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="83" t="str">
+      <c r="E25" s="70"/>
+      <c r="F25" s="74" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D25*exp_rxns*(1+$D$17)))</f>
         <v/>
       </c>
-      <c r="G25" s="83"/>
-      <c r="J25" s="63">
+      <c r="G25" s="74"/>
+      <c r="J25" s="88">
         <v>30</v>
       </c>
-      <c r="K25" s="63"/>
+      <c r="K25" s="88"/>
       <c r="L25" s="6" t="s">
         <v>13</v>
       </c>
@@ -2900,10 +2942,10 @@
         <f>CONCATENATE("Add ",SUM(D20:D25)," µl of MM to each well")</f>
         <v>Add -10 µl of MM to each well</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="88">
         <v>65</v>
       </c>
-      <c r="K26" s="63"/>
+      <c r="K26" s="88"/>
       <c r="L26" s="6" t="s">
         <v>16</v>
       </c>
@@ -2913,10 +2955,10 @@
       <c r="C27" s="9"/>
       <c r="D27" s="7"/>
       <c r="G27" s="10"/>
-      <c r="J27" s="63">
+      <c r="J27" s="88">
         <v>10</v>
       </c>
-      <c r="K27" s="63"/>
+      <c r="K27" s="88"/>
       <c r="L27" s="13" t="s">
         <v>11</v>
       </c>
@@ -2931,11 +2973,11 @@
       <c r="D28" s="7"/>
       <c r="F28" s="13"/>
       <c r="G28" s="10"/>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
@@ -2956,11 +2998,11 @@
       <c r="D30" s="7"/>
       <c r="F30" s="13"/>
       <c r="G30" s="10"/>
-      <c r="K30" s="59" t="s">
+      <c r="K30" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="14"/>
@@ -3450,24 +3492,34 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C14:K15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A25:C25"/>
@@ -3484,48 +3536,38 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C14:K15"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C14">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>COUNTIF(D17,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3576,40 +3618,41 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="3" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="92" t="s">
+    <row r="1" spans="1:11">
+      <c r="C1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94" t="s">
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="48.75" customHeight="1">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="54" t="s">
         <v>35</v>
       </c>
@@ -3622,26 +3665,29 @@
       <c r="D2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="H2" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="I2" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="J2" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="K2" s="45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="56">
         <v>1</v>
       </c>
@@ -3650,20 +3696,21 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="39"/>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="30"/>
+      <c r="F3" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
-      <c r="I3" s="15" t="str">
+      <c r="I3" s="40"/>
+      <c r="J3" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="56">
         <v>2</v>
       </c>
@@ -3672,20 +3719,21 @@
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="27" t="str">
+      <c r="E4" s="30"/>
+      <c r="F4" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
-      <c r="I4" s="15" t="str">
+      <c r="I4" s="40"/>
+      <c r="J4" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="56">
         <v>3</v>
       </c>
@@ -3694,20 +3742,21 @@
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="27" t="str">
+      <c r="E5" s="30"/>
+      <c r="F5" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="15" t="str">
+      <c r="I5" s="40"/>
+      <c r="J5" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K5" s="42"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="56">
         <v>4</v>
       </c>
@@ -3716,20 +3765,21 @@
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="27" t="str">
+      <c r="E6" s="30"/>
+      <c r="F6" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="40"/>
+      <c r="J6" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="56">
         <v>5</v>
       </c>
@@ -3738,20 +3788,21 @@
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="27" t="str">
+      <c r="E7" s="30"/>
+      <c r="F7" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="40"/>
+      <c r="J7" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="56">
         <v>6</v>
       </c>
@@ -3760,20 +3811,21 @@
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="27" t="str">
+      <c r="E8" s="30"/>
+      <c r="F8" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="15" t="str">
+      <c r="I8" s="40"/>
+      <c r="J8" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="56">
         <v>7</v>
       </c>
@@ -3782,20 +3834,21 @@
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="27" t="str">
+      <c r="E9" s="30"/>
+      <c r="F9" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="15" t="str">
+      <c r="I9" s="40"/>
+      <c r="J9" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="56">
         <v>8</v>
       </c>
@@ -3804,20 +3857,21 @@
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="27" t="str">
+      <c r="E10" s="30"/>
+      <c r="F10" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
-      <c r="I10" s="15" t="str">
+      <c r="I10" s="40"/>
+      <c r="J10" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="56">
         <v>9</v>
       </c>
@@ -3826,20 +3880,21 @@
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="27" t="str">
+      <c r="E11" s="30"/>
+      <c r="F11" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="15" t="str">
+      <c r="I11" s="40"/>
+      <c r="J11" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="56">
         <v>10</v>
       </c>
@@ -3848,20 +3903,21 @@
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="27" t="str">
+      <c r="E12" s="30"/>
+      <c r="F12" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="15" t="str">
+      <c r="I12" s="40"/>
+      <c r="J12" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="56">
         <v>11</v>
       </c>
@@ -3870,20 +3926,21 @@
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="30"/>
+      <c r="F13" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="15" t="str">
+      <c r="I13" s="40"/>
+      <c r="J13" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="56">
         <v>12</v>
       </c>
@@ -3892,20 +3949,21 @@
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="30"/>
+      <c r="F14" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="15" t="str">
+      <c r="I14" s="40"/>
+      <c r="J14" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="56">
         <v>13</v>
       </c>
@@ -3914,20 +3972,21 @@
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="27" t="str">
+      <c r="E15" s="30"/>
+      <c r="F15" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="15" t="str">
+      <c r="I15" s="40"/>
+      <c r="J15" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J15" s="42"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="56">
         <v>14</v>
       </c>
@@ -3936,20 +3995,21 @@
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="27" t="str">
+      <c r="E16" s="30"/>
+      <c r="F16" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="15" t="str">
+      <c r="I16" s="40"/>
+      <c r="J16" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="56">
         <v>15</v>
       </c>
@@ -3958,20 +4018,21 @@
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="27" t="str">
+      <c r="E17" s="30"/>
+      <c r="F17" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="15" t="str">
+      <c r="I17" s="40"/>
+      <c r="J17" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="56">
         <v>16</v>
       </c>
@@ -3980,20 +4041,21 @@
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="27" t="str">
+      <c r="E18" s="30"/>
+      <c r="F18" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="15" t="str">
+      <c r="I18" s="40"/>
+      <c r="J18" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K18" s="42"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="56">
         <v>17</v>
       </c>
@@ -4002,20 +4064,21 @@
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="27" t="str">
+      <c r="E19" s="30"/>
+      <c r="F19" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="15" t="str">
+      <c r="I19" s="40"/>
+      <c r="J19" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="56">
         <v>18</v>
       </c>
@@ -4024,20 +4087,21 @@
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="27" t="str">
+      <c r="E20" s="30"/>
+      <c r="F20" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="15" t="str">
+      <c r="I20" s="40"/>
+      <c r="J20" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="56">
         <v>19</v>
       </c>
@@ -4046,20 +4110,21 @@
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="27" t="str">
+      <c r="E21" s="30"/>
+      <c r="F21" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="15" t="str">
+      <c r="I21" s="40"/>
+      <c r="J21" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="56">
         <v>20</v>
       </c>
@@ -4068,20 +4133,21 @@
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="27" t="str">
+      <c r="E22" s="30"/>
+      <c r="F22" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
-      <c r="I22" s="15" t="str">
+      <c r="I22" s="40"/>
+      <c r="J22" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K22" s="42"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="56">
         <v>21</v>
       </c>
@@ -4090,20 +4156,21 @@
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="27" t="str">
+      <c r="E23" s="30"/>
+      <c r="F23" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="15" t="str">
+      <c r="I23" s="40"/>
+      <c r="J23" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J23" s="42"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K23" s="42"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="56">
         <v>22</v>
       </c>
@@ -4112,20 +4179,21 @@
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="27" t="str">
+      <c r="E24" s="30"/>
+      <c r="F24" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="15" t="str">
+      <c r="I24" s="40"/>
+      <c r="J24" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K24" s="42"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="56">
         <v>23</v>
       </c>
@@ -4134,20 +4202,21 @@
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="27" t="str">
+      <c r="E25" s="30"/>
+      <c r="F25" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="15" t="str">
+      <c r="I25" s="40"/>
+      <c r="J25" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K25" s="42"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="56">
         <v>24</v>
       </c>
@@ -4156,20 +4225,21 @@
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="27" t="str">
+      <c r="E26" s="30"/>
+      <c r="F26" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
-      <c r="I26" s="15" t="str">
+      <c r="I26" s="40"/>
+      <c r="J26" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K26" s="42"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="56">
         <v>25</v>
       </c>
@@ -4178,20 +4248,21 @@
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="27" t="str">
+      <c r="E27" s="30"/>
+      <c r="F27" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
-      <c r="I27" s="15" t="str">
+      <c r="I27" s="40"/>
+      <c r="J27" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J27" s="42"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K27" s="42"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="56">
         <v>26</v>
       </c>
@@ -4200,20 +4271,21 @@
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="27" t="str">
+      <c r="E28" s="30"/>
+      <c r="F28" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
-      <c r="I28" s="15" t="str">
+      <c r="I28" s="40"/>
+      <c r="J28" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J28" s="42"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K28" s="42"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="56">
         <v>27</v>
       </c>
@@ -4222,20 +4294,21 @@
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="27" t="str">
+      <c r="E29" s="30"/>
+      <c r="F29" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
-      <c r="I29" s="15" t="str">
+      <c r="I29" s="40"/>
+      <c r="J29" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K29" s="42"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="56">
         <v>28</v>
       </c>
@@ -4244,20 +4317,21 @@
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="27" t="str">
+      <c r="E30" s="30"/>
+      <c r="F30" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
-      <c r="I30" s="15" t="str">
+      <c r="I30" s="40"/>
+      <c r="J30" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J30" s="42"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K30" s="42"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="56">
         <v>29</v>
       </c>
@@ -4266,20 +4340,21 @@
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="27" t="str">
+      <c r="E31" s="30"/>
+      <c r="F31" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
-      <c r="I31" s="15" t="str">
+      <c r="I31" s="40"/>
+      <c r="J31" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K31" s="42"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="56">
         <v>30</v>
       </c>
@@ -4288,20 +4363,21 @@
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="27" t="str">
+      <c r="E32" s="30"/>
+      <c r="F32" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
-      <c r="I32" s="15" t="str">
+      <c r="I32" s="40"/>
+      <c r="J32" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J32" s="42"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="56">
         <v>31</v>
       </c>
@@ -4310,20 +4386,21 @@
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="27" t="str">
+      <c r="E33" s="30"/>
+      <c r="F33" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
-      <c r="I33" s="15" t="str">
+      <c r="I33" s="40"/>
+      <c r="J33" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J33" s="42"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K33" s="42"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="56">
         <v>32</v>
       </c>
@@ -4332,20 +4409,21 @@
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="27" t="str">
+      <c r="E34" s="30"/>
+      <c r="F34" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
-      <c r="I34" s="15" t="str">
+      <c r="I34" s="40"/>
+      <c r="J34" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J34" s="42"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K34" s="42"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="56">
         <v>33</v>
       </c>
@@ -4354,20 +4432,21 @@
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="27" t="str">
+      <c r="E35" s="30"/>
+      <c r="F35" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
-      <c r="I35" s="15" t="str">
+      <c r="I35" s="40"/>
+      <c r="J35" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J35" s="42"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K35" s="42"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="56">
         <v>34</v>
       </c>
@@ -4376,20 +4455,21 @@
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="27" t="str">
+      <c r="E36" s="30"/>
+      <c r="F36" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
-      <c r="I36" s="15" t="str">
+      <c r="I36" s="40"/>
+      <c r="J36" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J36" s="42"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K36" s="42"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="56">
         <v>35</v>
       </c>
@@ -4398,20 +4478,21 @@
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="27" t="str">
+      <c r="E37" s="30"/>
+      <c r="F37" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
-      <c r="I37" s="15" t="str">
+      <c r="I37" s="40"/>
+      <c r="J37" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J37" s="42"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K37" s="42"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="56">
         <v>36</v>
       </c>
@@ -4420,20 +4501,21 @@
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="27" t="str">
+      <c r="E38" s="30"/>
+      <c r="F38" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="15" t="str">
+      <c r="I38" s="40"/>
+      <c r="J38" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J38" s="42"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K38" s="42"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="56">
         <v>37</v>
       </c>
@@ -4442,20 +4524,21 @@
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="27" t="str">
+      <c r="E39" s="30"/>
+      <c r="F39" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
-      <c r="I39" s="15" t="str">
+      <c r="I39" s="40"/>
+      <c r="J39" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J39" s="42"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K39" s="42"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="56">
         <v>38</v>
       </c>
@@ -4464,20 +4547,21 @@
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="27" t="str">
+      <c r="E40" s="30"/>
+      <c r="F40" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
-      <c r="I40" s="15" t="str">
+      <c r="I40" s="40"/>
+      <c r="J40" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J40" s="42"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K40" s="42"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="56">
         <v>39</v>
       </c>
@@ -4486,20 +4570,21 @@
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="27" t="str">
+      <c r="E41" s="30"/>
+      <c r="F41" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
-      <c r="I41" s="15" t="str">
+      <c r="I41" s="40"/>
+      <c r="J41" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J41" s="42"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K41" s="42"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="56">
         <v>40</v>
       </c>
@@ -4508,20 +4593,21 @@
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="27" t="str">
+      <c r="E42" s="30"/>
+      <c r="F42" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
-      <c r="I42" s="15" t="str">
+      <c r="I42" s="40"/>
+      <c r="J42" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K42" s="42"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="56">
         <v>41</v>
       </c>
@@ -4530,20 +4616,21 @@
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="27" t="str">
+      <c r="E43" s="30"/>
+      <c r="F43" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
-      <c r="I43" s="15" t="str">
+      <c r="I43" s="40"/>
+      <c r="J43" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K43" s="42"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="56">
         <v>42</v>
       </c>
@@ -4552,20 +4639,21 @@
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="27" t="str">
+      <c r="E44" s="30"/>
+      <c r="F44" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
-      <c r="I44" s="15" t="str">
+      <c r="I44" s="40"/>
+      <c r="J44" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J44" s="42"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K44" s="42"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="56">
         <v>43</v>
       </c>
@@ -4574,20 +4662,21 @@
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="27" t="str">
+      <c r="E45" s="30"/>
+      <c r="F45" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
-      <c r="I45" s="15" t="str">
+      <c r="I45" s="40"/>
+      <c r="J45" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J45" s="42"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K45" s="42"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="56">
         <v>44</v>
       </c>
@@ -4596,20 +4685,21 @@
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="27" t="str">
+      <c r="E46" s="30"/>
+      <c r="F46" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
-      <c r="I46" s="15" t="str">
+      <c r="I46" s="40"/>
+      <c r="J46" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J46" s="42"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K46" s="42"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="56">
         <v>45</v>
       </c>
@@ -4618,20 +4708,21 @@
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="27" t="str">
+      <c r="E47" s="30"/>
+      <c r="F47" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F47" s="40"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
-      <c r="I47" s="15" t="str">
+      <c r="I47" s="40"/>
+      <c r="J47" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J47" s="42"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K47" s="42"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="56">
         <v>46</v>
       </c>
@@ -4640,20 +4731,21 @@
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="27" t="str">
+      <c r="E48" s="30"/>
+      <c r="F48" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F48" s="40"/>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
-      <c r="I48" s="15" t="str">
+      <c r="I48" s="40"/>
+      <c r="J48" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J48" s="42"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K48" s="42"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="56">
         <v>47</v>
       </c>
@@ -4662,20 +4754,21 @@
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="27" t="str">
+      <c r="E49" s="30"/>
+      <c r="F49" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F49" s="40"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
-      <c r="I49" s="15" t="str">
+      <c r="I49" s="40"/>
+      <c r="J49" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J49" s="42"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K49" s="42"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="56">
         <v>48</v>
       </c>
@@ -4684,20 +4777,21 @@
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="27" t="str">
+      <c r="E50" s="30"/>
+      <c r="F50" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F50" s="40"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="15" t="str">
+      <c r="I50" s="40"/>
+      <c r="J50" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K50" s="42"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="56">
         <v>49</v>
       </c>
@@ -4706,20 +4800,21 @@
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="27" t="str">
+      <c r="E51" s="30"/>
+      <c r="F51" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F51" s="40"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="15" t="str">
+      <c r="I51" s="40"/>
+      <c r="J51" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J51" s="42"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K51" s="42"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="56">
         <v>50</v>
       </c>
@@ -4728,20 +4823,21 @@
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="27" t="str">
+      <c r="E52" s="30"/>
+      <c r="F52" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F52" s="40"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
-      <c r="I52" s="15" t="str">
+      <c r="I52" s="40"/>
+      <c r="J52" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J52" s="42"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K52" s="42"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="56">
         <v>51</v>
       </c>
@@ -4750,20 +4846,21 @@
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="27" t="str">
+      <c r="E53" s="30"/>
+      <c r="F53" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F53" s="40"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
-      <c r="I53" s="15" t="str">
+      <c r="I53" s="40"/>
+      <c r="J53" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K53" s="42"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="56">
         <v>52</v>
       </c>
@@ -4772,20 +4869,21 @@
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="27" t="str">
+      <c r="E54" s="30"/>
+      <c r="F54" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F54" s="40"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
-      <c r="I54" s="15" t="str">
+      <c r="I54" s="40"/>
+      <c r="J54" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J54" s="42"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K54" s="42"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="56">
         <v>53</v>
       </c>
@@ -4794,20 +4892,21 @@
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="27" t="str">
+      <c r="E55" s="30"/>
+      <c r="F55" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
-      <c r="I55" s="15" t="str">
+      <c r="I55" s="40"/>
+      <c r="J55" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J55" s="42"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K55" s="42"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="56">
         <v>54</v>
       </c>
@@ -4816,20 +4915,21 @@
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="27" t="str">
+      <c r="E56" s="30"/>
+      <c r="F56" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F56" s="40"/>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
-      <c r="I56" s="15" t="str">
+      <c r="I56" s="40"/>
+      <c r="J56" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J56" s="42"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K56" s="42"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="56">
         <v>55</v>
       </c>
@@ -4838,20 +4938,21 @@
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="27" t="str">
+      <c r="E57" s="30"/>
+      <c r="F57" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F57" s="40"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
-      <c r="I57" s="15" t="str">
+      <c r="I57" s="40"/>
+      <c r="J57" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J57" s="42"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K57" s="42"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="56">
         <v>56</v>
       </c>
@@ -4860,20 +4961,21 @@
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="27" t="str">
+      <c r="E58" s="30"/>
+      <c r="F58" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F58" s="40"/>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
-      <c r="I58" s="15" t="str">
+      <c r="I58" s="40"/>
+      <c r="J58" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J58" s="42"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K58" s="42"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="56">
         <v>57</v>
       </c>
@@ -4882,20 +4984,21 @@
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="27" t="str">
+      <c r="E59" s="30"/>
+      <c r="F59" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F59" s="40"/>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
-      <c r="I59" s="15" t="str">
+      <c r="I59" s="40"/>
+      <c r="J59" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J59" s="42"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K59" s="42"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="56">
         <v>58</v>
       </c>
@@ -4904,20 +5007,21 @@
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="27" t="str">
+      <c r="E60" s="30"/>
+      <c r="F60" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F60" s="40"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
-      <c r="I60" s="15" t="str">
+      <c r="I60" s="40"/>
+      <c r="J60" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J60" s="42"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K60" s="42"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="56">
         <v>59</v>
       </c>
@@ -4926,20 +5030,21 @@
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="27" t="str">
+      <c r="E61" s="30"/>
+      <c r="F61" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
-      <c r="I61" s="15" t="str">
+      <c r="I61" s="40"/>
+      <c r="J61" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J61" s="42"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K61" s="42"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="56">
         <v>60</v>
       </c>
@@ -4948,20 +5053,21 @@
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="27" t="str">
+      <c r="E62" s="30"/>
+      <c r="F62" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
-      <c r="I62" s="15" t="str">
+      <c r="I62" s="40"/>
+      <c r="J62" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J62" s="42"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K62" s="42"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="56">
         <v>61</v>
       </c>
@@ -4970,20 +5076,21 @@
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="27" t="str">
+      <c r="E63" s="30"/>
+      <c r="F63" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F63" s="40"/>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
-      <c r="I63" s="15" t="str">
+      <c r="I63" s="40"/>
+      <c r="J63" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J63" s="42"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K63" s="42"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="56">
         <v>62</v>
       </c>
@@ -4992,20 +5099,21 @@
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="39"/>
-      <c r="E64" s="27" t="str">
+      <c r="E64" s="30"/>
+      <c r="F64" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F64" s="40"/>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
-      <c r="I64" s="15" t="str">
+      <c r="I64" s="40"/>
+      <c r="J64" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J64" s="42"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K64" s="42"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="56">
         <v>63</v>
       </c>
@@ -5014,20 +5122,21 @@
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="27" t="str">
+      <c r="E65" s="30"/>
+      <c r="F65" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F65" s="40"/>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
-      <c r="I65" s="15" t="str">
+      <c r="I65" s="40"/>
+      <c r="J65" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K65" s="42"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="56">
         <v>64</v>
       </c>
@@ -5036,20 +5145,21 @@
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="27" t="str">
+      <c r="E66" s="30"/>
+      <c r="F66" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F66" s="40"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
-      <c r="I66" s="15" t="str">
+      <c r="I66" s="40"/>
+      <c r="J66" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J66" s="42"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K66" s="42"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="56">
         <v>65</v>
       </c>
@@ -5058,20 +5168,21 @@
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="27" t="str">
+      <c r="E67" s="30"/>
+      <c r="F67" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F67" s="40"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
-      <c r="I67" s="15" t="str">
+      <c r="I67" s="40"/>
+      <c r="J67" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J67" s="42"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K67" s="42"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="56">
         <v>66</v>
       </c>
@@ -5080,20 +5191,21 @@
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="27" t="str">
+      <c r="E68" s="30"/>
+      <c r="F68" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F68" s="40"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
-      <c r="I68" s="15" t="str">
+      <c r="I68" s="40"/>
+      <c r="J68" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J68" s="42"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K68" s="42"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="56">
         <v>67</v>
       </c>
@@ -5102,20 +5214,21 @@
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="27" t="str">
+      <c r="E69" s="30"/>
+      <c r="F69" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F69" s="40"/>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
-      <c r="I69" s="15" t="str">
+      <c r="I69" s="40"/>
+      <c r="J69" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J69" s="42"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K69" s="42"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="56">
         <v>68</v>
       </c>
@@ -5124,20 +5237,21 @@
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="39"/>
-      <c r="E70" s="27" t="str">
+      <c r="E70" s="30"/>
+      <c r="F70" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F70" s="40"/>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
-      <c r="I70" s="15" t="str">
+      <c r="I70" s="40"/>
+      <c r="J70" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J70" s="42"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K70" s="42"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="56">
         <v>69</v>
       </c>
@@ -5146,20 +5260,21 @@
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="27" t="str">
+      <c r="E71" s="30"/>
+      <c r="F71" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F71" s="40"/>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
-      <c r="I71" s="15" t="str">
+      <c r="I71" s="40"/>
+      <c r="J71" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J71" s="42"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K71" s="42"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="56">
         <v>70</v>
       </c>
@@ -5168,20 +5283,21 @@
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="27" t="str">
+      <c r="E72" s="30"/>
+      <c r="F72" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F72" s="40"/>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
-      <c r="I72" s="15" t="str">
+      <c r="I72" s="40"/>
+      <c r="J72" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J72" s="42"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K72" s="42"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="56">
         <v>71</v>
       </c>
@@ -5190,20 +5306,21 @@
       </c>
       <c r="C73" s="30"/>
       <c r="D73" s="39"/>
-      <c r="E73" s="27" t="str">
+      <c r="E73" s="30"/>
+      <c r="F73" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F73" s="40"/>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
-      <c r="I73" s="15" t="str">
+      <c r="I73" s="40"/>
+      <c r="J73" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J73" s="42"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K73" s="42"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="56">
         <v>72</v>
       </c>
@@ -5212,20 +5329,21 @@
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="27" t="str">
+      <c r="E74" s="30"/>
+      <c r="F74" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F74" s="40"/>
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
-      <c r="I74" s="15" t="str">
+      <c r="I74" s="40"/>
+      <c r="J74" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J74" s="42"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K74" s="42"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="56">
         <v>73</v>
       </c>
@@ -5234,20 +5352,21 @@
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="27" t="str">
+      <c r="E75" s="30"/>
+      <c r="F75" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F75" s="40"/>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
-      <c r="I75" s="15" t="str">
+      <c r="I75" s="40"/>
+      <c r="J75" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J75" s="42"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K75" s="42"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="56">
         <v>74</v>
       </c>
@@ -5256,20 +5375,21 @@
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="27" t="str">
+      <c r="E76" s="30"/>
+      <c r="F76" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F76" s="40"/>
       <c r="G76" s="40"/>
       <c r="H76" s="40"/>
-      <c r="I76" s="15" t="str">
+      <c r="I76" s="40"/>
+      <c r="J76" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J76" s="42"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K76" s="42"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="56">
         <v>75</v>
       </c>
@@ -5278,20 +5398,21 @@
       </c>
       <c r="C77" s="30"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="27" t="str">
+      <c r="E77" s="30"/>
+      <c r="F77" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F77" s="40"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
-      <c r="I77" s="15" t="str">
+      <c r="I77" s="40"/>
+      <c r="J77" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J77" s="42"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K77" s="42"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="56">
         <v>76</v>
       </c>
@@ -5300,20 +5421,21 @@
       </c>
       <c r="C78" s="30"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="27" t="str">
+      <c r="E78" s="30"/>
+      <c r="F78" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F78" s="40"/>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
-      <c r="I78" s="15" t="str">
+      <c r="I78" s="40"/>
+      <c r="J78" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J78" s="42"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K78" s="42"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="56">
         <v>77</v>
       </c>
@@ -5322,20 +5444,21 @@
       </c>
       <c r="C79" s="30"/>
       <c r="D79" s="39"/>
-      <c r="E79" s="27" t="str">
+      <c r="E79" s="30"/>
+      <c r="F79" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F79" s="40"/>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
-      <c r="I79" s="15" t="str">
+      <c r="I79" s="40"/>
+      <c r="J79" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J79" s="42"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K79" s="42"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="56">
         <v>78</v>
       </c>
@@ -5344,20 +5467,21 @@
       </c>
       <c r="C80" s="30"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="27" t="str">
+      <c r="E80" s="30"/>
+      <c r="F80" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F80" s="40"/>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
-      <c r="I80" s="15" t="str">
+      <c r="I80" s="40"/>
+      <c r="J80" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J80" s="42"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K80" s="42"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="56">
         <v>79</v>
       </c>
@@ -5366,20 +5490,21 @@
       </c>
       <c r="C81" s="30"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="27" t="str">
+      <c r="E81" s="30"/>
+      <c r="F81" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F81" s="40"/>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
-      <c r="I81" s="15" t="str">
+      <c r="I81" s="40"/>
+      <c r="J81" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J81" s="42"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K81" s="42"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="56">
         <v>80</v>
       </c>
@@ -5388,20 +5513,21 @@
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="27" t="str">
+      <c r="E82" s="30"/>
+      <c r="F82" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F82" s="40"/>
       <c r="G82" s="40"/>
       <c r="H82" s="40"/>
-      <c r="I82" s="15" t="str">
+      <c r="I82" s="40"/>
+      <c r="J82" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J82" s="42"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K82" s="42"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="56">
         <v>81</v>
       </c>
@@ -5410,20 +5536,21 @@
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="27" t="str">
+      <c r="E83" s="30"/>
+      <c r="F83" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F83" s="40"/>
       <c r="G83" s="40"/>
       <c r="H83" s="40"/>
-      <c r="I83" s="15" t="str">
+      <c r="I83" s="40"/>
+      <c r="J83" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J83" s="42"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K83" s="42"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="56">
         <v>82</v>
       </c>
@@ -5432,20 +5559,21 @@
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="27" t="str">
+      <c r="E84" s="30"/>
+      <c r="F84" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F84" s="40"/>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
-      <c r="I84" s="15" t="str">
+      <c r="I84" s="40"/>
+      <c r="J84" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J84" s="42"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K84" s="42"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="56">
         <v>83</v>
       </c>
@@ -5454,20 +5582,21 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="27" t="str">
+      <c r="E85" s="30"/>
+      <c r="F85" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F85" s="40"/>
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
-      <c r="I85" s="15" t="str">
+      <c r="I85" s="40"/>
+      <c r="J85" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J85" s="42"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K85" s="42"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="56">
         <v>84</v>
       </c>
@@ -5476,20 +5605,21 @@
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="27" t="str">
+      <c r="E86" s="30"/>
+      <c r="F86" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F86" s="40"/>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
-      <c r="I86" s="15" t="str">
+      <c r="I86" s="40"/>
+      <c r="J86" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J86" s="42"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K86" s="42"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="56">
         <v>85</v>
       </c>
@@ -5498,20 +5628,21 @@
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="27" t="str">
+      <c r="E87" s="30"/>
+      <c r="F87" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F87" s="40"/>
       <c r="G87" s="40"/>
       <c r="H87" s="40"/>
-      <c r="I87" s="15" t="str">
+      <c r="I87" s="40"/>
+      <c r="J87" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J87" s="42"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K87" s="42"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="56">
         <v>86</v>
       </c>
@@ -5520,20 +5651,21 @@
       </c>
       <c r="C88" s="30"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="27" t="str">
+      <c r="E88" s="30"/>
+      <c r="F88" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F88" s="40"/>
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
-      <c r="I88" s="15" t="str">
+      <c r="I88" s="40"/>
+      <c r="J88" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J88" s="42"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K88" s="42"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="56">
         <v>87</v>
       </c>
@@ -5542,20 +5674,21 @@
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="27" t="str">
+      <c r="E89" s="30"/>
+      <c r="F89" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F89" s="40"/>
       <c r="G89" s="40"/>
       <c r="H89" s="40"/>
-      <c r="I89" s="15" t="str">
+      <c r="I89" s="40"/>
+      <c r="J89" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J89" s="42"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K89" s="42"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="56">
         <v>88</v>
       </c>
@@ -5564,20 +5697,21 @@
       </c>
       <c r="C90" s="30"/>
       <c r="D90" s="39"/>
-      <c r="E90" s="27" t="str">
+      <c r="E90" s="30"/>
+      <c r="F90" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F90" s="40"/>
       <c r="G90" s="40"/>
       <c r="H90" s="40"/>
-      <c r="I90" s="15" t="str">
+      <c r="I90" s="40"/>
+      <c r="J90" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J90" s="42"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K90" s="42"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="56">
         <v>89</v>
       </c>
@@ -5586,20 +5720,21 @@
       </c>
       <c r="C91" s="30"/>
       <c r="D91" s="39"/>
-      <c r="E91" s="27" t="str">
+      <c r="E91" s="30"/>
+      <c r="F91" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F91" s="40"/>
       <c r="G91" s="40"/>
       <c r="H91" s="40"/>
-      <c r="I91" s="15" t="str">
+      <c r="I91" s="40"/>
+      <c r="J91" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J91" s="42"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K91" s="42"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="56">
         <v>90</v>
       </c>
@@ -5608,20 +5743,21 @@
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="27" t="str">
+      <c r="E92" s="30"/>
+      <c r="F92" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F92" s="40"/>
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
-      <c r="I92" s="15" t="str">
+      <c r="I92" s="40"/>
+      <c r="J92" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J92" s="42"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K92" s="42"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="56">
         <v>91</v>
       </c>
@@ -5630,20 +5766,21 @@
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="39"/>
-      <c r="E93" s="27" t="str">
+      <c r="E93" s="30"/>
+      <c r="F93" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F93" s="40"/>
       <c r="G93" s="40"/>
       <c r="H93" s="40"/>
-      <c r="I93" s="15" t="str">
+      <c r="I93" s="40"/>
+      <c r="J93" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J93" s="42"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K93" s="42"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="56">
         <v>92</v>
       </c>
@@ -5652,20 +5789,21 @@
       </c>
       <c r="C94" s="30"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="27" t="str">
+      <c r="E94" s="30"/>
+      <c r="F94" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F94" s="40"/>
       <c r="G94" s="40"/>
       <c r="H94" s="40"/>
-      <c r="I94" s="15" t="str">
+      <c r="I94" s="40"/>
+      <c r="J94" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J94" s="42"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K94" s="42"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="56">
         <v>93</v>
       </c>
@@ -5674,20 +5812,21 @@
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="27" t="str">
+      <c r="E95" s="30"/>
+      <c r="F95" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F95" s="40"/>
       <c r="G95" s="40"/>
       <c r="H95" s="40"/>
-      <c r="I95" s="15" t="str">
+      <c r="I95" s="40"/>
+      <c r="J95" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J95" s="42"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K95" s="42"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="56">
         <v>94</v>
       </c>
@@ -5696,20 +5835,21 @@
       </c>
       <c r="C96" s="30"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="27" t="str">
+      <c r="E96" s="30"/>
+      <c r="F96" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F96" s="40"/>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
-      <c r="I96" s="15" t="str">
+      <c r="I96" s="40"/>
+      <c r="J96" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J96" s="42"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K96" s="42"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="56">
         <v>95</v>
       </c>
@@ -5718,20 +5858,21 @@
       </c>
       <c r="C97" s="30"/>
       <c r="D97" s="39"/>
-      <c r="E97" s="27" t="str">
+      <c r="E97" s="30"/>
+      <c r="F97" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F97" s="40"/>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
-      <c r="I97" s="15" t="str">
+      <c r="I97" s="40"/>
+      <c r="J97" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J97" s="42"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K97" s="42"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="58">
         <v>96</v>
       </c>
@@ -5740,197 +5881,211 @@
       </c>
       <c r="C98" s="30"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="27" t="str">
+      <c r="E98" s="30"/>
+      <c r="F98" s="27" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="F98" s="41"/>
       <c r="G98" s="41"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="22" t="str">
+      <c r="H98" s="41"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="22" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J98" s="42"/>
-    </row>
-    <row r="99" spans="1:10" s="19" customFormat="1">
+      <c r="K98" s="42"/>
+    </row>
+    <row r="99" spans="1:11" s="19" customFormat="1">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18">
         <v>1</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="18"/>
+      <c r="E99" s="18">
         <v>1</v>
       </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18">
+      <c r="F99" s="18"/>
+      <c r="G99" s="18">
         <v>1</v>
       </c>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18">
+      <c r="H99" s="18"/>
+      <c r="I99" s="18">
         <v>1</v>
       </c>
-      <c r="I99" s="18"/>
       <c r="J99" s="18"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" s="18"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="D100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="D101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="D102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="D103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="D104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="D105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="D106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="D107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="D108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="D109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="D110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="D111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sheetProtection sort="0" autoFilter="0"/>
   <protectedRanges>
-    <protectedRange sqref="A2:J98" name="FilterTbl"/>
+    <protectedRange sqref="A2:K98" name="FilterTbl"/>
   </protectedRanges>
   <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C98">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=" ">
+  <conditionalFormatting sqref="C3:E98">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D98 F3:H98 J3:J98">
-    <cfRule type="expression" dxfId="0" priority="5">
+  <conditionalFormatting sqref="G3:I98 K3:K98 C3:E98">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="C3:C98" xr:uid="{51285661-A40B-4DE6-841D-9FB51A517C0E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K98" xr:uid="{6B4D1BF1-FBF5-42B6-9889-49E5BF117D18}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="C3:D98" xr:uid="{51285661-A40B-4DE6-841D-9FB51A517C0E}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J98" xr:uid="{6B4D1BF1-FBF5-42B6-9889-49E5BF117D18}">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5938,6 +6093,18 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" xr:uid="{8C11AC83-0FD6-4845-BB3D-7AD768F43A65}">
+          <x14:formula1>
+            <xm:f>reference!$E$11:$E$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E98</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5946,10 +6113,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6103,6 +6270,9 @@
       <c r="A10" s="24" t="s">
         <v>199</v>
       </c>
+      <c r="E10" s="24" t="s">
+        <v>236</v>
+      </c>
       <c r="G10" s="34" t="s">
         <v>195</v>
       </c>
@@ -6111,11 +6281,17 @@
       <c r="A11" t="s">
         <v>235</v>
       </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
       <c r="G11" s="34" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="E12" t="s">
+        <v>238</v>
+      </c>
       <c r="G12" s="34" t="s">
         <v>197</v>
       </c>
@@ -6123,6 +6299,11 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6137,9 +6318,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
   <cols>
@@ -6396,22 +6575,22 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="2" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>161</v>
       </c>
@@ -6419,19 +6598,22 @@
         <v>162</v>
       </c>
       <c r="C1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>178</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>IF(LEN(sWGA!C3)=0,"",sWGA!C3)</f>
         <v/>
@@ -6441,11 +6623,11 @@
         <v/>
       </c>
       <c r="C2" t="str">
-        <f>IF(LEN(sWGA!E3)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E3)=0,"",sWGA!E3)</f>
         <v/>
       </c>
       <c r="D2" t="str">
-        <f>IF(LEN(sWGA!E3)=0,"",sWGA!E3)</f>
+        <f>IF(LEN(sWGA!F3)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E2" t="str">
@@ -6453,11 +6635,15 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <f>IF(LEN(sWGA!I3)=0,"",sWGA!I3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <f>IF(LEN(sWGA!G3)=0,"",sWGA!G3)</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(LEN(sWGA!J3)=0,"",sWGA!J3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>IF(LEN(sWGA!C4)=0,"",sWGA!C4)</f>
         <v/>
@@ -6467,11 +6653,11 @@
         <v/>
       </c>
       <c r="C3" t="str">
-        <f>IF(LEN(sWGA!E4)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E4)=0,"",sWGA!E4)</f>
         <v/>
       </c>
       <c r="D3" t="str">
-        <f>IF(LEN(sWGA!E4)=0,"",sWGA!E4)</f>
+        <f>IF(LEN(sWGA!F4)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E3" t="str">
@@ -6479,11 +6665,15 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <f>IF(LEN(sWGA!I4)=0,"",sWGA!I4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <f>IF(LEN(sWGA!G4)=0,"",sWGA!G4)</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(LEN(sWGA!J4)=0,"",sWGA!J4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f>IF(LEN(sWGA!C5)=0,"",sWGA!C5)</f>
         <v/>
@@ -6493,11 +6683,11 @@
         <v/>
       </c>
       <c r="C4" t="str">
-        <f>IF(LEN(sWGA!E5)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E5)=0,"",sWGA!E5)</f>
         <v/>
       </c>
       <c r="D4" t="str">
-        <f>IF(LEN(sWGA!E5)=0,"",sWGA!E5)</f>
+        <f>IF(LEN(sWGA!F5)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E4" t="str">
@@ -6505,11 +6695,15 @@
         <v/>
       </c>
       <c r="F4" t="str">
-        <f>IF(LEN(sWGA!I5)=0,"",sWGA!I5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <f>IF(LEN(sWGA!G5)=0,"",sWGA!G5)</f>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(LEN(sWGA!J5)=0,"",sWGA!J5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="str">
         <f>IF(LEN(sWGA!C6)=0,"",sWGA!C6)</f>
         <v/>
@@ -6519,11 +6713,11 @@
         <v/>
       </c>
       <c r="C5" t="str">
-        <f>IF(LEN(sWGA!E6)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E6)=0,"",sWGA!E6)</f>
         <v/>
       </c>
       <c r="D5" t="str">
-        <f>IF(LEN(sWGA!E6)=0,"",sWGA!E6)</f>
+        <f>IF(LEN(sWGA!F6)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E5" t="str">
@@ -6531,11 +6725,15 @@
         <v/>
       </c>
       <c r="F5" t="str">
-        <f>IF(LEN(sWGA!I6)=0,"",sWGA!I6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <f>IF(LEN(sWGA!G6)=0,"",sWGA!G6)</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(LEN(sWGA!J6)=0,"",sWGA!J6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="str">
         <f>IF(LEN(sWGA!C7)=0,"",sWGA!C7)</f>
         <v/>
@@ -6545,11 +6743,11 @@
         <v/>
       </c>
       <c r="C6" t="str">
-        <f>IF(LEN(sWGA!E7)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E7)=0,"",sWGA!E7)</f>
         <v/>
       </c>
       <c r="D6" t="str">
-        <f>IF(LEN(sWGA!E7)=0,"",sWGA!E7)</f>
+        <f>IF(LEN(sWGA!F7)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E6" t="str">
@@ -6557,11 +6755,15 @@
         <v/>
       </c>
       <c r="F6" t="str">
-        <f>IF(LEN(sWGA!I7)=0,"",sWGA!I7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <f>IF(LEN(sWGA!G7)=0,"",sWGA!G7)</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(LEN(sWGA!J7)=0,"",sWGA!J7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="str">
         <f>IF(LEN(sWGA!C8)=0,"",sWGA!C8)</f>
         <v/>
@@ -6571,11 +6773,11 @@
         <v/>
       </c>
       <c r="C7" t="str">
-        <f>IF(LEN(sWGA!E8)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E8)=0,"",sWGA!E8)</f>
         <v/>
       </c>
       <c r="D7" t="str">
-        <f>IF(LEN(sWGA!E8)=0,"",sWGA!E8)</f>
+        <f>IF(LEN(sWGA!F8)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E7" t="str">
@@ -6583,11 +6785,15 @@
         <v/>
       </c>
       <c r="F7" t="str">
-        <f>IF(LEN(sWGA!I8)=0,"",sWGA!I8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <f>IF(LEN(sWGA!G8)=0,"",sWGA!G8)</f>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(LEN(sWGA!J8)=0,"",sWGA!J8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="str">
         <f>IF(LEN(sWGA!C9)=0,"",sWGA!C9)</f>
         <v/>
@@ -6597,11 +6803,11 @@
         <v/>
       </c>
       <c r="C8" t="str">
-        <f>IF(LEN(sWGA!E9)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E9)=0,"",sWGA!E9)</f>
         <v/>
       </c>
       <c r="D8" t="str">
-        <f>IF(LEN(sWGA!E9)=0,"",sWGA!E9)</f>
+        <f>IF(LEN(sWGA!F9)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E8" t="str">
@@ -6609,11 +6815,15 @@
         <v/>
       </c>
       <c r="F8" t="str">
-        <f>IF(LEN(sWGA!I9)=0,"",sWGA!I9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <f>IF(LEN(sWGA!G9)=0,"",sWGA!G9)</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(LEN(sWGA!J9)=0,"",sWGA!J9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="str">
         <f>IF(LEN(sWGA!C10)=0,"",sWGA!C10)</f>
         <v/>
@@ -6623,11 +6833,11 @@
         <v/>
       </c>
       <c r="C9" t="str">
-        <f>IF(LEN(sWGA!E10)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E10)=0,"",sWGA!E10)</f>
         <v/>
       </c>
       <c r="D9" t="str">
-        <f>IF(LEN(sWGA!E10)=0,"",sWGA!E10)</f>
+        <f>IF(LEN(sWGA!F10)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E9" t="str">
@@ -6635,11 +6845,15 @@
         <v/>
       </c>
       <c r="F9" t="str">
-        <f>IF(LEN(sWGA!I10)=0,"",sWGA!I10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <f>IF(LEN(sWGA!G10)=0,"",sWGA!G10)</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(LEN(sWGA!J10)=0,"",sWGA!J10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="str">
         <f>IF(LEN(sWGA!C11)=0,"",sWGA!C11)</f>
         <v/>
@@ -6649,11 +6863,11 @@
         <v/>
       </c>
       <c r="C10" t="str">
-        <f>IF(LEN(sWGA!E11)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E11)=0,"",sWGA!E11)</f>
         <v/>
       </c>
       <c r="D10" t="str">
-        <f>IF(LEN(sWGA!E11)=0,"",sWGA!E11)</f>
+        <f>IF(LEN(sWGA!F11)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E10" t="str">
@@ -6661,11 +6875,15 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <f>IF(LEN(sWGA!I11)=0,"",sWGA!I11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <f>IF(LEN(sWGA!G11)=0,"",sWGA!G11)</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(LEN(sWGA!J11)=0,"",sWGA!J11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="str">
         <f>IF(LEN(sWGA!C12)=0,"",sWGA!C12)</f>
         <v/>
@@ -6675,11 +6893,11 @@
         <v/>
       </c>
       <c r="C11" t="str">
-        <f>IF(LEN(sWGA!E12)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E12)=0,"",sWGA!E12)</f>
         <v/>
       </c>
       <c r="D11" t="str">
-        <f>IF(LEN(sWGA!E12)=0,"",sWGA!E12)</f>
+        <f>IF(LEN(sWGA!F12)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E11" t="str">
@@ -6687,11 +6905,15 @@
         <v/>
       </c>
       <c r="F11" t="str">
-        <f>IF(LEN(sWGA!I12)=0,"",sWGA!I12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <f>IF(LEN(sWGA!G12)=0,"",sWGA!G12)</f>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(LEN(sWGA!J12)=0,"",sWGA!J12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="str">
         <f>IF(LEN(sWGA!C13)=0,"",sWGA!C13)</f>
         <v/>
@@ -6701,11 +6923,11 @@
         <v/>
       </c>
       <c r="C12" t="str">
-        <f>IF(LEN(sWGA!E13)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E13)=0,"",sWGA!E13)</f>
         <v/>
       </c>
       <c r="D12" t="str">
-        <f>IF(LEN(sWGA!E13)=0,"",sWGA!E13)</f>
+        <f>IF(LEN(sWGA!F13)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E12" t="str">
@@ -6713,11 +6935,15 @@
         <v/>
       </c>
       <c r="F12" t="str">
-        <f>IF(LEN(sWGA!I13)=0,"",sWGA!I13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <f>IF(LEN(sWGA!G13)=0,"",sWGA!G13)</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(LEN(sWGA!J13)=0,"",sWGA!J13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="str">
         <f>IF(LEN(sWGA!C14)=0,"",sWGA!C14)</f>
         <v/>
@@ -6727,11 +6953,11 @@
         <v/>
       </c>
       <c r="C13" t="str">
-        <f>IF(LEN(sWGA!E14)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E14)=0,"",sWGA!E14)</f>
         <v/>
       </c>
       <c r="D13" t="str">
-        <f>IF(LEN(sWGA!E14)=0,"",sWGA!E14)</f>
+        <f>IF(LEN(sWGA!F14)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E13" t="str">
@@ -6739,11 +6965,15 @@
         <v/>
       </c>
       <c r="F13" t="str">
-        <f>IF(LEN(sWGA!I14)=0,"",sWGA!I14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <f>IF(LEN(sWGA!G14)=0,"",sWGA!G14)</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(LEN(sWGA!J14)=0,"",sWGA!J14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="str">
         <f>IF(LEN(sWGA!C15)=0,"",sWGA!C15)</f>
         <v/>
@@ -6753,11 +6983,11 @@
         <v/>
       </c>
       <c r="C14" t="str">
-        <f>IF(LEN(sWGA!E15)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E15)=0,"",sWGA!E15)</f>
         <v/>
       </c>
       <c r="D14" t="str">
-        <f>IF(LEN(sWGA!E15)=0,"",sWGA!E15)</f>
+        <f>IF(LEN(sWGA!F15)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E14" t="str">
@@ -6765,11 +6995,15 @@
         <v/>
       </c>
       <c r="F14" t="str">
-        <f>IF(LEN(sWGA!I15)=0,"",sWGA!I15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <f>IF(LEN(sWGA!G15)=0,"",sWGA!G15)</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(LEN(sWGA!J15)=0,"",sWGA!J15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="str">
         <f>IF(LEN(sWGA!C16)=0,"",sWGA!C16)</f>
         <v/>
@@ -6779,11 +7013,11 @@
         <v/>
       </c>
       <c r="C15" t="str">
-        <f>IF(LEN(sWGA!E16)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E16)=0,"",sWGA!E16)</f>
         <v/>
       </c>
       <c r="D15" t="str">
-        <f>IF(LEN(sWGA!E16)=0,"",sWGA!E16)</f>
+        <f>IF(LEN(sWGA!F16)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E15" t="str">
@@ -6791,11 +7025,15 @@
         <v/>
       </c>
       <c r="F15" t="str">
-        <f>IF(LEN(sWGA!I16)=0,"",sWGA!I16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <f>IF(LEN(sWGA!G16)=0,"",sWGA!G16)</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(LEN(sWGA!J16)=0,"",sWGA!J16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f>IF(LEN(sWGA!C17)=0,"",sWGA!C17)</f>
         <v/>
@@ -6805,11 +7043,11 @@
         <v/>
       </c>
       <c r="C16" t="str">
-        <f>IF(LEN(sWGA!E17)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E17)=0,"",sWGA!E17)</f>
         <v/>
       </c>
       <c r="D16" t="str">
-        <f>IF(LEN(sWGA!E17)=0,"",sWGA!E17)</f>
+        <f>IF(LEN(sWGA!F17)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E16" t="str">
@@ -6817,11 +7055,15 @@
         <v/>
       </c>
       <c r="F16" t="str">
-        <f>IF(LEN(sWGA!I17)=0,"",sWGA!I17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <f>IF(LEN(sWGA!G17)=0,"",sWGA!G17)</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(LEN(sWGA!J17)=0,"",sWGA!J17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="str">
         <f>IF(LEN(sWGA!C18)=0,"",sWGA!C18)</f>
         <v/>
@@ -6831,11 +7073,11 @@
         <v/>
       </c>
       <c r="C17" t="str">
-        <f>IF(LEN(sWGA!E18)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E18)=0,"",sWGA!E18)</f>
         <v/>
       </c>
       <c r="D17" t="str">
-        <f>IF(LEN(sWGA!E18)=0,"",sWGA!E18)</f>
+        <f>IF(LEN(sWGA!F18)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E17" t="str">
@@ -6843,11 +7085,15 @@
         <v/>
       </c>
       <c r="F17" t="str">
-        <f>IF(LEN(sWGA!I18)=0,"",sWGA!I18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <f>IF(LEN(sWGA!G18)=0,"",sWGA!G18)</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(LEN(sWGA!J18)=0,"",sWGA!J18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="str">
         <f>IF(LEN(sWGA!C19)=0,"",sWGA!C19)</f>
         <v/>
@@ -6857,11 +7103,11 @@
         <v/>
       </c>
       <c r="C18" t="str">
-        <f>IF(LEN(sWGA!E19)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E19)=0,"",sWGA!E19)</f>
         <v/>
       </c>
       <c r="D18" t="str">
-        <f>IF(LEN(sWGA!E19)=0,"",sWGA!E19)</f>
+        <f>IF(LEN(sWGA!F19)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E18" t="str">
@@ -6869,11 +7115,15 @@
         <v/>
       </c>
       <c r="F18" t="str">
-        <f>IF(LEN(sWGA!I19)=0,"",sWGA!I19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f>IF(LEN(sWGA!G19)=0,"",sWGA!G19)</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(LEN(sWGA!J19)=0,"",sWGA!J19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="str">
         <f>IF(LEN(sWGA!C20)=0,"",sWGA!C20)</f>
         <v/>
@@ -6883,11 +7133,11 @@
         <v/>
       </c>
       <c r="C19" t="str">
-        <f>IF(LEN(sWGA!E20)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E20)=0,"",sWGA!E20)</f>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f>IF(LEN(sWGA!E20)=0,"",sWGA!E20)</f>
+        <f>IF(LEN(sWGA!F20)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E19" t="str">
@@ -6895,11 +7145,15 @@
         <v/>
       </c>
       <c r="F19" t="str">
-        <f>IF(LEN(sWGA!I20)=0,"",sWGA!I20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <f>IF(LEN(sWGA!G20)=0,"",sWGA!G20)</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(LEN(sWGA!J20)=0,"",sWGA!J20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="str">
         <f>IF(LEN(sWGA!C21)=0,"",sWGA!C21)</f>
         <v/>
@@ -6909,11 +7163,11 @@
         <v/>
       </c>
       <c r="C20" t="str">
-        <f>IF(LEN(sWGA!E21)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E21)=0,"",sWGA!E21)</f>
         <v/>
       </c>
       <c r="D20" t="str">
-        <f>IF(LEN(sWGA!E21)=0,"",sWGA!E21)</f>
+        <f>IF(LEN(sWGA!F21)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E20" t="str">
@@ -6921,11 +7175,15 @@
         <v/>
       </c>
       <c r="F20" t="str">
-        <f>IF(LEN(sWGA!I21)=0,"",sWGA!I21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <f>IF(LEN(sWGA!G21)=0,"",sWGA!G21)</f>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(LEN(sWGA!J21)=0,"",sWGA!J21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="str">
         <f>IF(LEN(sWGA!C22)=0,"",sWGA!C22)</f>
         <v/>
@@ -6935,11 +7193,11 @@
         <v/>
       </c>
       <c r="C21" t="str">
-        <f>IF(LEN(sWGA!E22)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E22)=0,"",sWGA!E22)</f>
         <v/>
       </c>
       <c r="D21" t="str">
-        <f>IF(LEN(sWGA!E22)=0,"",sWGA!E22)</f>
+        <f>IF(LEN(sWGA!F22)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E21" t="str">
@@ -6947,11 +7205,15 @@
         <v/>
       </c>
       <c r="F21" t="str">
-        <f>IF(LEN(sWGA!I22)=0,"",sWGA!I22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <f>IF(LEN(sWGA!G22)=0,"",sWGA!G22)</f>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(LEN(sWGA!J22)=0,"",sWGA!J22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="str">
         <f>IF(LEN(sWGA!C23)=0,"",sWGA!C23)</f>
         <v/>
@@ -6961,11 +7223,11 @@
         <v/>
       </c>
       <c r="C22" t="str">
-        <f>IF(LEN(sWGA!E23)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E23)=0,"",sWGA!E23)</f>
         <v/>
       </c>
       <c r="D22" t="str">
-        <f>IF(LEN(sWGA!E23)=0,"",sWGA!E23)</f>
+        <f>IF(LEN(sWGA!F23)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E22" t="str">
@@ -6973,11 +7235,15 @@
         <v/>
       </c>
       <c r="F22" t="str">
-        <f>IF(LEN(sWGA!I23)=0,"",sWGA!I23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <f>IF(LEN(sWGA!G23)=0,"",sWGA!G23)</f>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(LEN(sWGA!J23)=0,"",sWGA!J23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="str">
         <f>IF(LEN(sWGA!C24)=0,"",sWGA!C24)</f>
         <v/>
@@ -6987,11 +7253,11 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <f>IF(LEN(sWGA!E24)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E24)=0,"",sWGA!E24)</f>
         <v/>
       </c>
       <c r="D23" t="str">
-        <f>IF(LEN(sWGA!E24)=0,"",sWGA!E24)</f>
+        <f>IF(LEN(sWGA!F24)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E23" t="str">
@@ -6999,11 +7265,15 @@
         <v/>
       </c>
       <c r="F23" t="str">
-        <f>IF(LEN(sWGA!I24)=0,"",sWGA!I24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <f>IF(LEN(sWGA!G24)=0,"",sWGA!G24)</f>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(LEN(sWGA!J24)=0,"",sWGA!J24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="str">
         <f>IF(LEN(sWGA!C25)=0,"",sWGA!C25)</f>
         <v/>
@@ -7013,11 +7283,11 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <f>IF(LEN(sWGA!E25)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E25)=0,"",sWGA!E25)</f>
         <v/>
       </c>
       <c r="D24" t="str">
-        <f>IF(LEN(sWGA!E25)=0,"",sWGA!E25)</f>
+        <f>IF(LEN(sWGA!F25)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E24" t="str">
@@ -7025,11 +7295,15 @@
         <v/>
       </c>
       <c r="F24" t="str">
-        <f>IF(LEN(sWGA!I25)=0,"",sWGA!I25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <f>IF(LEN(sWGA!G25)=0,"",sWGA!G25)</f>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(LEN(sWGA!J25)=0,"",sWGA!J25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="str">
         <f>IF(LEN(sWGA!C26)=0,"",sWGA!C26)</f>
         <v/>
@@ -7039,11 +7313,11 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <f>IF(LEN(sWGA!E26)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E26)=0,"",sWGA!E26)</f>
         <v/>
       </c>
       <c r="D25" t="str">
-        <f>IF(LEN(sWGA!E26)=0,"",sWGA!E26)</f>
+        <f>IF(LEN(sWGA!F26)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E25" t="str">
@@ -7051,11 +7325,15 @@
         <v/>
       </c>
       <c r="F25" t="str">
-        <f>IF(LEN(sWGA!I26)=0,"",sWGA!I26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <f>IF(LEN(sWGA!G26)=0,"",sWGA!G26)</f>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(LEN(sWGA!J26)=0,"",sWGA!J26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="str">
         <f>IF(LEN(sWGA!C27)=0,"",sWGA!C27)</f>
         <v/>
@@ -7065,11 +7343,11 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <f>IF(LEN(sWGA!E27)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E27)=0,"",sWGA!E27)</f>
         <v/>
       </c>
       <c r="D26" t="str">
-        <f>IF(LEN(sWGA!E27)=0,"",sWGA!E27)</f>
+        <f>IF(LEN(sWGA!F27)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E26" t="str">
@@ -7077,11 +7355,15 @@
         <v/>
       </c>
       <c r="F26" t="str">
-        <f>IF(LEN(sWGA!I27)=0,"",sWGA!I27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <f>IF(LEN(sWGA!G27)=0,"",sWGA!G27)</f>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(LEN(sWGA!J27)=0,"",sWGA!J27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="str">
         <f>IF(LEN(sWGA!C28)=0,"",sWGA!C28)</f>
         <v/>
@@ -7091,11 +7373,11 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <f>IF(LEN(sWGA!E28)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E28)=0,"",sWGA!E28)</f>
         <v/>
       </c>
       <c r="D27" t="str">
-        <f>IF(LEN(sWGA!E28)=0,"",sWGA!E28)</f>
+        <f>IF(LEN(sWGA!F28)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E27" t="str">
@@ -7103,11 +7385,15 @@
         <v/>
       </c>
       <c r="F27" t="str">
-        <f>IF(LEN(sWGA!I28)=0,"",sWGA!I28)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <f>IF(LEN(sWGA!G28)=0,"",sWGA!G28)</f>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(LEN(sWGA!J28)=0,"",sWGA!J28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="str">
         <f>IF(LEN(sWGA!C29)=0,"",sWGA!C29)</f>
         <v/>
@@ -7117,11 +7403,11 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <f>IF(LEN(sWGA!E29)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E29)=0,"",sWGA!E29)</f>
         <v/>
       </c>
       <c r="D28" t="str">
-        <f>IF(LEN(sWGA!E29)=0,"",sWGA!E29)</f>
+        <f>IF(LEN(sWGA!F29)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E28" t="str">
@@ -7129,11 +7415,15 @@
         <v/>
       </c>
       <c r="F28" t="str">
-        <f>IF(LEN(sWGA!I29)=0,"",sWGA!I29)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <f>IF(LEN(sWGA!G29)=0,"",sWGA!G29)</f>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(LEN(sWGA!J29)=0,"",sWGA!J29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="str">
         <f>IF(LEN(sWGA!C30)=0,"",sWGA!C30)</f>
         <v/>
@@ -7143,11 +7433,11 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <f>IF(LEN(sWGA!E30)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E30)=0,"",sWGA!E30)</f>
         <v/>
       </c>
       <c r="D29" t="str">
-        <f>IF(LEN(sWGA!E30)=0,"",sWGA!E30)</f>
+        <f>IF(LEN(sWGA!F30)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E29" t="str">
@@ -7155,11 +7445,15 @@
         <v/>
       </c>
       <c r="F29" t="str">
-        <f>IF(LEN(sWGA!I30)=0,"",sWGA!I30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <f>IF(LEN(sWGA!G30)=0,"",sWGA!G30)</f>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(LEN(sWGA!J30)=0,"",sWGA!J30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="str">
         <f>IF(LEN(sWGA!C31)=0,"",sWGA!C31)</f>
         <v/>
@@ -7169,11 +7463,11 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <f>IF(LEN(sWGA!E31)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E31)=0,"",sWGA!E31)</f>
         <v/>
       </c>
       <c r="D30" t="str">
-        <f>IF(LEN(sWGA!E31)=0,"",sWGA!E31)</f>
+        <f>IF(LEN(sWGA!F31)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E30" t="str">
@@ -7181,11 +7475,15 @@
         <v/>
       </c>
       <c r="F30" t="str">
-        <f>IF(LEN(sWGA!I31)=0,"",sWGA!I31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <f>IF(LEN(sWGA!G31)=0,"",sWGA!G31)</f>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(LEN(sWGA!J31)=0,"",sWGA!J31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="str">
         <f>IF(LEN(sWGA!C32)=0,"",sWGA!C32)</f>
         <v/>
@@ -7195,11 +7493,11 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <f>IF(LEN(sWGA!E32)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E32)=0,"",sWGA!E32)</f>
         <v/>
       </c>
       <c r="D31" t="str">
-        <f>IF(LEN(sWGA!E32)=0,"",sWGA!E32)</f>
+        <f>IF(LEN(sWGA!F32)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E31" t="str">
@@ -7207,11 +7505,15 @@
         <v/>
       </c>
       <c r="F31" t="str">
-        <f>IF(LEN(sWGA!I32)=0,"",sWGA!I32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <f>IF(LEN(sWGA!G32)=0,"",sWGA!G32)</f>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(LEN(sWGA!J32)=0,"",sWGA!J32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="str">
         <f>IF(LEN(sWGA!C33)=0,"",sWGA!C33)</f>
         <v/>
@@ -7221,11 +7523,11 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <f>IF(LEN(sWGA!E33)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E33)=0,"",sWGA!E33)</f>
         <v/>
       </c>
       <c r="D32" t="str">
-        <f>IF(LEN(sWGA!E33)=0,"",sWGA!E33)</f>
+        <f>IF(LEN(sWGA!F33)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E32" t="str">
@@ -7233,11 +7535,15 @@
         <v/>
       </c>
       <c r="F32" t="str">
-        <f>IF(LEN(sWGA!I33)=0,"",sWGA!I33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <f>IF(LEN(sWGA!G33)=0,"",sWGA!G33)</f>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(LEN(sWGA!J33)=0,"",sWGA!J33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="str">
         <f>IF(LEN(sWGA!C34)=0,"",sWGA!C34)</f>
         <v/>
@@ -7247,11 +7553,11 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <f>IF(LEN(sWGA!E34)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E34)=0,"",sWGA!E34)</f>
         <v/>
       </c>
       <c r="D33" t="str">
-        <f>IF(LEN(sWGA!E34)=0,"",sWGA!E34)</f>
+        <f>IF(LEN(sWGA!F34)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E33" t="str">
@@ -7259,11 +7565,15 @@
         <v/>
       </c>
       <c r="F33" t="str">
-        <f>IF(LEN(sWGA!I34)=0,"",sWGA!I34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <f>IF(LEN(sWGA!G34)=0,"",sWGA!G34)</f>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(LEN(sWGA!J34)=0,"",sWGA!J34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="str">
         <f>IF(LEN(sWGA!C35)=0,"",sWGA!C35)</f>
         <v/>
@@ -7273,11 +7583,11 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <f>IF(LEN(sWGA!E35)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E35)=0,"",sWGA!E35)</f>
         <v/>
       </c>
       <c r="D34" t="str">
-        <f>IF(LEN(sWGA!E35)=0,"",sWGA!E35)</f>
+        <f>IF(LEN(sWGA!F35)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E34" t="str">
@@ -7285,11 +7595,15 @@
         <v/>
       </c>
       <c r="F34" t="str">
-        <f>IF(LEN(sWGA!I35)=0,"",sWGA!I35)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <f>IF(LEN(sWGA!G35)=0,"",sWGA!G35)</f>
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(LEN(sWGA!J35)=0,"",sWGA!J35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="str">
         <f>IF(LEN(sWGA!C36)=0,"",sWGA!C36)</f>
         <v/>
@@ -7299,11 +7613,11 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <f>IF(LEN(sWGA!E36)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E36)=0,"",sWGA!E36)</f>
         <v/>
       </c>
       <c r="D35" t="str">
-        <f>IF(LEN(sWGA!E36)=0,"",sWGA!E36)</f>
+        <f>IF(LEN(sWGA!F36)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E35" t="str">
@@ -7311,11 +7625,15 @@
         <v/>
       </c>
       <c r="F35" t="str">
-        <f>IF(LEN(sWGA!I36)=0,"",sWGA!I36)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <f>IF(LEN(sWGA!G36)=0,"",sWGA!G36)</f>
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(LEN(sWGA!J36)=0,"",sWGA!J36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="str">
         <f>IF(LEN(sWGA!C37)=0,"",sWGA!C37)</f>
         <v/>
@@ -7325,11 +7643,11 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <f>IF(LEN(sWGA!E37)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E37)=0,"",sWGA!E37)</f>
         <v/>
       </c>
       <c r="D36" t="str">
-        <f>IF(LEN(sWGA!E37)=0,"",sWGA!E37)</f>
+        <f>IF(LEN(sWGA!F37)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E36" t="str">
@@ -7337,11 +7655,15 @@
         <v/>
       </c>
       <c r="F36" t="str">
-        <f>IF(LEN(sWGA!I37)=0,"",sWGA!I37)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <f>IF(LEN(sWGA!G37)=0,"",sWGA!G37)</f>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(LEN(sWGA!J37)=0,"",sWGA!J37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="str">
         <f>IF(LEN(sWGA!C38)=0,"",sWGA!C38)</f>
         <v/>
@@ -7351,11 +7673,11 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <f>IF(LEN(sWGA!E38)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E38)=0,"",sWGA!E38)</f>
         <v/>
       </c>
       <c r="D37" t="str">
-        <f>IF(LEN(sWGA!E38)=0,"",sWGA!E38)</f>
+        <f>IF(LEN(sWGA!F38)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E37" t="str">
@@ -7363,11 +7685,15 @@
         <v/>
       </c>
       <c r="F37" t="str">
-        <f>IF(LEN(sWGA!I38)=0,"",sWGA!I38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <f>IF(LEN(sWGA!G38)=0,"",sWGA!G38)</f>
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(LEN(sWGA!J38)=0,"",sWGA!J38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="str">
         <f>IF(LEN(sWGA!C39)=0,"",sWGA!C39)</f>
         <v/>
@@ -7377,11 +7703,11 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <f>IF(LEN(sWGA!E39)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E39)=0,"",sWGA!E39)</f>
         <v/>
       </c>
       <c r="D38" t="str">
-        <f>IF(LEN(sWGA!E39)=0,"",sWGA!E39)</f>
+        <f>IF(LEN(sWGA!F39)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E38" t="str">
@@ -7389,11 +7715,15 @@
         <v/>
       </c>
       <c r="F38" t="str">
-        <f>IF(LEN(sWGA!I39)=0,"",sWGA!I39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <f>IF(LEN(sWGA!G39)=0,"",sWGA!G39)</f>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(LEN(sWGA!J39)=0,"",sWGA!J39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="str">
         <f>IF(LEN(sWGA!C40)=0,"",sWGA!C40)</f>
         <v/>
@@ -7403,11 +7733,11 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <f>IF(LEN(sWGA!E40)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E40)=0,"",sWGA!E40)</f>
         <v/>
       </c>
       <c r="D39" t="str">
-        <f>IF(LEN(sWGA!E40)=0,"",sWGA!E40)</f>
+        <f>IF(LEN(sWGA!F40)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E39" t="str">
@@ -7415,11 +7745,15 @@
         <v/>
       </c>
       <c r="F39" t="str">
-        <f>IF(LEN(sWGA!I40)=0,"",sWGA!I40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <f>IF(LEN(sWGA!G40)=0,"",sWGA!G40)</f>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(LEN(sWGA!J40)=0,"",sWGA!J40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="str">
         <f>IF(LEN(sWGA!C41)=0,"",sWGA!C41)</f>
         <v/>
@@ -7429,11 +7763,11 @@
         <v/>
       </c>
       <c r="C40" t="str">
-        <f>IF(LEN(sWGA!E41)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E41)=0,"",sWGA!E41)</f>
         <v/>
       </c>
       <c r="D40" t="str">
-        <f>IF(LEN(sWGA!E41)=0,"",sWGA!E41)</f>
+        <f>IF(LEN(sWGA!F41)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E40" t="str">
@@ -7441,11 +7775,15 @@
         <v/>
       </c>
       <c r="F40" t="str">
-        <f>IF(LEN(sWGA!I41)=0,"",sWGA!I41)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <f>IF(LEN(sWGA!G41)=0,"",sWGA!G41)</f>
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <f>IF(LEN(sWGA!J41)=0,"",sWGA!J41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="str">
         <f>IF(LEN(sWGA!C42)=0,"",sWGA!C42)</f>
         <v/>
@@ -7455,11 +7793,11 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <f>IF(LEN(sWGA!E42)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E42)=0,"",sWGA!E42)</f>
         <v/>
       </c>
       <c r="D41" t="str">
-        <f>IF(LEN(sWGA!E42)=0,"",sWGA!E42)</f>
+        <f>IF(LEN(sWGA!F42)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E41" t="str">
@@ -7467,11 +7805,15 @@
         <v/>
       </c>
       <c r="F41" t="str">
-        <f>IF(LEN(sWGA!I42)=0,"",sWGA!I42)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <f>IF(LEN(sWGA!G42)=0,"",sWGA!G42)</f>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(LEN(sWGA!J42)=0,"",sWGA!J42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="str">
         <f>IF(LEN(sWGA!C43)=0,"",sWGA!C43)</f>
         <v/>
@@ -7481,11 +7823,11 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <f>IF(LEN(sWGA!E43)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E43)=0,"",sWGA!E43)</f>
         <v/>
       </c>
       <c r="D42" t="str">
-        <f>IF(LEN(sWGA!E43)=0,"",sWGA!E43)</f>
+        <f>IF(LEN(sWGA!F43)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E42" t="str">
@@ -7493,11 +7835,15 @@
         <v/>
       </c>
       <c r="F42" t="str">
-        <f>IF(LEN(sWGA!I43)=0,"",sWGA!I43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <f>IF(LEN(sWGA!G43)=0,"",sWGA!G43)</f>
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <f>IF(LEN(sWGA!J43)=0,"",sWGA!J43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="str">
         <f>IF(LEN(sWGA!C44)=0,"",sWGA!C44)</f>
         <v/>
@@ -7507,11 +7853,11 @@
         <v/>
       </c>
       <c r="C43" t="str">
-        <f>IF(LEN(sWGA!E44)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E44)=0,"",sWGA!E44)</f>
         <v/>
       </c>
       <c r="D43" t="str">
-        <f>IF(LEN(sWGA!E44)=0,"",sWGA!E44)</f>
+        <f>IF(LEN(sWGA!F44)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E43" t="str">
@@ -7519,11 +7865,15 @@
         <v/>
       </c>
       <c r="F43" t="str">
-        <f>IF(LEN(sWGA!I44)=0,"",sWGA!I44)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <f>IF(LEN(sWGA!G44)=0,"",sWGA!G44)</f>
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <f>IF(LEN(sWGA!J44)=0,"",sWGA!J44)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="str">
         <f>IF(LEN(sWGA!C45)=0,"",sWGA!C45)</f>
         <v/>
@@ -7533,11 +7883,11 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <f>IF(LEN(sWGA!E45)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E45)=0,"",sWGA!E45)</f>
         <v/>
       </c>
       <c r="D44" t="str">
-        <f>IF(LEN(sWGA!E45)=0,"",sWGA!E45)</f>
+        <f>IF(LEN(sWGA!F45)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E44" t="str">
@@ -7545,11 +7895,15 @@
         <v/>
       </c>
       <c r="F44" t="str">
-        <f>IF(LEN(sWGA!I45)=0,"",sWGA!I45)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <f>IF(LEN(sWGA!G45)=0,"",sWGA!G45)</f>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f>IF(LEN(sWGA!J45)=0,"",sWGA!J45)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="str">
         <f>IF(LEN(sWGA!C46)=0,"",sWGA!C46)</f>
         <v/>
@@ -7559,11 +7913,11 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <f>IF(LEN(sWGA!E46)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E46)=0,"",sWGA!E46)</f>
         <v/>
       </c>
       <c r="D45" t="str">
-        <f>IF(LEN(sWGA!E46)=0,"",sWGA!E46)</f>
+        <f>IF(LEN(sWGA!F46)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E45" t="str">
@@ -7571,11 +7925,15 @@
         <v/>
       </c>
       <c r="F45" t="str">
-        <f>IF(LEN(sWGA!I46)=0,"",sWGA!I46)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <f>IF(LEN(sWGA!G46)=0,"",sWGA!G46)</f>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f>IF(LEN(sWGA!J46)=0,"",sWGA!J46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="str">
         <f>IF(LEN(sWGA!C47)=0,"",sWGA!C47)</f>
         <v/>
@@ -7585,11 +7943,11 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <f>IF(LEN(sWGA!E47)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E47)=0,"",sWGA!E47)</f>
         <v/>
       </c>
       <c r="D46" t="str">
-        <f>IF(LEN(sWGA!E47)=0,"",sWGA!E47)</f>
+        <f>IF(LEN(sWGA!F47)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E46" t="str">
@@ -7597,11 +7955,15 @@
         <v/>
       </c>
       <c r="F46" t="str">
-        <f>IF(LEN(sWGA!I47)=0,"",sWGA!I47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <f>IF(LEN(sWGA!G47)=0,"",sWGA!G47)</f>
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <f>IF(LEN(sWGA!J47)=0,"",sWGA!J47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="str">
         <f>IF(LEN(sWGA!C48)=0,"",sWGA!C48)</f>
         <v/>
@@ -7611,11 +7973,11 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <f>IF(LEN(sWGA!E48)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E48)=0,"",sWGA!E48)</f>
         <v/>
       </c>
       <c r="D47" t="str">
-        <f>IF(LEN(sWGA!E48)=0,"",sWGA!E48)</f>
+        <f>IF(LEN(sWGA!F48)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E47" t="str">
@@ -7623,11 +7985,15 @@
         <v/>
       </c>
       <c r="F47" t="str">
-        <f>IF(LEN(sWGA!I48)=0,"",sWGA!I48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <f>IF(LEN(sWGA!G48)=0,"",sWGA!G48)</f>
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <f>IF(LEN(sWGA!J48)=0,"",sWGA!J48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="str">
         <f>IF(LEN(sWGA!C49)=0,"",sWGA!C49)</f>
         <v/>
@@ -7637,11 +8003,11 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <f>IF(LEN(sWGA!E49)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E49)=0,"",sWGA!E49)</f>
         <v/>
       </c>
       <c r="D48" t="str">
-        <f>IF(LEN(sWGA!E49)=0,"",sWGA!E49)</f>
+        <f>IF(LEN(sWGA!F49)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E48" t="str">
@@ -7649,11 +8015,15 @@
         <v/>
       </c>
       <c r="F48" t="str">
-        <f>IF(LEN(sWGA!I49)=0,"",sWGA!I49)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <f>IF(LEN(sWGA!G49)=0,"",sWGA!G49)</f>
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <f>IF(LEN(sWGA!J49)=0,"",sWGA!J49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="str">
         <f>IF(LEN(sWGA!C50)=0,"",sWGA!C50)</f>
         <v/>
@@ -7663,11 +8033,11 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <f>IF(LEN(sWGA!E50)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E50)=0,"",sWGA!E50)</f>
         <v/>
       </c>
       <c r="D49" t="str">
-        <f>IF(LEN(sWGA!E50)=0,"",sWGA!E50)</f>
+        <f>IF(LEN(sWGA!F50)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E49" t="str">
@@ -7675,11 +8045,15 @@
         <v/>
       </c>
       <c r="F49" t="str">
-        <f>IF(LEN(sWGA!I50)=0,"",sWGA!I50)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <f>IF(LEN(sWGA!G50)=0,"",sWGA!G50)</f>
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <f>IF(LEN(sWGA!J50)=0,"",sWGA!J50)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="str">
         <f>IF(LEN(sWGA!C51)=0,"",sWGA!C51)</f>
         <v/>
@@ -7689,11 +8063,11 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <f>IF(LEN(sWGA!E51)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E51)=0,"",sWGA!E51)</f>
         <v/>
       </c>
       <c r="D50" t="str">
-        <f>IF(LEN(sWGA!E51)=0,"",sWGA!E51)</f>
+        <f>IF(LEN(sWGA!F51)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E50" t="str">
@@ -7701,11 +8075,15 @@
         <v/>
       </c>
       <c r="F50" t="str">
-        <f>IF(LEN(sWGA!I51)=0,"",sWGA!I51)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <f>IF(LEN(sWGA!G51)=0,"",sWGA!G51)</f>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f>IF(LEN(sWGA!J51)=0,"",sWGA!J51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="str">
         <f>IF(LEN(sWGA!C52)=0,"",sWGA!C52)</f>
         <v/>
@@ -7715,11 +8093,11 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <f>IF(LEN(sWGA!E52)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E52)=0,"",sWGA!E52)</f>
         <v/>
       </c>
       <c r="D51" t="str">
-        <f>IF(LEN(sWGA!E52)=0,"",sWGA!E52)</f>
+        <f>IF(LEN(sWGA!F52)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E51" t="str">
@@ -7727,11 +8105,15 @@
         <v/>
       </c>
       <c r="F51" t="str">
-        <f>IF(LEN(sWGA!I52)=0,"",sWGA!I52)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <f>IF(LEN(sWGA!G52)=0,"",sWGA!G52)</f>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <f>IF(LEN(sWGA!J52)=0,"",sWGA!J52)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="str">
         <f>IF(LEN(sWGA!C53)=0,"",sWGA!C53)</f>
         <v/>
@@ -7741,11 +8123,11 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <f>IF(LEN(sWGA!E53)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E53)=0,"",sWGA!E53)</f>
         <v/>
       </c>
       <c r="D52" t="str">
-        <f>IF(LEN(sWGA!E53)=0,"",sWGA!E53)</f>
+        <f>IF(LEN(sWGA!F53)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E52" t="str">
@@ -7753,11 +8135,15 @@
         <v/>
       </c>
       <c r="F52" t="str">
-        <f>IF(LEN(sWGA!I53)=0,"",sWGA!I53)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <f>IF(LEN(sWGA!G53)=0,"",sWGA!G53)</f>
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <f>IF(LEN(sWGA!J53)=0,"",sWGA!J53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="str">
         <f>IF(LEN(sWGA!C54)=0,"",sWGA!C54)</f>
         <v/>
@@ -7767,11 +8153,11 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <f>IF(LEN(sWGA!E54)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E54)=0,"",sWGA!E54)</f>
         <v/>
       </c>
       <c r="D53" t="str">
-        <f>IF(LEN(sWGA!E54)=0,"",sWGA!E54)</f>
+        <f>IF(LEN(sWGA!F54)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E53" t="str">
@@ -7779,11 +8165,15 @@
         <v/>
       </c>
       <c r="F53" t="str">
-        <f>IF(LEN(sWGA!I54)=0,"",sWGA!I54)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <f>IF(LEN(sWGA!G54)=0,"",sWGA!G54)</f>
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <f>IF(LEN(sWGA!J54)=0,"",sWGA!J54)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="str">
         <f>IF(LEN(sWGA!C55)=0,"",sWGA!C55)</f>
         <v/>
@@ -7793,11 +8183,11 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <f>IF(LEN(sWGA!E55)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E55)=0,"",sWGA!E55)</f>
         <v/>
       </c>
       <c r="D54" t="str">
-        <f>IF(LEN(sWGA!E55)=0,"",sWGA!E55)</f>
+        <f>IF(LEN(sWGA!F55)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E54" t="str">
@@ -7805,11 +8195,15 @@
         <v/>
       </c>
       <c r="F54" t="str">
-        <f>IF(LEN(sWGA!I55)=0,"",sWGA!I55)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <f>IF(LEN(sWGA!G55)=0,"",sWGA!G55)</f>
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <f>IF(LEN(sWGA!J55)=0,"",sWGA!J55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="str">
         <f>IF(LEN(sWGA!C56)=0,"",sWGA!C56)</f>
         <v/>
@@ -7819,11 +8213,11 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <f>IF(LEN(sWGA!E56)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E56)=0,"",sWGA!E56)</f>
         <v/>
       </c>
       <c r="D55" t="str">
-        <f>IF(LEN(sWGA!E56)=0,"",sWGA!E56)</f>
+        <f>IF(LEN(sWGA!F56)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E55" t="str">
@@ -7831,11 +8225,15 @@
         <v/>
       </c>
       <c r="F55" t="str">
-        <f>IF(LEN(sWGA!I56)=0,"",sWGA!I56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <f>IF(LEN(sWGA!G56)=0,"",sWGA!G56)</f>
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <f>IF(LEN(sWGA!J56)=0,"",sWGA!J56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="str">
         <f>IF(LEN(sWGA!C57)=0,"",sWGA!C57)</f>
         <v/>
@@ -7845,11 +8243,11 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <f>IF(LEN(sWGA!E57)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E57)=0,"",sWGA!E57)</f>
         <v/>
       </c>
       <c r="D56" t="str">
-        <f>IF(LEN(sWGA!E57)=0,"",sWGA!E57)</f>
+        <f>IF(LEN(sWGA!F57)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E56" t="str">
@@ -7857,11 +8255,15 @@
         <v/>
       </c>
       <c r="F56" t="str">
-        <f>IF(LEN(sWGA!I57)=0,"",sWGA!I57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <f>IF(LEN(sWGA!G57)=0,"",sWGA!G57)</f>
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <f>IF(LEN(sWGA!J57)=0,"",sWGA!J57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="str">
         <f>IF(LEN(sWGA!C58)=0,"",sWGA!C58)</f>
         <v/>
@@ -7871,11 +8273,11 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <f>IF(LEN(sWGA!E58)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E58)=0,"",sWGA!E58)</f>
         <v/>
       </c>
       <c r="D57" t="str">
-        <f>IF(LEN(sWGA!E58)=0,"",sWGA!E58)</f>
+        <f>IF(LEN(sWGA!F58)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E57" t="str">
@@ -7883,11 +8285,15 @@
         <v/>
       </c>
       <c r="F57" t="str">
-        <f>IF(LEN(sWGA!I58)=0,"",sWGA!I58)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <f>IF(LEN(sWGA!G58)=0,"",sWGA!G58)</f>
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <f>IF(LEN(sWGA!J58)=0,"",sWGA!J58)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="str">
         <f>IF(LEN(sWGA!C59)=0,"",sWGA!C59)</f>
         <v/>
@@ -7897,11 +8303,11 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <f>IF(LEN(sWGA!E59)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E59)=0,"",sWGA!E59)</f>
         <v/>
       </c>
       <c r="D58" t="str">
-        <f>IF(LEN(sWGA!E59)=0,"",sWGA!E59)</f>
+        <f>IF(LEN(sWGA!F59)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E58" t="str">
@@ -7909,11 +8315,15 @@
         <v/>
       </c>
       <c r="F58" t="str">
-        <f>IF(LEN(sWGA!I59)=0,"",sWGA!I59)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <f>IF(LEN(sWGA!G59)=0,"",sWGA!G59)</f>
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <f>IF(LEN(sWGA!J59)=0,"",sWGA!J59)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="str">
         <f>IF(LEN(sWGA!C60)=0,"",sWGA!C60)</f>
         <v/>
@@ -7923,11 +8333,11 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <f>IF(LEN(sWGA!E60)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E60)=0,"",sWGA!E60)</f>
         <v/>
       </c>
       <c r="D59" t="str">
-        <f>IF(LEN(sWGA!E60)=0,"",sWGA!E60)</f>
+        <f>IF(LEN(sWGA!F60)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E59" t="str">
@@ -7935,11 +8345,15 @@
         <v/>
       </c>
       <c r="F59" t="str">
-        <f>IF(LEN(sWGA!I60)=0,"",sWGA!I60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <f>IF(LEN(sWGA!G60)=0,"",sWGA!G60)</f>
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <f>IF(LEN(sWGA!J60)=0,"",sWGA!J60)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="str">
         <f>IF(LEN(sWGA!C61)=0,"",sWGA!C61)</f>
         <v/>
@@ -7949,11 +8363,11 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <f>IF(LEN(sWGA!E61)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E61)=0,"",sWGA!E61)</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f>IF(LEN(sWGA!E61)=0,"",sWGA!E61)</f>
+        <f>IF(LEN(sWGA!F61)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E60" t="str">
@@ -7961,11 +8375,15 @@
         <v/>
       </c>
       <c r="F60" t="str">
-        <f>IF(LEN(sWGA!I61)=0,"",sWGA!I61)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <f>IF(LEN(sWGA!G61)=0,"",sWGA!G61)</f>
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <f>IF(LEN(sWGA!J61)=0,"",sWGA!J61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="str">
         <f>IF(LEN(sWGA!C62)=0,"",sWGA!C62)</f>
         <v/>
@@ -7975,11 +8393,11 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <f>IF(LEN(sWGA!E62)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E62)=0,"",sWGA!E62)</f>
         <v/>
       </c>
       <c r="D61" t="str">
-        <f>IF(LEN(sWGA!E62)=0,"",sWGA!E62)</f>
+        <f>IF(LEN(sWGA!F62)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E61" t="str">
@@ -7987,11 +8405,15 @@
         <v/>
       </c>
       <c r="F61" t="str">
-        <f>IF(LEN(sWGA!I62)=0,"",sWGA!I62)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <f>IF(LEN(sWGA!G62)=0,"",sWGA!G62)</f>
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <f>IF(LEN(sWGA!J62)=0,"",sWGA!J62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="str">
         <f>IF(LEN(sWGA!C63)=0,"",sWGA!C63)</f>
         <v/>
@@ -8001,11 +8423,11 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <f>IF(LEN(sWGA!E63)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E63)=0,"",sWGA!E63)</f>
         <v/>
       </c>
       <c r="D62" t="str">
-        <f>IF(LEN(sWGA!E63)=0,"",sWGA!E63)</f>
+        <f>IF(LEN(sWGA!F63)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E62" t="str">
@@ -8013,11 +8435,15 @@
         <v/>
       </c>
       <c r="F62" t="str">
-        <f>IF(LEN(sWGA!I63)=0,"",sWGA!I63)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <f>IF(LEN(sWGA!G63)=0,"",sWGA!G63)</f>
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <f>IF(LEN(sWGA!J63)=0,"",sWGA!J63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="str">
         <f>IF(LEN(sWGA!C64)=0,"",sWGA!C64)</f>
         <v/>
@@ -8027,11 +8453,11 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <f>IF(LEN(sWGA!E64)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E64)=0,"",sWGA!E64)</f>
         <v/>
       </c>
       <c r="D63" t="str">
-        <f>IF(LEN(sWGA!E64)=0,"",sWGA!E64)</f>
+        <f>IF(LEN(sWGA!F64)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E63" t="str">
@@ -8039,11 +8465,15 @@
         <v/>
       </c>
       <c r="F63" t="str">
-        <f>IF(LEN(sWGA!I64)=0,"",sWGA!I64)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <f>IF(LEN(sWGA!G64)=0,"",sWGA!G64)</f>
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <f>IF(LEN(sWGA!J64)=0,"",sWGA!J64)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="str">
         <f>IF(LEN(sWGA!C65)=0,"",sWGA!C65)</f>
         <v/>
@@ -8053,11 +8483,11 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <f>IF(LEN(sWGA!E65)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E65)=0,"",sWGA!E65)</f>
         <v/>
       </c>
       <c r="D64" t="str">
-        <f>IF(LEN(sWGA!E65)=0,"",sWGA!E65)</f>
+        <f>IF(LEN(sWGA!F65)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E64" t="str">
@@ -8065,11 +8495,15 @@
         <v/>
       </c>
       <c r="F64" t="str">
-        <f>IF(LEN(sWGA!I65)=0,"",sWGA!I65)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <f>IF(LEN(sWGA!G65)=0,"",sWGA!G65)</f>
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <f>IF(LEN(sWGA!J65)=0,"",sWGA!J65)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="str">
         <f>IF(LEN(sWGA!C66)=0,"",sWGA!C66)</f>
         <v/>
@@ -8079,11 +8513,11 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <f>IF(LEN(sWGA!E66)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E66)=0,"",sWGA!E66)</f>
         <v/>
       </c>
       <c r="D65" t="str">
-        <f>IF(LEN(sWGA!E66)=0,"",sWGA!E66)</f>
+        <f>IF(LEN(sWGA!F66)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E65" t="str">
@@ -8091,11 +8525,15 @@
         <v/>
       </c>
       <c r="F65" t="str">
-        <f>IF(LEN(sWGA!I66)=0,"",sWGA!I66)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <f>IF(LEN(sWGA!G66)=0,"",sWGA!G66)</f>
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <f>IF(LEN(sWGA!J66)=0,"",sWGA!J66)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="str">
         <f>IF(LEN(sWGA!C67)=0,"",sWGA!C67)</f>
         <v/>
@@ -8105,11 +8543,11 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <f>IF(LEN(sWGA!E67)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E67)=0,"",sWGA!E67)</f>
         <v/>
       </c>
       <c r="D66" t="str">
-        <f>IF(LEN(sWGA!E67)=0,"",sWGA!E67)</f>
+        <f>IF(LEN(sWGA!F67)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E66" t="str">
@@ -8117,11 +8555,15 @@
         <v/>
       </c>
       <c r="F66" t="str">
-        <f>IF(LEN(sWGA!I67)=0,"",sWGA!I67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <f>IF(LEN(sWGA!G67)=0,"",sWGA!G67)</f>
+        <v/>
+      </c>
+      <c r="G66" t="str">
+        <f>IF(LEN(sWGA!J67)=0,"",sWGA!J67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="str">
         <f>IF(LEN(sWGA!C68)=0,"",sWGA!C68)</f>
         <v/>
@@ -8131,11 +8573,11 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <f>IF(LEN(sWGA!E68)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E68)=0,"",sWGA!E68)</f>
         <v/>
       </c>
       <c r="D67" t="str">
-        <f>IF(LEN(sWGA!E68)=0,"",sWGA!E68)</f>
+        <f>IF(LEN(sWGA!F68)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E67" t="str">
@@ -8143,11 +8585,15 @@
         <v/>
       </c>
       <c r="F67" t="str">
-        <f>IF(LEN(sWGA!I68)=0,"",sWGA!I68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <f>IF(LEN(sWGA!G68)=0,"",sWGA!G68)</f>
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <f>IF(LEN(sWGA!J68)=0,"",sWGA!J68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="str">
         <f>IF(LEN(sWGA!C69)=0,"",sWGA!C69)</f>
         <v/>
@@ -8157,11 +8603,11 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <f>IF(LEN(sWGA!E69)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E69)=0,"",sWGA!E69)</f>
         <v/>
       </c>
       <c r="D68" t="str">
-        <f>IF(LEN(sWGA!E69)=0,"",sWGA!E69)</f>
+        <f>IF(LEN(sWGA!F69)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E68" t="str">
@@ -8169,11 +8615,15 @@
         <v/>
       </c>
       <c r="F68" t="str">
-        <f>IF(LEN(sWGA!I69)=0,"",sWGA!I69)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <f>IF(LEN(sWGA!G69)=0,"",sWGA!G69)</f>
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <f>IF(LEN(sWGA!J69)=0,"",sWGA!J69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="str">
         <f>IF(LEN(sWGA!C70)=0,"",sWGA!C70)</f>
         <v/>
@@ -8183,11 +8633,11 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <f>IF(LEN(sWGA!E70)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E70)=0,"",sWGA!E70)</f>
         <v/>
       </c>
       <c r="D69" t="str">
-        <f>IF(LEN(sWGA!E70)=0,"",sWGA!E70)</f>
+        <f>IF(LEN(sWGA!F70)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E69" t="str">
@@ -8195,11 +8645,15 @@
         <v/>
       </c>
       <c r="F69" t="str">
-        <f>IF(LEN(sWGA!I70)=0,"",sWGA!I70)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <f>IF(LEN(sWGA!G70)=0,"",sWGA!G70)</f>
+        <v/>
+      </c>
+      <c r="G69" t="str">
+        <f>IF(LEN(sWGA!J70)=0,"",sWGA!J70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="str">
         <f>IF(LEN(sWGA!C71)=0,"",sWGA!C71)</f>
         <v/>
@@ -8209,11 +8663,11 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <f>IF(LEN(sWGA!E71)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E71)=0,"",sWGA!E71)</f>
         <v/>
       </c>
       <c r="D70" t="str">
-        <f>IF(LEN(sWGA!E71)=0,"",sWGA!E71)</f>
+        <f>IF(LEN(sWGA!F71)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E70" t="str">
@@ -8221,11 +8675,15 @@
         <v/>
       </c>
       <c r="F70" t="str">
-        <f>IF(LEN(sWGA!I71)=0,"",sWGA!I71)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <f>IF(LEN(sWGA!G71)=0,"",sWGA!G71)</f>
+        <v/>
+      </c>
+      <c r="G70" t="str">
+        <f>IF(LEN(sWGA!J71)=0,"",sWGA!J71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="str">
         <f>IF(LEN(sWGA!C72)=0,"",sWGA!C72)</f>
         <v/>
@@ -8235,11 +8693,11 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <f>IF(LEN(sWGA!E72)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E72)=0,"",sWGA!E72)</f>
         <v/>
       </c>
       <c r="D71" t="str">
-        <f>IF(LEN(sWGA!E72)=0,"",sWGA!E72)</f>
+        <f>IF(LEN(sWGA!F72)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E71" t="str">
@@ -8247,11 +8705,15 @@
         <v/>
       </c>
       <c r="F71" t="str">
-        <f>IF(LEN(sWGA!I72)=0,"",sWGA!I72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <f>IF(LEN(sWGA!G72)=0,"",sWGA!G72)</f>
+        <v/>
+      </c>
+      <c r="G71" t="str">
+        <f>IF(LEN(sWGA!J72)=0,"",sWGA!J72)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="str">
         <f>IF(LEN(sWGA!C73)=0,"",sWGA!C73)</f>
         <v/>
@@ -8261,11 +8723,11 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <f>IF(LEN(sWGA!E73)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E73)=0,"",sWGA!E73)</f>
         <v/>
       </c>
       <c r="D72" t="str">
-        <f>IF(LEN(sWGA!E73)=0,"",sWGA!E73)</f>
+        <f>IF(LEN(sWGA!F73)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E72" t="str">
@@ -8273,11 +8735,15 @@
         <v/>
       </c>
       <c r="F72" t="str">
-        <f>IF(LEN(sWGA!I73)=0,"",sWGA!I73)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <f>IF(LEN(sWGA!G73)=0,"",sWGA!G73)</f>
+        <v/>
+      </c>
+      <c r="G72" t="str">
+        <f>IF(LEN(sWGA!J73)=0,"",sWGA!J73)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="str">
         <f>IF(LEN(sWGA!C74)=0,"",sWGA!C74)</f>
         <v/>
@@ -8287,11 +8753,11 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <f>IF(LEN(sWGA!E74)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E74)=0,"",sWGA!E74)</f>
         <v/>
       </c>
       <c r="D73" t="str">
-        <f>IF(LEN(sWGA!E74)=0,"",sWGA!E74)</f>
+        <f>IF(LEN(sWGA!F74)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E73" t="str">
@@ -8299,11 +8765,15 @@
         <v/>
       </c>
       <c r="F73" t="str">
-        <f>IF(LEN(sWGA!I74)=0,"",sWGA!I74)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <f>IF(LEN(sWGA!G74)=0,"",sWGA!G74)</f>
+        <v/>
+      </c>
+      <c r="G73" t="str">
+        <f>IF(LEN(sWGA!J74)=0,"",sWGA!J74)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="str">
         <f>IF(LEN(sWGA!C75)=0,"",sWGA!C75)</f>
         <v/>
@@ -8313,11 +8783,11 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <f>IF(LEN(sWGA!E75)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E75)=0,"",sWGA!E75)</f>
         <v/>
       </c>
       <c r="D74" t="str">
-        <f>IF(LEN(sWGA!E75)=0,"",sWGA!E75)</f>
+        <f>IF(LEN(sWGA!F75)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E74" t="str">
@@ -8325,11 +8795,15 @@
         <v/>
       </c>
       <c r="F74" t="str">
-        <f>IF(LEN(sWGA!I75)=0,"",sWGA!I75)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <f>IF(LEN(sWGA!G75)=0,"",sWGA!G75)</f>
+        <v/>
+      </c>
+      <c r="G74" t="str">
+        <f>IF(LEN(sWGA!J75)=0,"",sWGA!J75)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="str">
         <f>IF(LEN(sWGA!C76)=0,"",sWGA!C76)</f>
         <v/>
@@ -8339,11 +8813,11 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <f>IF(LEN(sWGA!E76)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E76)=0,"",sWGA!E76)</f>
         <v/>
       </c>
       <c r="D75" t="str">
-        <f>IF(LEN(sWGA!E76)=0,"",sWGA!E76)</f>
+        <f>IF(LEN(sWGA!F76)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E75" t="str">
@@ -8351,11 +8825,15 @@
         <v/>
       </c>
       <c r="F75" t="str">
-        <f>IF(LEN(sWGA!I76)=0,"",sWGA!I76)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <f>IF(LEN(sWGA!G76)=0,"",sWGA!G76)</f>
+        <v/>
+      </c>
+      <c r="G75" t="str">
+        <f>IF(LEN(sWGA!J76)=0,"",sWGA!J76)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="str">
         <f>IF(LEN(sWGA!C77)=0,"",sWGA!C77)</f>
         <v/>
@@ -8365,11 +8843,11 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <f>IF(LEN(sWGA!E77)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E77)=0,"",sWGA!E77)</f>
         <v/>
       </c>
       <c r="D76" t="str">
-        <f>IF(LEN(sWGA!E77)=0,"",sWGA!E77)</f>
+        <f>IF(LEN(sWGA!F77)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E76" t="str">
@@ -8377,11 +8855,15 @@
         <v/>
       </c>
       <c r="F76" t="str">
-        <f>IF(LEN(sWGA!I77)=0,"",sWGA!I77)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <f>IF(LEN(sWGA!G77)=0,"",sWGA!G77)</f>
+        <v/>
+      </c>
+      <c r="G76" t="str">
+        <f>IF(LEN(sWGA!J77)=0,"",sWGA!J77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="str">
         <f>IF(LEN(sWGA!C78)=0,"",sWGA!C78)</f>
         <v/>
@@ -8391,11 +8873,11 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <f>IF(LEN(sWGA!E78)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E78)=0,"",sWGA!E78)</f>
         <v/>
       </c>
       <c r="D77" t="str">
-        <f>IF(LEN(sWGA!E78)=0,"",sWGA!E78)</f>
+        <f>IF(LEN(sWGA!F78)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E77" t="str">
@@ -8403,11 +8885,15 @@
         <v/>
       </c>
       <c r="F77" t="str">
-        <f>IF(LEN(sWGA!I78)=0,"",sWGA!I78)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <f>IF(LEN(sWGA!G78)=0,"",sWGA!G78)</f>
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <f>IF(LEN(sWGA!J78)=0,"",sWGA!J78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="str">
         <f>IF(LEN(sWGA!C79)=0,"",sWGA!C79)</f>
         <v/>
@@ -8417,11 +8903,11 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <f>IF(LEN(sWGA!E79)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E79)=0,"",sWGA!E79)</f>
         <v/>
       </c>
       <c r="D78" t="str">
-        <f>IF(LEN(sWGA!E79)=0,"",sWGA!E79)</f>
+        <f>IF(LEN(sWGA!F79)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E78" t="str">
@@ -8429,11 +8915,15 @@
         <v/>
       </c>
       <c r="F78" t="str">
-        <f>IF(LEN(sWGA!I79)=0,"",sWGA!I79)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <f>IF(LEN(sWGA!G79)=0,"",sWGA!G79)</f>
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <f>IF(LEN(sWGA!J79)=0,"",sWGA!J79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="str">
         <f>IF(LEN(sWGA!C80)=0,"",sWGA!C80)</f>
         <v/>
@@ -8443,11 +8933,11 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <f>IF(LEN(sWGA!E80)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E80)=0,"",sWGA!E80)</f>
         <v/>
       </c>
       <c r="D79" t="str">
-        <f>IF(LEN(sWGA!E80)=0,"",sWGA!E80)</f>
+        <f>IF(LEN(sWGA!F80)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E79" t="str">
@@ -8455,11 +8945,15 @@
         <v/>
       </c>
       <c r="F79" t="str">
-        <f>IF(LEN(sWGA!I80)=0,"",sWGA!I80)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <f>IF(LEN(sWGA!G80)=0,"",sWGA!G80)</f>
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <f>IF(LEN(sWGA!J80)=0,"",sWGA!J80)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="str">
         <f>IF(LEN(sWGA!C81)=0,"",sWGA!C81)</f>
         <v/>
@@ -8469,11 +8963,11 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <f>IF(LEN(sWGA!E81)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E81)=0,"",sWGA!E81)</f>
         <v/>
       </c>
       <c r="D80" t="str">
-        <f>IF(LEN(sWGA!E81)=0,"",sWGA!E81)</f>
+        <f>IF(LEN(sWGA!F81)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E80" t="str">
@@ -8481,11 +8975,15 @@
         <v/>
       </c>
       <c r="F80" t="str">
-        <f>IF(LEN(sWGA!I81)=0,"",sWGA!I81)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <f>IF(LEN(sWGA!G81)=0,"",sWGA!G81)</f>
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <f>IF(LEN(sWGA!J81)=0,"",sWGA!J81)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="str">
         <f>IF(LEN(sWGA!C82)=0,"",sWGA!C82)</f>
         <v/>
@@ -8495,11 +8993,11 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <f>IF(LEN(sWGA!E82)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E82)=0,"",sWGA!E82)</f>
         <v/>
       </c>
       <c r="D81" t="str">
-        <f>IF(LEN(sWGA!E82)=0,"",sWGA!E82)</f>
+        <f>IF(LEN(sWGA!F82)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E81" t="str">
@@ -8507,11 +9005,15 @@
         <v/>
       </c>
       <c r="F81" t="str">
-        <f>IF(LEN(sWGA!I82)=0,"",sWGA!I82)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <f>IF(LEN(sWGA!G82)=0,"",sWGA!G82)</f>
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <f>IF(LEN(sWGA!J82)=0,"",sWGA!J82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="str">
         <f>IF(LEN(sWGA!C83)=0,"",sWGA!C83)</f>
         <v/>
@@ -8521,11 +9023,11 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <f>IF(LEN(sWGA!E83)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E83)=0,"",sWGA!E83)</f>
         <v/>
       </c>
       <c r="D82" t="str">
-        <f>IF(LEN(sWGA!E83)=0,"",sWGA!E83)</f>
+        <f>IF(LEN(sWGA!F83)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E82" t="str">
@@ -8533,11 +9035,15 @@
         <v/>
       </c>
       <c r="F82" t="str">
-        <f>IF(LEN(sWGA!I83)=0,"",sWGA!I83)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <f>IF(LEN(sWGA!G83)=0,"",sWGA!G83)</f>
+        <v/>
+      </c>
+      <c r="G82" t="str">
+        <f>IF(LEN(sWGA!J83)=0,"",sWGA!J83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="str">
         <f>IF(LEN(sWGA!C84)=0,"",sWGA!C84)</f>
         <v/>
@@ -8547,11 +9053,11 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <f>IF(LEN(sWGA!E84)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E84)=0,"",sWGA!E84)</f>
         <v/>
       </c>
       <c r="D83" t="str">
-        <f>IF(LEN(sWGA!E84)=0,"",sWGA!E84)</f>
+        <f>IF(LEN(sWGA!F84)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E83" t="str">
@@ -8559,11 +9065,15 @@
         <v/>
       </c>
       <c r="F83" t="str">
-        <f>IF(LEN(sWGA!I84)=0,"",sWGA!I84)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <f>IF(LEN(sWGA!G84)=0,"",sWGA!G84)</f>
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <f>IF(LEN(sWGA!J84)=0,"",sWGA!J84)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="str">
         <f>IF(LEN(sWGA!C85)=0,"",sWGA!C85)</f>
         <v/>
@@ -8573,11 +9083,11 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <f>IF(LEN(sWGA!E85)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E85)=0,"",sWGA!E85)</f>
         <v/>
       </c>
       <c r="D84" t="str">
-        <f>IF(LEN(sWGA!E85)=0,"",sWGA!E85)</f>
+        <f>IF(LEN(sWGA!F85)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E84" t="str">
@@ -8585,11 +9095,15 @@
         <v/>
       </c>
       <c r="F84" t="str">
-        <f>IF(LEN(sWGA!I85)=0,"",sWGA!I85)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <f>IF(LEN(sWGA!G85)=0,"",sWGA!G85)</f>
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <f>IF(LEN(sWGA!J85)=0,"",sWGA!J85)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="str">
         <f>IF(LEN(sWGA!C86)=0,"",sWGA!C86)</f>
         <v/>
@@ -8599,11 +9113,11 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <f>IF(LEN(sWGA!E86)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E86)=0,"",sWGA!E86)</f>
         <v/>
       </c>
       <c r="D85" t="str">
-        <f>IF(LEN(sWGA!E86)=0,"",sWGA!E86)</f>
+        <f>IF(LEN(sWGA!F86)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E85" t="str">
@@ -8611,11 +9125,15 @@
         <v/>
       </c>
       <c r="F85" t="str">
-        <f>IF(LEN(sWGA!I86)=0,"",sWGA!I86)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <f>IF(LEN(sWGA!G86)=0,"",sWGA!G86)</f>
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <f>IF(LEN(sWGA!J86)=0,"",sWGA!J86)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="str">
         <f>IF(LEN(sWGA!C87)=0,"",sWGA!C87)</f>
         <v/>
@@ -8625,11 +9143,11 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <f>IF(LEN(sWGA!E87)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E87)=0,"",sWGA!E87)</f>
         <v/>
       </c>
       <c r="D86" t="str">
-        <f>IF(LEN(sWGA!E87)=0,"",sWGA!E87)</f>
+        <f>IF(LEN(sWGA!F87)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E86" t="str">
@@ -8637,11 +9155,15 @@
         <v/>
       </c>
       <c r="F86" t="str">
-        <f>IF(LEN(sWGA!I87)=0,"",sWGA!I87)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <f>IF(LEN(sWGA!G87)=0,"",sWGA!G87)</f>
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <f>IF(LEN(sWGA!J87)=0,"",sWGA!J87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="str">
         <f>IF(LEN(sWGA!C88)=0,"",sWGA!C88)</f>
         <v/>
@@ -8651,11 +9173,11 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <f>IF(LEN(sWGA!E88)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E88)=0,"",sWGA!E88)</f>
         <v/>
       </c>
       <c r="D87" t="str">
-        <f>IF(LEN(sWGA!E88)=0,"",sWGA!E88)</f>
+        <f>IF(LEN(sWGA!F88)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E87" t="str">
@@ -8663,11 +9185,15 @@
         <v/>
       </c>
       <c r="F87" t="str">
-        <f>IF(LEN(sWGA!I88)=0,"",sWGA!I88)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <f>IF(LEN(sWGA!G88)=0,"",sWGA!G88)</f>
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <f>IF(LEN(sWGA!J88)=0,"",sWGA!J88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="str">
         <f>IF(LEN(sWGA!C89)=0,"",sWGA!C89)</f>
         <v/>
@@ -8677,11 +9203,11 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <f>IF(LEN(sWGA!E89)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E89)=0,"",sWGA!E89)</f>
         <v/>
       </c>
       <c r="D88" t="str">
-        <f>IF(LEN(sWGA!E89)=0,"",sWGA!E89)</f>
+        <f>IF(LEN(sWGA!F89)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E88" t="str">
@@ -8689,11 +9215,15 @@
         <v/>
       </c>
       <c r="F88" t="str">
-        <f>IF(LEN(sWGA!I89)=0,"",sWGA!I89)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <f>IF(LEN(sWGA!G89)=0,"",sWGA!G89)</f>
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <f>IF(LEN(sWGA!J89)=0,"",sWGA!J89)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="str">
         <f>IF(LEN(sWGA!C90)=0,"",sWGA!C90)</f>
         <v/>
@@ -8703,11 +9233,11 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <f>IF(LEN(sWGA!E90)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E90)=0,"",sWGA!E90)</f>
         <v/>
       </c>
       <c r="D89" t="str">
-        <f>IF(LEN(sWGA!E90)=0,"",sWGA!E90)</f>
+        <f>IF(LEN(sWGA!F90)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E89" t="str">
@@ -8715,11 +9245,15 @@
         <v/>
       </c>
       <c r="F89" t="str">
-        <f>IF(LEN(sWGA!I90)=0,"",sWGA!I90)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <f>IF(LEN(sWGA!G90)=0,"",sWGA!G90)</f>
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <f>IF(LEN(sWGA!J90)=0,"",sWGA!J90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="str">
         <f>IF(LEN(sWGA!C91)=0,"",sWGA!C91)</f>
         <v/>
@@ -8729,11 +9263,11 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <f>IF(LEN(sWGA!E91)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E91)=0,"",sWGA!E91)</f>
         <v/>
       </c>
       <c r="D90" t="str">
-        <f>IF(LEN(sWGA!E91)=0,"",sWGA!E91)</f>
+        <f>IF(LEN(sWGA!F91)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E90" t="str">
@@ -8741,11 +9275,15 @@
         <v/>
       </c>
       <c r="F90" t="str">
-        <f>IF(LEN(sWGA!I91)=0,"",sWGA!I91)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <f>IF(LEN(sWGA!G91)=0,"",sWGA!G91)</f>
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <f>IF(LEN(sWGA!J91)=0,"",sWGA!J91)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="str">
         <f>IF(LEN(sWGA!C92)=0,"",sWGA!C92)</f>
         <v/>
@@ -8755,11 +9293,11 @@
         <v/>
       </c>
       <c r="C91" t="str">
-        <f>IF(LEN(sWGA!E92)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E92)=0,"",sWGA!E92)</f>
         <v/>
       </c>
       <c r="D91" t="str">
-        <f>IF(LEN(sWGA!E92)=0,"",sWGA!E92)</f>
+        <f>IF(LEN(sWGA!F92)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E91" t="str">
@@ -8767,11 +9305,15 @@
         <v/>
       </c>
       <c r="F91" t="str">
-        <f>IF(LEN(sWGA!I92)=0,"",sWGA!I92)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <f>IF(LEN(sWGA!G92)=0,"",sWGA!G92)</f>
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <f>IF(LEN(sWGA!J92)=0,"",sWGA!J92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="str">
         <f>IF(LEN(sWGA!C93)=0,"",sWGA!C93)</f>
         <v/>
@@ -8781,11 +9323,11 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <f>IF(LEN(sWGA!E93)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E93)=0,"",sWGA!E93)</f>
         <v/>
       </c>
       <c r="D92" t="str">
-        <f>IF(LEN(sWGA!E93)=0,"",sWGA!E93)</f>
+        <f>IF(LEN(sWGA!F93)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E92" t="str">
@@ -8793,11 +9335,15 @@
         <v/>
       </c>
       <c r="F92" t="str">
-        <f>IF(LEN(sWGA!I93)=0,"",sWGA!I93)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <f>IF(LEN(sWGA!G93)=0,"",sWGA!G93)</f>
+        <v/>
+      </c>
+      <c r="G92" t="str">
+        <f>IF(LEN(sWGA!J93)=0,"",sWGA!J93)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="str">
         <f>IF(LEN(sWGA!C94)=0,"",sWGA!C94)</f>
         <v/>
@@ -8807,11 +9353,11 @@
         <v/>
       </c>
       <c r="C93" t="str">
-        <f>IF(LEN(sWGA!E94)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E94)=0,"",sWGA!E94)</f>
         <v/>
       </c>
       <c r="D93" t="str">
-        <f>IF(LEN(sWGA!E94)=0,"",sWGA!E94)</f>
+        <f>IF(LEN(sWGA!F94)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E93" t="str">
@@ -8819,11 +9365,15 @@
         <v/>
       </c>
       <c r="F93" t="str">
-        <f>IF(LEN(sWGA!I94)=0,"",sWGA!I94)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <f>IF(LEN(sWGA!G94)=0,"",sWGA!G94)</f>
+        <v/>
+      </c>
+      <c r="G93" t="str">
+        <f>IF(LEN(sWGA!J94)=0,"",sWGA!J94)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="str">
         <f>IF(LEN(sWGA!C95)=0,"",sWGA!C95)</f>
         <v/>
@@ -8833,11 +9383,11 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <f>IF(LEN(sWGA!E95)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E95)=0,"",sWGA!E95)</f>
         <v/>
       </c>
       <c r="D94" t="str">
-        <f>IF(LEN(sWGA!E95)=0,"",sWGA!E95)</f>
+        <f>IF(LEN(sWGA!F95)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E94" t="str">
@@ -8845,11 +9395,15 @@
         <v/>
       </c>
       <c r="F94" t="str">
-        <f>IF(LEN(sWGA!I95)=0,"",sWGA!I95)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <f>IF(LEN(sWGA!G95)=0,"",sWGA!G95)</f>
+        <v/>
+      </c>
+      <c r="G94" t="str">
+        <f>IF(LEN(sWGA!J95)=0,"",sWGA!J95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="str">
         <f>IF(LEN(sWGA!C96)=0,"",sWGA!C96)</f>
         <v/>
@@ -8859,11 +9413,11 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <f>IF(LEN(sWGA!E96)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E96)=0,"",sWGA!E96)</f>
         <v/>
       </c>
       <c r="D95" t="str">
-        <f>IF(LEN(sWGA!E96)=0,"",sWGA!E96)</f>
+        <f>IF(LEN(sWGA!F96)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E95" t="str">
@@ -8871,11 +9425,15 @@
         <v/>
       </c>
       <c r="F95" t="str">
-        <f>IF(LEN(sWGA!I96)=0,"",sWGA!I96)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <f>IF(LEN(sWGA!G96)=0,"",sWGA!G96)</f>
+        <v/>
+      </c>
+      <c r="G95" t="str">
+        <f>IF(LEN(sWGA!J96)=0,"",sWGA!J96)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="str">
         <f>IF(LEN(sWGA!C97)=0,"",sWGA!C97)</f>
         <v/>
@@ -8885,11 +9443,11 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <f>IF(LEN(sWGA!E97)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E97)=0,"",sWGA!E97)</f>
         <v/>
       </c>
       <c r="D96" t="str">
-        <f>IF(LEN(sWGA!E97)=0,"",sWGA!E97)</f>
+        <f>IF(LEN(sWGA!F97)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E96" t="str">
@@ -8897,11 +9455,15 @@
         <v/>
       </c>
       <c r="F96" t="str">
-        <f>IF(LEN(sWGA!I97)=0,"",sWGA!I97)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <f>IF(LEN(sWGA!G97)=0,"",sWGA!G97)</f>
+        <v/>
+      </c>
+      <c r="G96" t="str">
+        <f>IF(LEN(sWGA!J97)=0,"",sWGA!J97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="str">
         <f>IF(LEN(sWGA!C98)=0,"",sWGA!C98)</f>
         <v/>
@@ -8911,11 +9473,11 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <f>IF(LEN(sWGA!E98)=0,"",exp_id)</f>
+        <f>IF(LEN(sWGA!E98)=0,"",sWGA!E98)</f>
         <v/>
       </c>
       <c r="D97" t="str">
-        <f>IF(LEN(sWGA!E98)=0,"",sWGA!E98)</f>
+        <f>IF(LEN(sWGA!F98)=0,"",exp_id)</f>
         <v/>
       </c>
       <c r="E97" t="str">
@@ -8923,12 +9485,16 @@
         <v/>
       </c>
       <c r="F97" t="str">
-        <f>IF(LEN(sWGA!I98)=0,"",sWGA!I98)</f>
+        <f>IF(LEN(sWGA!G98)=0,"",sWGA!G98)</f>
+        <v/>
+      </c>
+      <c r="G97" t="str">
+        <f>IF(LEN(sWGA!J98)=0,"",sWGA!J98)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0Z4tMIdR1XInzI6T5nccLpUmkW37xP0QlaBElzIp60NUh/HOpcG+IrEhUteZFqqVO4eB/tyR66xzq7LjSCYLuA==" saltValue="sYLXdzm2AHtEdpMRafbgog==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/templates/NOMADS_sWGA_Worksheet.xlsx
+++ b/templates/NOMADS_sWGA_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F502889-389F-4990-90FA-1E37447F897C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B954A0E-9CD4-40CE-8439-64DA0F2546F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="29625" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -1033,22 +1033,22 @@
     <t>swga_enzyme</t>
   </si>
   <si>
-    <t>Addition of swga enzyme capture</t>
-  </si>
-  <si>
     <t>Sample Type</t>
   </si>
   <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>positive_control</t>
-  </si>
-  <si>
-    <t>negative_control</t>
-  </si>
-  <si>
     <t>sample_type</t>
+  </si>
+  <si>
+    <t>Addition of sample type</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
   </si>
 </sst>
 </file>
@@ -1605,6 +1605,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1613,12 +1616,6 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1684,6 +1681,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,16 +1738,6 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1776,65 +1766,14 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Andale Mono"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1975,6 +1914,67 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Andale Mono"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2106,18 +2106,18 @@
     <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5587DAF9-72AA-46A4-AAFA-83520030B12F}" name="Sample Type" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{5587DAF9-72AA-46A4-AAFA-83520030B12F}" name="Sample Type" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="12">
       <calculatedColumnFormula>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="8">
       <calculatedColumnFormula>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2175,10 +2175,10 @@
     <tableColumn id="3" xr3:uid="{E11C4165-C164-4B88-9BF1-7FC2458E8999}" name="extraction_id">
       <calculatedColumnFormula>IF(LEN(sWGA!D3)=0,"",sWGA!D3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1FB0E1F2-B22B-4383-B21B-4C2C979A2F8D}" name="sample_type" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{1FB0E1F2-B22B-4383-B21B-4C2C979A2F8D}" name="sample_type" dataDxfId="6">
       <calculatedColumnFormula>IF(LEN(sWGA!E3)=0,"",sWGA!E3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="5">
       <calculatedColumnFormula>IF(LEN(sWGA!F3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F5CC8E00-1DA6-4870-97ED-B9F5BA34367D}" name="swga_identifier">
@@ -2508,49 +2508,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="76" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="76"/>
+      <c r="H2" s="75"/>
       <c r="K2" s="87" t="s">
         <v>137</v>
       </c>
       <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" t="s">
         <v>144</v>
       </c>
@@ -2560,14 +2560,14 @@
       <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="26" t="s">
         <v>143</v>
       </c>
@@ -2577,121 +2577,121 @@
       <c r="L4" s="86"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="81" t="str">
+      <c r="B5" s="77"/>
+      <c r="C5" s="80" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!G3:H7,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="L5" s="83"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="63" t="str">
+      <c r="B6" s="77"/>
+      <c r="C6" s="83" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="23"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="66" t="str">
+      <c r="B9" s="67"/>
+      <c r="C9" s="65" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69" t="str">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" t="s">
         <v>144</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="20" t="s">
         <v>150</v>
       </c>
@@ -2701,10 +2701,10 @@
       <c r="B13" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" t="s">
         <v>144</v>
       </c>
@@ -2774,20 +2774,20 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65" t="str">
+      <c r="E19" s="64"/>
+      <c r="F19" s="64" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="64"/>
       <c r="J19" s="90" t="s">
         <v>9</v>
       </c>
@@ -2797,21 +2797,21 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="70">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="69">
         <f>swga_rxnvol/10</f>
         <v>0</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="74" t="str">
+      <c r="E20" s="69"/>
+      <c r="F20" s="73" t="str">
         <f t="shared" ref="F20:F23" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D20*exp_rxns*(1+$D$17)))</f>
         <v/>
       </c>
-      <c r="G20" s="74"/>
+      <c r="G20" s="73"/>
       <c r="J20" s="91">
         <v>35</v>
       </c>
@@ -2821,20 +2821,20 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="70">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="69">
         <v>0.25</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="74" t="str">
+      <c r="E21" s="69"/>
+      <c r="F21" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="74"/>
+      <c r="G21" s="73"/>
       <c r="J21" s="91">
         <v>34</v>
       </c>
@@ -2844,20 +2844,20 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="70">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="69">
         <v>1.25</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="74" t="str">
+      <c r="E22" s="69"/>
+      <c r="F22" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="74"/>
+      <c r="G22" s="73"/>
       <c r="J22" s="88">
         <v>33</v>
       </c>
@@ -2867,20 +2867,20 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="70">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69">
         <v>5</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="74" t="str">
+      <c r="E23" s="69"/>
+      <c r="F23" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G23" s="74"/>
+      <c r="G23" s="73"/>
       <c r="J23" s="89">
         <v>32</v>
       </c>
@@ -2890,21 +2890,21 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="72" t="str">
+      <c r="A24" s="71" t="str">
         <f>IF(C11="","",C11)</f>
         <v/>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="70">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="69">
         <v>1</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="74" t="str">
+      <c r="E24" s="69"/>
+      <c r="F24" s="73" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$17)))</f>
         <v/>
       </c>
-      <c r="G24" s="74"/>
+      <c r="G24" s="73"/>
       <c r="J24" s="88">
         <v>31</v>
       </c>
@@ -2914,21 +2914,21 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="70">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="69">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D20:E24)</f>
         <v>-17.5</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="74" t="str">
+      <c r="E25" s="69"/>
+      <c r="F25" s="73" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D25*exp_rxns*(1+$D$17)))</f>
         <v/>
       </c>
-      <c r="G25" s="74"/>
+      <c r="G25" s="73"/>
       <c r="J25" s="88">
         <v>30</v>
       </c>
@@ -3491,6 +3491,7 @@
       <c r="A42" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="62">
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="K30:M30"/>
@@ -3520,8 +3521,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="K5:L6"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="C13:F13"/>
@@ -3536,38 +3536,39 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C14">
-    <cfRule type="expression" dxfId="5" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>COUNTIF(D17,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3666,7 +3667,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>177</v>
@@ -6061,7 +6062,7 @@
       <c r="K111" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" sort="0" autoFilter="0"/>
   <protectedRanges>
     <protectedRange sqref="A2:K98" name="FilterTbl"/>
   </protectedRanges>
@@ -6070,14 +6071,14 @@
     <mergeCell ref="F1:K1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C3:E98">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" ">
-      <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
+  <conditionalFormatting sqref="C3:E98 G3:I98 K3:K98">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:I98 K3:K98 C3:E98">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>COUNTIF(C3,"")</formula>
+  <conditionalFormatting sqref="C3:E98">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=" ">
+      <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -6116,7 +6117,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6252,7 +6253,7 @@
         <v>171</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>233</v>
@@ -6271,7 +6272,7 @@
         <v>199</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>195</v>
@@ -6279,10 +6280,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>196</v>
@@ -6290,7 +6291,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="E12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>197</v>
@@ -6302,7 +6303,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="E13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +6319,9 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
   <cols>
@@ -6532,7 +6535,7 @@
       </c>
       <c r="E2">
         <f>IF(LEN(exp_version)=0,"",exp_version)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="str">
         <f>IF(LEN(exp_rxns)=0,"",exp_rxns)</f>
@@ -6598,7 +6601,7 @@
         <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D1" t="s">
         <v>172</v>

--- a/templates/NOMADS_sWGA_Worksheet.xlsx
+++ b/templates/NOMADS_sWGA_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B954A0E-9CD4-40CE-8439-64DA0F2546F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFB29C-5182-4A4E-A815-0588CBD2A1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="29625" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="243">
   <si>
     <t>ng</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Overage</t>
   </si>
   <si>
-    <t>BSA (20mg/mL)</t>
-  </si>
-  <si>
     <t>Look-ups</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
   </si>
   <si>
     <t>Proceed with PCR</t>
-  </si>
-  <si>
-    <t>Reaction Volume (ul)</t>
   </si>
   <si>
     <t>(for master mix calculation)</t>
@@ -708,39 +702,10 @@
     <t>Changelog from previous version</t>
   </si>
   <si>
-    <t>100nM Primer Mix</t>
-  </si>
-  <si>
     <t>swga template max vol</t>
   </si>
   <si>
     <t>ul</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  4. Quantify 1 µl (199 µl WS 1X HS DNA). Dilute in H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O if required</t>
-    </r>
   </si>
   <si>
     <t>Instructions</t>
@@ -1039,9 +1004,6 @@
     <t>sample_type</t>
   </si>
   <si>
-    <t>Addition of sample type</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -1049,6 +1011,27 @@
   </si>
   <si>
     <t>Negative</t>
+  </si>
+  <si>
+    <t>Corrections to equiphi volumes</t>
+  </si>
+  <si>
+    <t>60 min</t>
+  </si>
+  <si>
+    <t>Prepare</t>
+  </si>
+  <si>
+    <t>equiphi29 cycle</t>
+  </si>
+  <si>
+    <t>phi29 cycle</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1429,7 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1604,51 +1587,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1656,6 +1635,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1684,33 +1669,45 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1736,7 +1733,7 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{50147B5D-B577-4D84-8D3E-2790725A5EE2}"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1750,6 +1747,18 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2100,24 +2109,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_sWGA" displayName="tbl_sWGA" ref="A2:K98" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_sWGA" displayName="tbl_sWGA" ref="A2:K98" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A2:K98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{5587DAF9-72AA-46A4-AAFA-83520030B12F}" name="Sample Type" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{5587DAF9-72AA-46A4-AAFA-83520030B12F}" name="Sample Type" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="14">
       <calculatedColumnFormula>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="10">
       <calculatedColumnFormula>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2175,10 +2184,10 @@
     <tableColumn id="3" xr3:uid="{E11C4165-C164-4B88-9BF1-7FC2458E8999}" name="extraction_id">
       <calculatedColumnFormula>IF(LEN(sWGA!D3)=0,"",sWGA!D3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1FB0E1F2-B22B-4383-B21B-4C2C979A2F8D}" name="sample_type" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{1FB0E1F2-B22B-4383-B21B-4C2C979A2F8D}" name="sample_type" dataDxfId="8">
       <calculatedColumnFormula>IF(LEN(sWGA!E3)=0,"",sWGA!E3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="7">
       <calculatedColumnFormula>IF(LEN(sWGA!F3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F5CC8E00-1DA6-4870-97ED-B9F5BA34367D}" name="swga_identifier">
@@ -2496,10 +2505,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2508,234 +2517,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="A1" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="74"/>
+      <c r="K2" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A3" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="67"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="68"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="81" t="str">
+        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!H3:I7,2,FALSE),C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="83"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="75"/>
-      <c r="K2" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="L2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="85"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="26" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="84" t="str">
+        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
+        <v/>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="23"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="86"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="80" t="str">
-        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!G3:H7,2,FALSE),C4))</f>
-        <v/>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="82" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="L5" s="82"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="96" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="94" t="str">
+        <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
+        <v/>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97" t="str">
+        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
+        <v/>
+      </c>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="83" t="str">
-        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
-        <v/>
-      </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="23"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="65" t="str">
-        <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
-        <v/>
-      </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68" t="str">
-        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
-        <v/>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" t="s">
-        <v>144</v>
-      </c>
+      <c r="A13" s="60"/>
+      <c r="B13" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="88">
+        <f>IF(swga_enzyme=reference!$E$3,50,20)</f>
+        <v>20</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="29"/>
       <c r="B14" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
+        <v>177</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="29"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7"/>
@@ -2746,9 +2756,9 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:22">
       <c r="A17" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="16" t="s">
@@ -2761,10 +2771,10 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:22">
       <c r="A18" s="14" t="str">
         <f>CONCATENATE("  1. Make up master mix as below and add ", SUM(D20:D25), " µl to each well")</f>
-        <v xml:space="preserve">  1. Make up master mix as below and add -10 µl to each well</v>
+        <v xml:space="preserve">  1. Make up master mix as below and add 7.2 µl to each well</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
@@ -2773,215 +2783,261 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A19" s="63" t="s">
+    <row r="19" spans="1:22" ht="16.5" thickBot="1">
+      <c r="A19" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64" t="str">
+      <c r="E19" s="92"/>
+      <c r="F19" s="92" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="J19" s="90" t="s">
+      <c r="G19" s="92"/>
+      <c r="J19" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="90"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="69">
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="10"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="72">
         <f>swga_rxnvol/10</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="72"/>
+      <c r="F20" s="89">
+        <f t="shared" ref="F20:F23" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D20*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="73" t="str">
-        <f t="shared" ref="F20:F23" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D20*exp_rxns*(1+$D$17)))</f>
-        <v/>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="J20" s="91">
-        <v>35</v>
-      </c>
-      <c r="K20" s="91"/>
-      <c r="L20" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="73" t="str">
+      <c r="G20" s="89"/>
+      <c r="J20" s="63">
+        <f>reference!E12</f>
+        <v>45</v>
+      </c>
+      <c r="K20" s="63"/>
+      <c r="L20" s="10" t="str">
+        <f>reference!F12</f>
+        <v>Prepare</v>
+      </c>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="10"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="85" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,"100nM Primer Mix","500uM Primer Mix")</f>
+        <v>500uM Primer Mix</v>
+      </c>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="72">
+        <f>IF(swga_enzyme=reference!$E$3,0.25,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="72"/>
+      <c r="F21" s="89">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G21" s="73"/>
-      <c r="J21" s="91">
-        <v>34</v>
-      </c>
-      <c r="K21" s="91"/>
-      <c r="L21" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="69">
-        <v>1.25</v>
-      </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="73" t="str">
+        <v>0</v>
+      </c>
+      <c r="G21" s="89"/>
+      <c r="J21" s="63">
+        <f>reference!E13</f>
+        <v>45</v>
+      </c>
+      <c r="K21" s="63"/>
+      <c r="L21" s="10" t="str">
+        <f>reference!F13</f>
+        <v>60 min</v>
+      </c>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="6"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A22" s="85" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,"BSA (20mg/mL)","DTT")</f>
+        <v>DTT</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="72">
+        <f>IF(swga_enzyme=reference!$E$3,1.25,0.2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="72"/>
+      <c r="F22" s="89">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="73"/>
-      <c r="J22" s="88">
-        <v>33</v>
-      </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="89"/>
+      <c r="J22" s="63">
+        <f>reference!E14</f>
+        <v>65</v>
+      </c>
+      <c r="K22" s="63"/>
+      <c r="L22" s="10" t="str">
+        <f>reference!F14</f>
+        <v>10 min</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="69">
-        <v>5</v>
-      </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="73" t="str">
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="72">
+        <f>IF(swga_enzyme=reference!$E$3,5,2)</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="72"/>
+      <c r="F23" s="89">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="73"/>
-      <c r="J23" s="89">
-        <v>32</v>
-      </c>
-      <c r="K23" s="89"/>
-      <c r="L23" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="71" t="str">
-        <f>IF(C11="","",C11)</f>
-        <v/>
-      </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="69">
+        <v>0</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="J23" s="63">
+        <f>reference!E15</f>
+        <v>8</v>
+      </c>
+      <c r="K23" s="63"/>
+      <c r="L23" s="10" t="str">
+        <f>reference!F15</f>
+        <v>∞</v>
+      </c>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="86" t="str">
+        <f>_xlfn.CONCAT(IF(C11="","Select",C11)," polymerase")</f>
+        <v>Select polymerase</v>
+      </c>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="72">
         <v>1</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="73" t="str">
+      <c r="E24" s="72"/>
+      <c r="F24" s="89">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$17)))</f>
-        <v/>
-      </c>
-      <c r="G24" s="73"/>
-      <c r="J24" s="88">
-        <v>31</v>
-      </c>
-      <c r="K24" s="88"/>
-      <c r="L24" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="89"/>
+      <c r="J24" s="63" t="str">
+        <f>reference!E16</f>
+        <v>-</v>
+      </c>
+      <c r="K24" s="63"/>
+      <c r="L24" s="10" t="str">
+        <f>reference!F16</f>
+        <v>-</v>
+      </c>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="69">
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="72">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D20:E24)</f>
-        <v>-17.5</v>
-      </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="73" t="str">
+        <v>0</v>
+      </c>
+      <c r="E25" s="72"/>
+      <c r="F25" s="89">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D25*exp_rxns*(1+$D$17)))</f>
-        <v/>
-      </c>
-      <c r="G25" s="73"/>
-      <c r="J25" s="88">
-        <v>30</v>
-      </c>
-      <c r="K25" s="88"/>
-      <c r="L25" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="89"/>
+      <c r="J25" s="63" t="str">
+        <f>reference!E17</f>
+        <v>-</v>
+      </c>
+      <c r="K25" s="63"/>
+      <c r="L25" s="10" t="str">
+        <f>reference!F17</f>
+        <v>-</v>
+      </c>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="G26" s="17" t="str">
         <f>CONCATENATE("Add ",SUM(D20:D25)," µl of MM to each well")</f>
-        <v>Add -10 µl of MM to each well</v>
-      </c>
-      <c r="J26" s="88">
-        <v>65</v>
-      </c>
-      <c r="K26" s="88"/>
-      <c r="L26" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>Add 7.2 µl of MM to each well</v>
+      </c>
+      <c r="J26" s="63" t="str">
+        <f>reference!E18</f>
+        <v>-</v>
+      </c>
+      <c r="K26" s="63"/>
+      <c r="L26" s="10" t="str">
+        <f>reference!F18</f>
+        <v>-</v>
+      </c>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="13"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
       <c r="D27" s="7"/>
       <c r="G27" s="10"/>
-      <c r="J27" s="88">
-        <v>10</v>
-      </c>
-      <c r="K27" s="88"/>
-      <c r="L27" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="J27" s="63" t="str">
+        <f>reference!E19</f>
+        <v>-</v>
+      </c>
+      <c r="K27" s="63"/>
+      <c r="L27" s="10" t="str">
+        <f>reference!F19</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="14" t="str">
         <f>CONCATENATE("  2. For each sample add target of ",swga_targetmass," ng of DNA for each up to a max vol of ",swga_template_maxvol,"ul. Add TE as required.")</f>
-        <v xml:space="preserve">  2. For each sample add target of 40 ng of DNA for each up to a max vol of 10ul. Add TE as required.</v>
+        <v xml:space="preserve">  2. For each sample add target of 40 ng of DNA for each up to a max vol of 12.8ul. Add TE as required.</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="7"/>
       <c r="F28" s="13"/>
       <c r="G28" s="10"/>
-      <c r="K28" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="K28" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
@@ -2989,32 +3045,47 @@
       <c r="F29" s="13"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:13" ht="18.75">
-      <c r="A30" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="10"/>
-      <c r="K30" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="14"/>
+    <row r="30" spans="1:22" ht="33" customHeight="1">
+      <c r="A30" s="93" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,"  4. Quantify 1 µl (199 µl WS 1X HS DNA). Dilute in water if required","  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C")</f>
+        <v xml:space="preserve">  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C</v>
+      </c>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="66" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,"(Enter in sWGA Tab)","")</f>
+        <v/>
+      </c>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="14" t="str">
+        <f>IF(swga_enzyme=reference!$E$3, "","  5. Quantify 1 µl (199 µl WS 1X HS DNA). Dilute in water if required")</f>
+        <v xml:space="preserve">  5. Quantify 1 µl (199 µl WS 1X HS DNA). Dilute in water if required</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
       <c r="D31" s="7"/>
       <c r="F31" s="13"/>
       <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="K31" s="66" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,"","(Enter in sWGA Tab)")</f>
+        <v>(Enter in sWGA Tab)</v>
+      </c>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -3065,7 +3136,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D3),"",sWGA!$D3)</f>
@@ -3118,7 +3189,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D4),"",sWGA!$D4)</f>
@@ -3171,7 +3242,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D5),"",sWGA!$D5)</f>
@@ -3224,7 +3295,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D6),"",sWGA!$D6)</f>
@@ -3277,7 +3348,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D7),"",sWGA!$D7)</f>
@@ -3330,7 +3401,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D8),"",sWGA!$D8)</f>
@@ -3383,7 +3454,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D9),"",sWGA!$D9)</f>
@@ -3436,7 +3507,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D10),"",sWGA!$D10)</f>
@@ -3490,11 +3561,65 @@
     <row r="42" spans="1:13">
       <c r="A42" s="7"/>
     </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="61"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="61"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="62">
+  <mergeCells count="72">
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K2:L2"/>
@@ -3509,71 +3634,46 @@
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="C14:K15"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T23:U23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C14">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="6" priority="17">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>COUNTIF(D17,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="J20:L27">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$J20="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:M31">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>LEN($K30)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C9:F9 C10" xr:uid="{8A90D9D7-2B69-4155-9BC8-5F857BAE0376}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Numbers should be three digits long" sqref="C4:F4" xr:uid="{28EB9DBE-45BF-4490-851B-C4C7A91C2B02}">
+      <formula1>LEN(C4)=3</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3582,28 +3682,22 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85B9980E-D072-4E08-B792-4B86FA663CD4}">
-          <x14:formula1>
-            <xm:f>reference!$E$3:$E$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C13</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECC56CCB-ED86-47E8-A451-039865410494}">
           <x14:formula1>
-            <xm:f>reference!$J$3:$J$5</xm:f>
+            <xm:f>reference!$K$3:$K$5</xm:f>
           </x14:formula1>
           <xm:sqref>C7:F7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
           <x14:formula1>
-            <xm:f>reference!$G$3:$G$7</xm:f>
+            <xm:f>reference!$H$3:$H$7</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49BACFA1-87AC-4545-9963-95B02395023D}">
           <x14:formula1>
-            <xm:f>reference!$E$7:$E$8</xm:f>
+            <xm:f>reference!$E$3:$E$4</xm:f>
           </x14:formula1>
           <xm:sqref>C11:F11</xm:sqref>
         </x14:dataValidation>
@@ -3639,26 +3733,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95" t="s">
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>6</v>
@@ -3667,25 +3761,25 @@
         <v>20</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G2" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="45" t="s">
-        <v>157</v>
-      </c>
       <c r="I2" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
@@ -3693,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="39"/>
@@ -3716,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="39"/>
@@ -3739,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="39"/>
@@ -3762,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="39"/>
@@ -3785,7 +3879,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="39"/>
@@ -3808,7 +3902,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="39"/>
@@ -3831,7 +3925,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="39"/>
@@ -3854,7 +3948,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="39"/>
@@ -3877,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="39"/>
@@ -3900,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="39"/>
@@ -3923,7 +4017,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="39"/>
@@ -3946,7 +4040,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="39"/>
@@ -3969,7 +4063,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="39"/>
@@ -3992,7 +4086,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="39"/>
@@ -4015,7 +4109,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="39"/>
@@ -4038,7 +4132,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="39"/>
@@ -4061,7 +4155,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="39"/>
@@ -4084,7 +4178,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="39"/>
@@ -4107,7 +4201,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="39"/>
@@ -4130,7 +4224,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="39"/>
@@ -4153,7 +4247,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="39"/>
@@ -4176,7 +4270,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="39"/>
@@ -4199,7 +4293,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="39"/>
@@ -4222,7 +4316,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="39"/>
@@ -4245,7 +4339,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="39"/>
@@ -4268,7 +4362,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="39"/>
@@ -4291,7 +4385,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="39"/>
@@ -4314,7 +4408,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="39"/>
@@ -4337,7 +4431,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="39"/>
@@ -4360,7 +4454,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="39"/>
@@ -4383,7 +4477,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="39"/>
@@ -4406,7 +4500,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="39"/>
@@ -4429,7 +4523,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="39"/>
@@ -4452,7 +4546,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="39"/>
@@ -4475,7 +4569,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="39"/>
@@ -4498,7 +4592,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="39"/>
@@ -4521,7 +4615,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="39"/>
@@ -4544,7 +4638,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="39"/>
@@ -4567,7 +4661,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="39"/>
@@ -4590,7 +4684,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="39"/>
@@ -4613,7 +4707,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="39"/>
@@ -4636,7 +4730,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="39"/>
@@ -4659,7 +4753,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="39"/>
@@ -4682,7 +4776,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="39"/>
@@ -4705,7 +4799,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="39"/>
@@ -4728,7 +4822,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="39"/>
@@ -4751,7 +4845,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="39"/>
@@ -4774,7 +4868,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="39"/>
@@ -4797,7 +4891,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="39"/>
@@ -4820,7 +4914,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="39"/>
@@ -4843,7 +4937,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="39"/>
@@ -4866,7 +4960,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="39"/>
@@ -4889,7 +4983,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="39"/>
@@ -4912,7 +5006,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="39"/>
@@ -4935,7 +5029,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="39"/>
@@ -4958,7 +5052,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="39"/>
@@ -4981,7 +5075,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="39"/>
@@ -5004,7 +5098,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="39"/>
@@ -5027,7 +5121,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="39"/>
@@ -5050,7 +5144,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="39"/>
@@ -5073,7 +5167,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="39"/>
@@ -5096,7 +5190,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="39"/>
@@ -5119,7 +5213,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="39"/>
@@ -5142,7 +5236,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="39"/>
@@ -5165,7 +5259,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="39"/>
@@ -5188,7 +5282,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="39"/>
@@ -5211,7 +5305,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="39"/>
@@ -5234,7 +5328,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="39"/>
@@ -5257,7 +5351,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="39"/>
@@ -5280,7 +5374,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="39"/>
@@ -5303,7 +5397,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" s="30"/>
       <c r="D73" s="39"/>
@@ -5326,7 +5420,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="39"/>
@@ -5349,7 +5443,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="39"/>
@@ -5372,7 +5466,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="39"/>
@@ -5395,7 +5489,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C77" s="30"/>
       <c r="D77" s="39"/>
@@ -5418,7 +5512,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="30"/>
       <c r="D78" s="39"/>
@@ -5441,7 +5535,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="30"/>
       <c r="D79" s="39"/>
@@ -5464,7 +5558,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80" s="30"/>
       <c r="D80" s="39"/>
@@ -5487,7 +5581,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="30"/>
       <c r="D81" s="39"/>
@@ -5510,7 +5604,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="39"/>
@@ -5533,7 +5627,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="39"/>
@@ -5556,7 +5650,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="39"/>
@@ -5579,7 +5673,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="39"/>
@@ -5602,7 +5696,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="39"/>
@@ -5625,7 +5719,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="39"/>
@@ -5648,7 +5742,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88" s="30"/>
       <c r="D88" s="39"/>
@@ -5671,7 +5765,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="39"/>
@@ -5694,7 +5788,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" s="30"/>
       <c r="D90" s="39"/>
@@ -5717,7 +5811,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C91" s="30"/>
       <c r="D91" s="39"/>
@@ -5740,7 +5834,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" s="30"/>
       <c r="D92" s="39"/>
@@ -5763,7 +5857,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="30"/>
       <c r="D93" s="39"/>
@@ -5786,7 +5880,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" s="30"/>
       <c r="D94" s="39"/>
@@ -5809,7 +5903,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="39"/>
@@ -5832,7 +5926,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C96" s="30"/>
       <c r="D96" s="39"/>
@@ -5855,7 +5949,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="30"/>
       <c r="D97" s="39"/>
@@ -5878,7 +5972,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="30"/>
       <c r="D98" s="39"/>
@@ -6099,7 +6193,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" xr:uid="{8C11AC83-0FD6-4845-BB3D-7AD768F43A65}">
           <x14:formula1>
-            <xm:f>reference!$E$11:$E$13</xm:f>
+            <xm:f>reference!$E$7:$E$9</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E98</xm:sqref>
         </x14:dataValidation>
@@ -6114,57 +6208,57 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="46.625" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="6.125" customWidth="1"/>
-    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.875" customWidth="1"/>
+    <col min="6" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="6.125" customWidth="1"/>
+    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75">
+    <row r="1" spans="1:15" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickBot="1">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="E2" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="K2" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -6174,136 +6268,347 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="37">
-        <v>30</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="E3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="38">
+        <f>IF(swga_enzyme=reference!$E$3, 10,12.8)</f>
+        <v>12.8</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="K4" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="H5" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="K5" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="38">
-        <v>10</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="37">
-        <v>50</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75">
-      <c r="E5" s="4"/>
-      <c r="G5" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1">
+    <row r="6" spans="1:15" ht="16.5" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="E6" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="36"/>
+        <v>231</v>
+      </c>
       <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="36"/>
+        <v>233</v>
+      </c>
       <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A10" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="H11" s="34" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="G9" s="34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A10" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" s="34" t="s">
+    <row r="12" spans="1:15">
+      <c r="E12">
+        <f>IF(swga_enzyme=reference!$E$3,reference!E22,reference!E32)</f>
+        <v>45</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!F22,reference!F32)</f>
+        <v>Prepare</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="E13" t="s">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13">
+        <f>IF(swga_enzyme=reference!$E$3,reference!E23,reference!E33)</f>
+        <v>45</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!F23,reference!F33)</f>
+        <v>60 min</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14">
+        <f>IF(swga_enzyme=reference!$E$3,reference!E24,reference!E34)</f>
+        <v>65</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!F24,reference!F34)</f>
+        <v>10 min</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15">
+        <f>IF(swga_enzyme=reference!$E$3,reference!E25,reference!E35)</f>
+        <v>8</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!F25,reference!F35)</f>
+        <v>∞</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!E26,reference!E36)</f>
+        <v>-</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!F26,reference!F36)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!E27,reference!E37)</f>
+        <v>-</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!F27,reference!F37)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!E28,reference!E38)</f>
+        <v>-</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!F28,reference!F38)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!E29,reference!E39)</f>
+        <v>-</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(swga_enzyme=reference!$E$3,reference!F29,reference!F39)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="16.5" thickBot="1">
+      <c r="E21" s="24" t="s">
         <v>240</v>
+      </c>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" ht="16.5" thickBot="1">
+      <c r="E31" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" t="s">
+        <v>242</v>
+      </c>
+      <c r="F38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6320,7 +6625,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
@@ -6337,12 +6642,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="46.5">
       <c r="A1" s="52" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="48" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6350,93 +6655,93 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="46" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B11" s="48"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="47" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="48" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -6444,17 +6749,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="47" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6483,37 +6788,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" t="s">
-        <v>174</v>
-      </c>
       <c r="G1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" t="s">
         <v>180</v>
       </c>
-      <c r="H1" t="s">
-        <v>182</v>
-      </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -6535,7 +6840,7 @@
       </c>
       <c r="E2">
         <f>IF(LEN(exp_version)=0,"",exp_version)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="str">
         <f>IF(LEN(exp_rxns)=0,"",exp_rxns)</f>
@@ -6553,9 +6858,9 @@
         <f>swga_enzyme</f>
         <v>0</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2">
         <f>IF(LEN(swga_rxnvol)=0,"",swga_rxnvol)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="K2">
         <f>IF(LEN(swga_targetmass)=0,"",swga_targetmass)</f>
@@ -6595,25 +6900,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7">

--- a/templates/NOMADS_sWGA_Worksheet.xlsx
+++ b/templates/NOMADS_sWGA_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20E418B-6916-450E-A5A8-530966EFFFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5571C6C-A68F-4E6A-890D-C7D43F42C2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="23280" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -1895,6 +1895,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1911,6 +1917,25 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1927,6 +1952,15 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1963,48 +1997,14 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2870,199 +2870,199 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:G33"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="8" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="100" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="K2" s="94" t="s">
+      <c r="H2" s="111"/>
+      <c r="K2" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="94"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
       <c r="G3" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="92"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="93"/>
+      <c r="L4" s="95"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="107" t="str">
-        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!H3:I7,2,FALSE),C4))</f>
-        <v/>
-      </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="118" t="str">
+        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!I3:J8,2,FALSE),C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="109"/>
+      <c r="L5" s="120"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="110" t="str">
+      <c r="B6" s="115"/>
+      <c r="C6" s="101" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="23"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
       <c r="G7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
       <c r="G8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="120" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="98" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="123" t="str">
+      <c r="B10" s="89"/>
+      <c r="C10" s="121" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
       <c r="G11" t="s">
         <v>143</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="20" t="s">
         <v>148</v>
       </c>
@@ -3072,13 +3072,13 @@
       <c r="B13" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="114">
+      <c r="C13" s="109">
         <f>IF(swga_enzyme=reference!$E$3,50,20)</f>
         <v>20</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:13">
@@ -3086,28 +3086,28 @@
       <c r="B14" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="29"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7"/>
@@ -3145,182 +3145,182 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A19" s="117" t="s">
+    <row r="19" spans="1:13" ht="16.2" thickBot="1">
+      <c r="A19" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118" t="str">
+      <c r="E19" s="123"/>
+      <c r="F19" s="123" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="J19" s="96" t="s">
+      <c r="G19" s="123"/>
+      <c r="J19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="96"/>
+      <c r="K19" s="104"/>
       <c r="L19" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="98">
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="106">
         <f>swga_rxnvol/10</f>
         <v>2</v>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="115">
+      <c r="E20" s="106"/>
+      <c r="F20" s="96">
         <f t="shared" ref="F20:F23" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D20*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="J20" s="95">
+      <c r="G20" s="96"/>
+      <c r="J20" s="103">
         <f>reference!E12</f>
         <v>45</v>
       </c>
-      <c r="K20" s="95"/>
+      <c r="K20" s="103"/>
       <c r="L20" s="10" t="str">
         <f>reference!F12</f>
         <v>Prepare</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="111" t="str">
+      <c r="A21" s="107" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"100nM Primer Mix","500uM Primer Mix")</f>
         <v>500uM Primer Mix</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="98">
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="106">
         <f>IF(swga_enzyme=reference!$E$3,0.25,2)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="115">
+      <c r="E21" s="106"/>
+      <c r="F21" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="115"/>
-      <c r="J21" s="95">
+      <c r="G21" s="96"/>
+      <c r="J21" s="103">
         <f>reference!E13</f>
         <v>45</v>
       </c>
-      <c r="K21" s="95"/>
+      <c r="K21" s="103"/>
       <c r="L21" s="10" t="str">
         <f>reference!F13</f>
         <v>60 min</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="111" t="str">
+      <c r="A22" s="107" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"BSA (20mg/mL)","DTT")</f>
         <v>DTT</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="98">
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="106">
         <f>IF(swga_enzyme=reference!$E$3,1.25,0.2)</f>
         <v>0.2</v>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="115">
+      <c r="E22" s="106"/>
+      <c r="F22" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="115"/>
-      <c r="J22" s="95">
+      <c r="G22" s="96"/>
+      <c r="J22" s="103">
         <f>reference!E14</f>
         <v>65</v>
       </c>
-      <c r="K22" s="95"/>
+      <c r="K22" s="103"/>
       <c r="L22" s="10" t="str">
         <f>reference!F14</f>
         <v>10 min</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="98">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="106">
         <f>IF(swga_enzyme=reference!$E$3,5,2)</f>
         <v>2</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="115">
+      <c r="E23" s="106"/>
+      <c r="F23" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="115"/>
-      <c r="J23" s="95">
+      <c r="G23" s="96"/>
+      <c r="J23" s="103">
         <f>reference!E15</f>
         <v>8</v>
       </c>
-      <c r="K23" s="95"/>
+      <c r="K23" s="103"/>
       <c r="L23" s="10" t="str">
         <f>reference!F15</f>
         <v>∞</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="112" t="str">
+      <c r="A24" s="108" t="str">
         <f>_xlfn.CONCAT(IF(C11="","Select",C11)," polymerase")</f>
         <v>Select polymerase</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="98">
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="106">
         <v>1</v>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="115">
+      <c r="E24" s="106"/>
+      <c r="F24" s="96">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="115"/>
-      <c r="J24" s="95" t="str">
+      <c r="G24" s="96"/>
+      <c r="J24" s="103" t="str">
         <f>reference!E16</f>
         <v>-</v>
       </c>
-      <c r="K24" s="95"/>
+      <c r="K24" s="103"/>
       <c r="L24" s="10" t="str">
         <f>reference!F16</f>
         <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="98">
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="106">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D20:E24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="115">
+      <c r="E25" s="106"/>
+      <c r="F25" s="96">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D25*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="J25" s="95" t="str">
+      <c r="G25" s="96"/>
+      <c r="J25" s="103" t="str">
         <f>reference!E17</f>
         <v>-</v>
       </c>
-      <c r="K25" s="95"/>
+      <c r="K25" s="103"/>
       <c r="L25" s="10" t="str">
         <f>reference!F17</f>
         <v>-</v>
@@ -3331,11 +3331,11 @@
         <f>CONCATENATE("Add ",SUM(D20:D25)," µl of MM to each well")</f>
         <v>Add 7.2 µl of MM to each well</v>
       </c>
-      <c r="J26" s="95" t="str">
+      <c r="J26" s="103" t="str">
         <f>reference!E18</f>
         <v>-</v>
       </c>
-      <c r="K26" s="95"/>
+      <c r="K26" s="103"/>
       <c r="L26" s="10" t="str">
         <f>reference!F18</f>
         <v>-</v>
@@ -3346,11 +3346,11 @@
       <c r="C27" s="9"/>
       <c r="D27" s="7"/>
       <c r="G27" s="10"/>
-      <c r="J27" s="95" t="str">
+      <c r="J27" s="103" t="str">
         <f>reference!E19</f>
         <v>-</v>
       </c>
-      <c r="K27" s="95"/>
+      <c r="K27" s="103"/>
       <c r="L27" s="10" t="str">
         <f>reference!F19</f>
         <v>-</v>
@@ -3366,11 +3366,11 @@
       <c r="D28" s="7"/>
       <c r="F28" s="13"/>
       <c r="G28" s="10"/>
-      <c r="K28" s="90" t="s">
+      <c r="K28" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
@@ -3383,25 +3383,25 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1">
-      <c r="A30" s="119" t="str">
+      <c r="A30" s="97" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"  4. Quantify 1 µl (199 µl WS 1X HS DNA). Dilute in water if required","  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C")</f>
         <v xml:space="preserve">  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="91" t="str">
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="93" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"(Enter in sWGA Tab)","")</f>
         <v/>
       </c>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="14" t="str">
@@ -3413,12 +3413,12 @@
       <c r="D31" s="7"/>
       <c r="F31" s="13"/>
       <c r="G31" s="10"/>
-      <c r="K31" s="91" t="str">
+      <c r="K31" s="93" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"","(Enter in sWGA Tab)")</f>
         <v>(Enter in sWGA Tab)</v>
       </c>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="14"/>
@@ -3441,10 +3441,10 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="89" t="s">
+      <c r="F33" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="89"/>
+      <c r="G33" s="91"/>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:14">
@@ -3935,26 +3935,11 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="65">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A3:B3"/>
@@ -3967,7 +3952,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="K5:L6"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C6:F6"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J26:K26"/>
@@ -3983,10 +3967,7 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="F25:G25"/>
@@ -3999,7 +3980,26 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C14">
@@ -4041,18 +4041,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECC56CCB-ED86-47E8-A451-039865410494}">
-          <x14:formula1>
-            <xm:f>reference!$K$3:$K$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:F7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
-          <x14:formula1>
-            <xm:f>reference!$H$3:$H$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49BACFA1-87AC-4545-9963-95B02395023D}">
           <x14:formula1>
             <xm:f>reference!$E$3:$E$4</xm:f>
@@ -4064,6 +4052,18 @@
             <xm:f>reference!$E$42:$E$43</xm:f>
           </x14:formula1>
           <xm:sqref>F33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
+          <x14:formula1>
+            <xm:f>reference!$I$3:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECC56CCB-ED86-47E8-A451-039865410494}">
+          <x14:formula1>
+            <xm:f>reference!$L$3:$L$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4083,19 +4083,19 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="6.625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="6" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" customWidth="1"/>
+    <col min="4" max="6" width="11.69921875" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="13.69921875" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7375,25 +7375,25 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="46.625" customWidth="1"/>
+    <col min="1" max="1" width="46.59765625" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="6.125" customWidth="1"/>
-    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.875" customWidth="1"/>
+    <col min="6" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="6.09765625" customWidth="1"/>
+    <col min="13" max="13" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -7402,11 +7402,11 @@
       <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+    <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>21</v>
       </c>
@@ -7415,17 +7415,17 @@
       <c r="E2" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="L2" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -7438,17 +7438,17 @@
       <c r="E3" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>198</v>
       </c>
@@ -7463,28 +7463,28 @@
       <c r="E4" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="I4" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="J4" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="L4" s="36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="H5" s="36" t="s">
+    <row r="5" spans="1:16">
+      <c r="I5" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="J5" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="L5" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.2" thickBot="1">
       <c r="A6" s="24" t="s">
         <v>167</v>
       </c>
@@ -7493,10 +7493,11 @@
       <c r="E6" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="J6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>168</v>
       </c>
@@ -7506,10 +7507,11 @@
       <c r="E7" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="36"/>
       <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="J7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>169</v>
       </c>
@@ -7519,27 +7521,27 @@
       <c r="E8" t="s">
         <v>234</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="E9" t="s">
         <v>235</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" thickBot="1">
+      <c r="I9" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.2" thickBot="1">
       <c r="A10" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" thickBot="1">
+      <c r="I10" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.2" thickBot="1">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -7547,11 +7549,11 @@
         <v>241</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="H11" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="I11" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="E12">
         <f>IF(swga_enzyme=reference!$E$3,reference!E22,reference!E32)</f>
         <v>45</v>
@@ -7560,15 +7562,15 @@
         <f>IF(swga_enzyme=reference!$E$3,reference!F22,reference!F32)</f>
         <v>Prepare</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="L12" s="3"/>
+      <c r="I12" s="34" t="s">
+        <v>194</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="E13">
         <f>IF(swga_enzyme=reference!$E$3,reference!E23,reference!E33)</f>
         <v>45</v>
@@ -7577,8 +7579,11 @@
         <f>IF(swga_enzyme=reference!$E$3,reference!F23,reference!F33)</f>
         <v>60 min</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="I13" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="E14">
         <f>IF(swga_enzyme=reference!$E$3,reference!E24,reference!E34)</f>
         <v>65</v>
@@ -7588,7 +7593,7 @@
         <v>10 min</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="E15">
         <f>IF(swga_enzyme=reference!$E$3,reference!E25,reference!E35)</f>
         <v>8</v>
@@ -7598,7 +7603,7 @@
         <v>∞</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="E16" t="str">
         <f>IF(swga_enzyme=reference!$E$3,reference!E26,reference!E36)</f>
         <v>-</v>
@@ -7638,7 +7643,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="5:6" ht="16.5" thickBot="1">
+    <row r="21" spans="5:6" ht="16.2" thickBot="1">
       <c r="E21" s="24" t="s">
         <v>240</v>
       </c>
@@ -7708,7 +7713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="5:6" ht="16.5" thickBot="1">
+    <row r="31" spans="5:6" ht="16.2" thickBot="1">
       <c r="E31" s="24" t="s">
         <v>239</v>
       </c>
@@ -7778,7 +7783,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="5:6" ht="16.5" thickBot="1">
+    <row r="41" spans="5:6" ht="16.2" thickBot="1">
       <c r="E41" s="24" t="s">
         <v>243</v>
       </c>
@@ -7794,7 +7799,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7807,22 +7811,22 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.2"/>
   <cols>
-    <col min="1" max="1" width="40.625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="40.59765625" style="47" customWidth="1"/>
     <col min="2" max="2" width="20" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="47" customWidth="1"/>
-    <col min="4" max="13" width="16.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" style="47" customWidth="1"/>
+    <col min="4" max="13" width="16.09765625" style="47" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="16.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="16.09765625" style="47" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="47" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5">
+    <row r="1" spans="1:2" ht="46.2">
       <c r="A1" s="52" t="s">
         <v>200</v>
       </c>
@@ -7961,10 +7965,10 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="1" max="9" width="16.09765625" customWidth="1"/>
+    <col min="10" max="10" width="18.8984375" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8071,13 +8075,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="2" max="4" width="13.69921875" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/templates/NOMADS_sWGA_Worksheet.xlsx
+++ b/templates/NOMADS_sWGA_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5571C6C-A68F-4E6A-890D-C7D43F42C2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68EA523-D9EA-4E84-8965-89A2E80257DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="23280" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="29100" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="swga_targetmass">reference!$B$3</definedName>
     <definedName name="swga_template_maxvol">reference!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="248">
   <si>
     <t>ng</t>
   </si>
@@ -1044,6 +1044,9 @@
   </si>
   <si>
     <t>Platemap ID</t>
+  </si>
+  <si>
+    <t>Helloo</t>
   </si>
 </sst>
 </file>
@@ -1895,11 +1898,103 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1908,103 +2003,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2870,199 +2873,199 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="8" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="111" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="111"/>
+      <c r="H2" s="92"/>
       <c r="K2" s="102" t="s">
         <v>136</v>
       </c>
       <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
       <c r="G3" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="94"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="95"/>
+      <c r="L4" s="112"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="118" t="str">
+      <c r="B5" s="96"/>
+      <c r="C5" s="99" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!I3:J8,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
       <c r="G5" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="120"/>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="101" t="str">
+      <c r="B6" s="96"/>
+      <c r="C6" s="119" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="23"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
       <c r="G7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
       <c r="G8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="98" t="str">
+      <c r="B9" s="118"/>
+      <c r="C9" s="115" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="121" t="str">
+      <c r="B10" s="118"/>
+      <c r="C10" s="122" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
       <c r="G11" t="s">
         <v>143</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="20" t="s">
         <v>148</v>
       </c>
@@ -3086,7 +3089,9 @@
       <c r="B14" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="105"/>
+      <c r="C14" s="105" t="s">
+        <v>247</v>
+      </c>
       <c r="D14" s="105"/>
       <c r="E14" s="105"/>
       <c r="F14" s="105"/>
@@ -3145,21 +3150,21 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A19" s="122" t="s">
+    <row r="19" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A19" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123" t="s">
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123" t="str">
+      <c r="E19" s="89"/>
+      <c r="F19" s="89" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G19" s="123"/>
+      <c r="G19" s="89"/>
       <c r="J19" s="104" t="s">
         <v>9</v>
       </c>
@@ -3169,21 +3174,21 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="106">
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="90">
         <f>swga_rxnvol/10</f>
         <v>2</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="96">
+      <c r="E20" s="90"/>
+      <c r="F20" s="110">
         <f t="shared" ref="F20:F23" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D20*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="96"/>
+      <c r="G20" s="110"/>
       <c r="J20" s="103">
         <f>reference!E12</f>
         <v>45</v>
@@ -3195,22 +3200,22 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="107" t="str">
+      <c r="A21" s="106" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"100nM Primer Mix","500uM Primer Mix")</f>
         <v>500uM Primer Mix</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="106">
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="90">
         <f>IF(swga_enzyme=reference!$E$3,0.25,2)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="96">
+      <c r="E21" s="90"/>
+      <c r="F21" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="96"/>
+      <c r="G21" s="110"/>
       <c r="J21" s="103">
         <f>reference!E13</f>
         <v>45</v>
@@ -3222,22 +3227,22 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="107" t="str">
+      <c r="A22" s="106" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"BSA (20mg/mL)","DTT")</f>
         <v>DTT</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="106">
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="90">
         <f>IF(swga_enzyme=reference!$E$3,1.25,0.2)</f>
         <v>0.2</v>
       </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="96">
+      <c r="E22" s="90"/>
+      <c r="F22" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="96"/>
+      <c r="G22" s="110"/>
       <c r="J22" s="103">
         <f>reference!E14</f>
         <v>65</v>
@@ -3249,21 +3254,21 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="106">
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="90">
         <f>IF(swga_enzyme=reference!$E$3,5,2)</f>
         <v>2</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="96">
+      <c r="E23" s="90"/>
+      <c r="F23" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="96"/>
+      <c r="G23" s="110"/>
       <c r="J23" s="103">
         <f>reference!E15</f>
         <v>8</v>
@@ -3275,21 +3280,21 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="108" t="str">
+      <c r="A24" s="107" t="str">
         <f>_xlfn.CONCAT(IF(C11="","Select",C11)," polymerase")</f>
         <v>Select polymerase</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="106">
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="90">
         <v>1</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="96">
+      <c r="E24" s="90"/>
+      <c r="F24" s="110">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="96"/>
+      <c r="G24" s="110"/>
       <c r="J24" s="103" t="str">
         <f>reference!E16</f>
         <v>-</v>
@@ -3301,21 +3306,21 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="106">
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="90">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D20:E24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="96">
+      <c r="E25" s="90"/>
+      <c r="F25" s="110">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D25*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="96"/>
+      <c r="G25" s="110"/>
       <c r="J25" s="103" t="str">
         <f>reference!E17</f>
         <v>-</v>
@@ -3366,11 +3371,11 @@
       <c r="D28" s="7"/>
       <c r="F28" s="13"/>
       <c r="G28" s="10"/>
-      <c r="K28" s="92" t="s">
+      <c r="K28" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
@@ -3383,25 +3388,25 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1">
-      <c r="A30" s="97" t="str">
+      <c r="A30" s="114" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"  4. Quantify 1 µl (199 µl WS 1X HS DNA). Dilute in water if required","  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C")</f>
         <v xml:space="preserve">  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="93" t="str">
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="113" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"(Enter in sWGA Tab)","")</f>
         <v/>
       </c>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="14" t="str">
@@ -3413,12 +3418,12 @@
       <c r="D31" s="7"/>
       <c r="F31" s="13"/>
       <c r="G31" s="10"/>
-      <c r="K31" s="93" t="str">
+      <c r="K31" s="113" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"","(Enter in sWGA Tab)")</f>
         <v>(Enter in sWGA Tab)</v>
       </c>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="14"/>
@@ -3441,10 +3446,10 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="91" t="s">
+      <c r="F33" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="91"/>
+      <c r="G33" s="120"/>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:14">
@@ -3935,57 +3940,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="65">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C14:K15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="K31:M31"/>
@@ -4000,6 +3954,57 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C14:K15"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C14">
@@ -4080,22 +4085,22 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" customWidth="1"/>
-    <col min="4" max="6" width="11.69921875" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="6.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" customWidth="1"/>
-    <col min="10" max="10" width="14.69921875" customWidth="1"/>
-    <col min="11" max="11" width="14.09765625" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7346,7 +7351,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M98" xr:uid="{6B4D1BF1-FBF5-42B6-9889-49E5BF117D18}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="D3:F98" xr:uid="{51285661-A40B-4DE6-841D-9FB51A517C0E}">
+    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="D3:E98" xr:uid="{51285661-A40B-4DE6-841D-9FB51A517C0E}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7381,19 +7386,19 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="46.59765625" customWidth="1"/>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="6.09765625" customWidth="1"/>
-    <col min="13" max="13" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:16" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -7406,7 +7411,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.2" thickBot="1">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>21</v>
       </c>
@@ -7484,7 +7489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.2" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="24" t="s">
         <v>167</v>
       </c>
@@ -7533,7 +7538,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.2" thickBot="1">
+    <row r="10" spans="1:16" ht="16.5" thickBot="1">
       <c r="A10" s="24" t="s">
         <v>197</v>
       </c>
@@ -7541,7 +7546,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.2" thickBot="1">
+    <row r="11" spans="1:16" ht="16.5" thickBot="1">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -7643,7 +7648,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="5:6" ht="16.2" thickBot="1">
+    <row r="21" spans="5:6" ht="16.5" thickBot="1">
       <c r="E21" s="24" t="s">
         <v>240</v>
       </c>
@@ -7713,7 +7718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="5:6" ht="16.2" thickBot="1">
+    <row r="31" spans="5:6" ht="16.5" thickBot="1">
       <c r="E31" s="24" t="s">
         <v>239</v>
       </c>
@@ -7783,7 +7788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="5:6" ht="16.2" thickBot="1">
+    <row r="41" spans="5:6" ht="16.5" thickBot="1">
       <c r="E41" s="24" t="s">
         <v>243</v>
       </c>
@@ -7811,22 +7816,22 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5"/>
   <cols>
-    <col min="1" max="1" width="40.59765625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="40.625" style="47" customWidth="1"/>
     <col min="2" max="2" width="20" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" style="47" customWidth="1"/>
-    <col min="4" max="13" width="16.09765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="47" customWidth="1"/>
+    <col min="4" max="13" width="16.125" style="47" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="16.09765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="16.125" style="47" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="47" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.2">
+    <row r="1" spans="1:2" ht="46.5">
       <c r="A1" s="52" t="s">
         <v>200</v>
       </c>
@@ -7965,10 +7970,10 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="9" width="16.09765625" customWidth="1"/>
-    <col min="10" max="10" width="18.8984375" customWidth="1"/>
+    <col min="1" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8034,7 +8039,7 @@
       </c>
       <c r="G2" t="str">
         <f>IF(LEN(exp_notes)=0,"",exp_notes)</f>
-        <v/>
+        <v>Helloo</v>
       </c>
       <c r="H2" t="str">
         <f>IF(LEN(exp_summary)=0,"",exp_summary)</f>
@@ -8075,13 +8080,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="2" max="4" width="13.69921875" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="28.19921875" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/templates/NOMADS_sWGA_Worksheet.xlsx
+++ b/templates/NOMADS_sWGA_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68EA523-D9EA-4E84-8965-89A2E80257DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE26A90F-B85A-40D8-8361-824E808D2C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="29100" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="30120" yWindow="3195" windowWidth="23790" windowHeight="21330" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="247">
   <si>
     <t>ng</t>
   </si>
@@ -1044,9 +1044,6 @@
   </si>
   <si>
     <t>Platemap ID</t>
-  </si>
-  <si>
-    <t>Helloo</t>
   </si>
 </sst>
 </file>
@@ -1898,23 +1895,80 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1943,71 +1997,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2872,8 +2869,8 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2882,176 +2879,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="93" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="94"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="92" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="K2" s="102" t="s">
+      <c r="H2" s="112"/>
+      <c r="K2" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="102"/>
+      <c r="L2" s="120"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="94"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
       <c r="G3" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="111"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="93" t="s">
         <v>144</v>
       </c>
       <c r="B4" s="94"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="112" t="s">
+      <c r="K4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="112"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="99" t="str">
+      <c r="B5" s="114"/>
+      <c r="C5" s="117" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!I3:J8,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
       <c r="G5" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="101"/>
+      <c r="L5" s="119"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="119" t="str">
+      <c r="B6" s="114"/>
+      <c r="C6" s="123" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="23"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
       <c r="G7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
       <c r="G8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="115" t="str">
+      <c r="B9" s="104"/>
+      <c r="C9" s="102" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122" t="str">
+      <c r="B10" s="104"/>
+      <c r="C10" s="92" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="93" t="s">
         <v>225</v>
       </c>
       <c r="B11" s="94"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
       <c r="G11" t="s">
         <v>143</v>
       </c>
@@ -3062,10 +3059,10 @@
         <v>135</v>
       </c>
       <c r="B12" s="94"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="20" t="s">
         <v>148</v>
       </c>
@@ -3075,13 +3072,13 @@
       <c r="B13" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="109">
+      <c r="C13" s="107">
         <f>IF(swga_enzyme=reference!$E$3,50,20)</f>
         <v>20</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:13">
@@ -3089,30 +3086,28 @@
       <c r="B14" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="105" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="29"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7"/>
@@ -3151,181 +3146,181 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="89" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89" t="str">
+      <c r="E19" s="100"/>
+      <c r="F19" s="100" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="J19" s="104" t="s">
+      <c r="G19" s="100"/>
+      <c r="J19" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="104"/>
+      <c r="K19" s="108"/>
       <c r="L19" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="90">
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="96">
         <f>swga_rxnvol/10</f>
         <v>2</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="110">
+      <c r="E20" s="96"/>
+      <c r="F20" s="105">
         <f t="shared" ref="F20:F23" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D20*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="110"/>
-      <c r="J20" s="103">
+      <c r="G20" s="105"/>
+      <c r="J20" s="109">
         <f>reference!E12</f>
         <v>45</v>
       </c>
-      <c r="K20" s="103"/>
+      <c r="K20" s="109"/>
       <c r="L20" s="10" t="str">
         <f>reference!F12</f>
         <v>Prepare</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="106" t="str">
+      <c r="A21" s="98" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"100nM Primer Mix","500uM Primer Mix")</f>
         <v>500uM Primer Mix</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="90">
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="96">
         <f>IF(swga_enzyme=reference!$E$3,0.25,2)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="110">
+      <c r="E21" s="96"/>
+      <c r="F21" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="110"/>
-      <c r="J21" s="103">
+      <c r="G21" s="105"/>
+      <c r="J21" s="109">
         <f>reference!E13</f>
         <v>45</v>
       </c>
-      <c r="K21" s="103"/>
+      <c r="K21" s="109"/>
       <c r="L21" s="10" t="str">
         <f>reference!F13</f>
         <v>60 min</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="106" t="str">
+      <c r="A22" s="98" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"BSA (20mg/mL)","DTT")</f>
         <v>DTT</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="90">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="96">
         <f>IF(swga_enzyme=reference!$E$3,1.25,0.2)</f>
         <v>0.2</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="110">
+      <c r="E22" s="96"/>
+      <c r="F22" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="110"/>
-      <c r="J22" s="103">
+      <c r="G22" s="105"/>
+      <c r="J22" s="109">
         <f>reference!E14</f>
         <v>65</v>
       </c>
-      <c r="K22" s="103"/>
+      <c r="K22" s="109"/>
       <c r="L22" s="10" t="str">
         <f>reference!F14</f>
         <v>10 min</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="90">
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="96">
         <f>IF(swga_enzyme=reference!$E$3,5,2)</f>
         <v>2</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="110">
+      <c r="E23" s="96"/>
+      <c r="F23" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="110"/>
-      <c r="J23" s="103">
+      <c r="G23" s="105"/>
+      <c r="J23" s="109">
         <f>reference!E15</f>
         <v>8</v>
       </c>
-      <c r="K23" s="103"/>
+      <c r="K23" s="109"/>
       <c r="L23" s="10" t="str">
         <f>reference!F15</f>
         <v>∞</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="107" t="str">
+      <c r="A24" s="106" t="str">
         <f>_xlfn.CONCAT(IF(C11="","Select",C11)," polymerase")</f>
         <v>Select polymerase</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="90">
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="96">
         <v>1</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="110">
+      <c r="E24" s="96"/>
+      <c r="F24" s="105">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="110"/>
-      <c r="J24" s="103" t="str">
+      <c r="G24" s="105"/>
+      <c r="J24" s="109" t="str">
         <f>reference!E16</f>
         <v>-</v>
       </c>
-      <c r="K24" s="103"/>
+      <c r="K24" s="109"/>
       <c r="L24" s="10" t="str">
         <f>reference!F16</f>
         <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="90">
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="96">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D20:E24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="110">
+      <c r="E25" s="96"/>
+      <c r="F25" s="105">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D25*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="110"/>
-      <c r="J25" s="103" t="str">
+      <c r="G25" s="105"/>
+      <c r="J25" s="109" t="str">
         <f>reference!E17</f>
         <v>-</v>
       </c>
-      <c r="K25" s="103"/>
+      <c r="K25" s="109"/>
       <c r="L25" s="10" t="str">
         <f>reference!F17</f>
         <v>-</v>
@@ -3336,11 +3331,11 @@
         <f>CONCATENATE("Add ",SUM(D20:D25)," µl of MM to each well")</f>
         <v>Add 7.2 µl of MM to each well</v>
       </c>
-      <c r="J26" s="103" t="str">
+      <c r="J26" s="109" t="str">
         <f>reference!E18</f>
         <v>-</v>
       </c>
-      <c r="K26" s="103"/>
+      <c r="K26" s="109"/>
       <c r="L26" s="10" t="str">
         <f>reference!F18</f>
         <v>-</v>
@@ -3351,11 +3346,11 @@
       <c r="C27" s="9"/>
       <c r="D27" s="7"/>
       <c r="G27" s="10"/>
-      <c r="J27" s="103" t="str">
+      <c r="J27" s="109" t="str">
         <f>reference!E19</f>
         <v>-</v>
       </c>
-      <c r="K27" s="103"/>
+      <c r="K27" s="109"/>
       <c r="L27" s="10" t="str">
         <f>reference!F19</f>
         <v>-</v>
@@ -3371,11 +3366,11 @@
       <c r="D28" s="7"/>
       <c r="F28" s="13"/>
       <c r="G28" s="10"/>
-      <c r="K28" s="121" t="s">
+      <c r="K28" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
@@ -3388,25 +3383,25 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1">
-      <c r="A30" s="114" t="str">
+      <c r="A30" s="101" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"  4. Quantify 1 µl (199 µl WS 1X HS DNA). Dilute in water if required","  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C")</f>
         <v xml:space="preserve">  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C</v>
       </c>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="113" t="str">
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="91" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"(Enter in sWGA Tab)","")</f>
         <v/>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="14" t="str">
@@ -3418,12 +3413,12 @@
       <c r="D31" s="7"/>
       <c r="F31" s="13"/>
       <c r="G31" s="10"/>
-      <c r="K31" s="113" t="str">
+      <c r="K31" s="91" t="str">
         <f>IF(swga_enzyme=reference!$E$3,"","(Enter in sWGA Tab)")</f>
         <v>(Enter in sWGA Tab)</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="14"/>
@@ -3446,10 +3441,10 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="120" t="s">
+      <c r="F33" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="120"/>
+      <c r="G33" s="89"/>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:14">
@@ -3940,6 +3935,55 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="65">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C14:K15"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="K31:M31"/>
@@ -3956,55 +4000,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C14:K15"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C14">
@@ -7815,7 +7810,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -8039,7 +8034,7 @@
       </c>
       <c r="G2" t="str">
         <f>IF(LEN(exp_notes)=0,"",exp_notes)</f>
-        <v>Helloo</v>
+        <v/>
       </c>
       <c r="H2" t="str">
         <f>IF(LEN(exp_summary)=0,"",exp_summary)</f>

--- a/templates/NOMADS_sWGA_Worksheet.xlsx
+++ b/templates/NOMADS_sWGA_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B1080D-6F36-441F-84BE-EB84BD39715B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3557548-B6CA-45A5-A7BE-06821607D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23172" activeTab="2" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17532" activeTab="1" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="229">
   <si>
     <t>ng</t>
   </si>
@@ -846,12 +846,6 @@
   </si>
   <si>
     <t>Copy these columns to the PCR template</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1683,6 +1677,114 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1696,103 +1798,11 @@
     <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1819,22 +1829,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1847,33 +1841,6 @@
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="1"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2110,6 +2077,33 @@
         </bottom>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="1"/>
     </dxf>
     <dxf>
       <font>
@@ -2371,37 +2365,37 @@
     <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="25"/>
     <tableColumn id="4" xr3:uid="{5587DAF9-72AA-46A4-AAFA-83520030B12F}" name="Sample Type" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="23">
       <calculatedColumnFormula>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="20">
+    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="19">
       <calculatedColumnFormula>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{736B7BD8-BF8D-47BE-8721-6207502377C8}" name="Table2" displayName="Table2" ref="I16:J26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{736B7BD8-BF8D-47BE-8721-6207502377C8}" name="Table2" displayName="Table2" ref="I16:J26" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16">
   <autoFilter ref="I16:J26" xr:uid="{736B7BD8-BF8D-47BE-8721-6207502377C8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{79224628-9936-4F26-8939-9F356DA22897}" name="User" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{9E13A328-1D21-445A-A3C8-FEEC88F75FCB}" name="Initials" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{79224628-9936-4F26-8939-9F356DA22897}" name="User" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9E13A328-1D21-445A-A3C8-FEEC88F75FCB}" name="Initials" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72AF3EEB-AE70-42E3-B795-B0DBD63BB741}" name="Table5" displayName="Table5" ref="L16:L26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{72AF3EEB-AE70-42E3-B795-B0DBD63BB741}" name="Table5" displayName="Table5" ref="L16:L26" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
   <autoFilter ref="L16:L26" xr:uid="{72AF3EEB-AE70-42E3-B795-B0DBD63BB741}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C86FE0A5-E4CA-44A1-8211-F65CA137B446}" name="Project" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{C86FE0A5-E4CA-44A1-8211-F65CA137B446}" name="Project" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2459,10 +2453,10 @@
     <tableColumn id="3" xr3:uid="{E11C4165-C164-4B88-9BF1-7FC2458E8999}" name="extraction_id">
       <calculatedColumnFormula>IF(LEN(sWGA!F4)=0,"",sWGA!F4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1FB0E1F2-B22B-4383-B21B-4C2C979A2F8D}" name="sample_type" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{1FB0E1F2-B22B-4383-B21B-4C2C979A2F8D}" name="sample_type" dataDxfId="8">
       <calculatedColumnFormula>IF(LEN(sWGA!G4)=0,"",sWGA!G4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="7">
       <calculatedColumnFormula>IF(LEN(sWGA!H4)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F5CC8E00-1DA6-4870-97ED-B9F5BA34367D}" name="swga_identifier">
@@ -2792,190 +2786,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="106" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="K2" s="114" t="s">
+      <c r="H2" s="88"/>
+      <c r="K2" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="114"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
       <c r="G3" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="115"/>
+      <c r="L3" s="99"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="116" t="s">
+      <c r="K4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="116"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="111" t="str">
+      <c r="B5" s="92"/>
+      <c r="C5" s="95" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,Reference!I17:J24,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="113" t="s">
+      <c r="K5" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="L5" s="113"/>
+      <c r="L5" s="97"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="117" t="str">
+      <c r="B6" s="92"/>
+      <c r="C6" s="101" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="23"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
       <c r="G7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
       <c r="G8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97" t="str">
+      <c r="B9" s="112"/>
+      <c r="C9" s="113" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="86" t="str">
+      <c r="B10" s="112"/>
+      <c r="C10" s="119" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary))</f>
         <v/>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
       <c r="G11" t="s">
         <v>143</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
       <c r="G12" s="20" t="s">
         <v>148</v>
       </c>
@@ -2985,13 +2979,13 @@
       <c r="B13" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="110">
         <f>IF(swga_enzyme=Reference!$E$17,50,20)</f>
         <v>20</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:13">
@@ -3059,181 +3053,181 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94" t="s">
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94" t="str">
+      <c r="E19" s="105"/>
+      <c r="F19" s="105" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="J19" s="102" t="s">
+      <c r="G19" s="105"/>
+      <c r="J19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="102"/>
+      <c r="K19" s="103"/>
       <c r="L19" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="90">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="106">
         <f>swga_rxnvol/10</f>
         <v>2</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="101">
+      <c r="E20" s="106"/>
+      <c r="F20" s="111">
         <f t="shared" ref="F20:F23" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D20*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="101"/>
-      <c r="J20" s="103">
+      <c r="G20" s="111"/>
+      <c r="J20" s="102">
         <f>Reference!E26</f>
         <v>45</v>
       </c>
-      <c r="K20" s="103"/>
+      <c r="K20" s="102"/>
       <c r="L20" s="10" t="str">
         <f>Reference!F26</f>
         <v>Prepare</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="92" t="str">
+      <c r="A21" s="107" t="str">
         <f>IF(swga_enzyme=Reference!$E$17,"100nM Primer Mix","500uM Primer Mix")</f>
         <v>500uM Primer Mix</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="90">
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="106">
         <f>IF(swga_enzyme=Reference!$E$17,0.25,2)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="101">
+      <c r="E21" s="106"/>
+      <c r="F21" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="101"/>
-      <c r="J21" s="103">
+      <c r="G21" s="111"/>
+      <c r="J21" s="102">
         <f>Reference!E27</f>
         <v>45</v>
       </c>
-      <c r="K21" s="103"/>
+      <c r="K21" s="102"/>
       <c r="L21" s="10" t="str">
         <f>Reference!F27</f>
         <v>60 min</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="92" t="str">
+      <c r="A22" s="107" t="str">
         <f>IF(swga_enzyme=Reference!$E$17,"BSA (20mg/mL)","DTT")</f>
         <v>DTT</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="90">
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="106">
         <f>IF(swga_enzyme=Reference!$E$17,1.25,0.2)</f>
         <v>0.2</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="101">
+      <c r="E22" s="106"/>
+      <c r="F22" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="101"/>
-      <c r="J22" s="103">
+      <c r="G22" s="111"/>
+      <c r="J22" s="102">
         <f>Reference!E28</f>
         <v>65</v>
       </c>
-      <c r="K22" s="103"/>
+      <c r="K22" s="102"/>
       <c r="L22" s="10" t="str">
         <f>Reference!F28</f>
         <v>10 min</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="90">
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="106">
         <f>IF(swga_enzyme=Reference!$E$17,5,2)</f>
         <v>2</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="101">
+      <c r="E23" s="106"/>
+      <c r="F23" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="101"/>
-      <c r="J23" s="103">
+      <c r="G23" s="111"/>
+      <c r="J23" s="102">
         <f>Reference!E29</f>
         <v>8</v>
       </c>
-      <c r="K23" s="103"/>
+      <c r="K23" s="102"/>
       <c r="L23" s="10" t="str">
         <f>Reference!F29</f>
         <v>∞</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="99" t="str">
+      <c r="A24" s="108" t="str">
         <f>_xlfn.CONCAT(IF(C11="","Select",C11)," polymerase")</f>
         <v>Select polymerase</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="90">
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="106">
         <v>1</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="101">
+      <c r="E24" s="106"/>
+      <c r="F24" s="111">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="J24" s="103" t="str">
+      <c r="G24" s="111"/>
+      <c r="J24" s="102" t="str">
         <f>Reference!E30</f>
         <v>-</v>
       </c>
-      <c r="K24" s="103"/>
+      <c r="K24" s="102"/>
       <c r="L24" s="10" t="str">
         <f>Reference!F30</f>
         <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="90">
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="106">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D20:E24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="101">
+      <c r="E25" s="106"/>
+      <c r="F25" s="111">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D25*exp_rxns*(1+$D$17)))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="101"/>
-      <c r="J25" s="103" t="str">
+      <c r="G25" s="111"/>
+      <c r="J25" s="102" t="str">
         <f>Reference!E31</f>
         <v>-</v>
       </c>
-      <c r="K25" s="103"/>
+      <c r="K25" s="102"/>
       <c r="L25" s="10" t="str">
         <f>Reference!F31</f>
         <v>-</v>
@@ -3244,11 +3238,11 @@
         <f>CONCATENATE("Add ",SUM(D20:D25)," µl of MM to each well")</f>
         <v>Add 7.2 µl of MM to each well</v>
       </c>
-      <c r="J26" s="103" t="str">
+      <c r="J26" s="102" t="str">
         <f>Reference!E32</f>
         <v>-</v>
       </c>
-      <c r="K26" s="103"/>
+      <c r="K26" s="102"/>
       <c r="L26" s="10" t="str">
         <f>Reference!F32</f>
         <v>-</v>
@@ -3259,11 +3253,11 @@
       <c r="C27" s="9"/>
       <c r="D27" s="7"/>
       <c r="G27" s="10"/>
-      <c r="J27" s="103" t="str">
+      <c r="J27" s="102" t="str">
         <f>Reference!E33</f>
         <v>-</v>
       </c>
-      <c r="K27" s="103"/>
+      <c r="K27" s="102"/>
       <c r="L27" s="10" t="str">
         <f>Reference!F33</f>
         <v>-</v>
@@ -3279,11 +3273,11 @@
       <c r="D28" s="7"/>
       <c r="F28" s="13"/>
       <c r="G28" s="10"/>
-      <c r="K28" s="84" t="s">
+      <c r="K28" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
@@ -3296,25 +3290,25 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1">
-      <c r="A30" s="95" t="str">
+      <c r="A30" s="121" t="str">
         <f>IF(swga_enzyme=Reference!$E$17,"  4. Quantify 1 µl (199 µl WS 1X HS DNA). Dilute in water if required","  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C")</f>
         <v xml:space="preserve">  4. Dilute sWGA product by adding 160 µl water or low TE-Buffer (mix well). Aliquot 90 µl into backup plate and store at 4°C</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="85" t="str">
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="118" t="str">
         <f>IF(swga_enzyme=Reference!$E$17,"(Enter in sWGA Tab)","")</f>
         <v/>
       </c>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="14" t="str">
@@ -3326,12 +3320,12 @@
       <c r="D31" s="7"/>
       <c r="F31" s="13"/>
       <c r="G31" s="10"/>
-      <c r="K31" s="85" t="str">
+      <c r="K31" s="118" t="str">
         <f>IF(swga_enzyme=Reference!$E$17,"","(Enter in sWGA Tab)")</f>
         <v>(Enter in sWGA Tab)</v>
       </c>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="14"/>
@@ -3354,10 +3348,10 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="83"/>
+      <c r="G33" s="116"/>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:14">
@@ -3848,6 +3842,55 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="65">
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C14:K15"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A3:B3"/>
@@ -3864,79 +3907,30 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C14:K15"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="A30:J30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C14">
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="6" priority="17">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17 F33">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>COUNTIF(D17,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L27">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$J20="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:M32">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>LEN($K30)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3992,8 +3986,8 @@
   </sheetPr>
   <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -4012,28 +4006,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="127" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="118" t="s">
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="A3" s="49" t="s">
@@ -4094,7 +4088,7 @@
       <c r="E4" s="30"/>
       <c r="F4" s="37"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="126" t="str">
+      <c r="H4" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4105,9 +4099,7 @@
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="M4" s="40" t="s">
-        <v>229</v>
-      </c>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="51">
@@ -4127,7 +4119,7 @@
       <c r="E5" s="30"/>
       <c r="F5" s="37"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="126" t="str">
+      <c r="H5" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4138,9 +4130,7 @@
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="M5" s="40" t="s">
-        <v>230</v>
-      </c>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="51">
@@ -4160,7 +4150,7 @@
       <c r="E6" s="30"/>
       <c r="F6" s="37"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="126" t="str">
+      <c r="H6" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4191,7 +4181,7 @@
       <c r="E7" s="30"/>
       <c r="F7" s="37"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="126" t="str">
+      <c r="H7" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4222,7 +4212,7 @@
       <c r="E8" s="30"/>
       <c r="F8" s="37"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="126" t="str">
+      <c r="H8" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4253,7 +4243,7 @@
       <c r="E9" s="30"/>
       <c r="F9" s="37"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="126" t="str">
+      <c r="H9" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4284,7 +4274,7 @@
       <c r="E10" s="30"/>
       <c r="F10" s="37"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="126" t="str">
+      <c r="H10" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4315,7 +4305,7 @@
       <c r="E11" s="73"/>
       <c r="F11" s="74"/>
       <c r="G11" s="73"/>
-      <c r="H11" s="127" t="str">
+      <c r="H11" s="84" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4346,7 +4336,7 @@
       <c r="E12" s="59"/>
       <c r="F12" s="60"/>
       <c r="G12" s="59"/>
-      <c r="H12" s="128" t="str">
+      <c r="H12" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4377,7 +4367,7 @@
       <c r="E13" s="30"/>
       <c r="F13" s="37"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="126" t="str">
+      <c r="H13" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4408,7 +4398,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="37"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="126" t="str">
+      <c r="H14" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4439,7 +4429,7 @@
       <c r="E15" s="30"/>
       <c r="F15" s="37"/>
       <c r="G15" s="30"/>
-      <c r="H15" s="126" t="str">
+      <c r="H15" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4470,7 +4460,7 @@
       <c r="E16" s="30"/>
       <c r="F16" s="37"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="126" t="str">
+      <c r="H16" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4501,7 +4491,7 @@
       <c r="E17" s="30"/>
       <c r="F17" s="37"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="126" t="str">
+      <c r="H17" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4532,7 +4522,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="37"/>
       <c r="G18" s="30"/>
-      <c r="H18" s="126" t="str">
+      <c r="H18" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4563,7 +4553,7 @@
       <c r="E19" s="67"/>
       <c r="F19" s="68"/>
       <c r="G19" s="67"/>
-      <c r="H19" s="129" t="str">
+      <c r="H19" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4594,7 +4584,7 @@
       <c r="E20" s="59"/>
       <c r="F20" s="60"/>
       <c r="G20" s="59"/>
-      <c r="H20" s="128" t="str">
+      <c r="H20" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4625,7 +4615,7 @@
       <c r="E21" s="30"/>
       <c r="F21" s="37"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="126" t="str">
+      <c r="H21" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4656,7 +4646,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="37"/>
       <c r="G22" s="30"/>
-      <c r="H22" s="126" t="str">
+      <c r="H22" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4687,7 +4677,7 @@
       <c r="E23" s="30"/>
       <c r="F23" s="37"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="126" t="str">
+      <c r="H23" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4718,7 +4708,7 @@
       <c r="E24" s="30"/>
       <c r="F24" s="37"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="126" t="str">
+      <c r="H24" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4749,7 +4739,7 @@
       <c r="E25" s="30"/>
       <c r="F25" s="37"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="126" t="str">
+      <c r="H25" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4780,7 +4770,7 @@
       <c r="E26" s="30"/>
       <c r="F26" s="37"/>
       <c r="G26" s="30"/>
-      <c r="H26" s="126" t="str">
+      <c r="H26" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4811,7 +4801,7 @@
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
       <c r="G27" s="67"/>
-      <c r="H27" s="129" t="str">
+      <c r="H27" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4842,7 +4832,7 @@
       <c r="E28" s="59"/>
       <c r="F28" s="60"/>
       <c r="G28" s="59"/>
-      <c r="H28" s="128" t="str">
+      <c r="H28" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4873,7 +4863,7 @@
       <c r="E29" s="30"/>
       <c r="F29" s="37"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="126" t="str">
+      <c r="H29" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4904,7 +4894,7 @@
       <c r="E30" s="30"/>
       <c r="F30" s="37"/>
       <c r="G30" s="30"/>
-      <c r="H30" s="126" t="str">
+      <c r="H30" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4935,7 +4925,7 @@
       <c r="E31" s="30"/>
       <c r="F31" s="37"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="126" t="str">
+      <c r="H31" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4966,7 +4956,7 @@
       <c r="E32" s="30"/>
       <c r="F32" s="37"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="126" t="str">
+      <c r="H32" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4997,7 +4987,7 @@
       <c r="E33" s="30"/>
       <c r="F33" s="37"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="126" t="str">
+      <c r="H33" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5028,7 +5018,7 @@
       <c r="E34" s="30"/>
       <c r="F34" s="37"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="126" t="str">
+      <c r="H34" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5059,7 +5049,7 @@
       <c r="E35" s="67"/>
       <c r="F35" s="68"/>
       <c r="G35" s="67"/>
-      <c r="H35" s="129" t="str">
+      <c r="H35" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5090,7 +5080,7 @@
       <c r="E36" s="59"/>
       <c r="F36" s="60"/>
       <c r="G36" s="59"/>
-      <c r="H36" s="128" t="str">
+      <c r="H36" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5121,7 +5111,7 @@
       <c r="E37" s="30"/>
       <c r="F37" s="37"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="126" t="str">
+      <c r="H37" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5152,7 +5142,7 @@
       <c r="E38" s="30"/>
       <c r="F38" s="37"/>
       <c r="G38" s="30"/>
-      <c r="H38" s="126" t="str">
+      <c r="H38" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5183,7 +5173,7 @@
       <c r="E39" s="30"/>
       <c r="F39" s="37"/>
       <c r="G39" s="30"/>
-      <c r="H39" s="126" t="str">
+      <c r="H39" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5214,7 +5204,7 @@
       <c r="E40" s="30"/>
       <c r="F40" s="37"/>
       <c r="G40" s="30"/>
-      <c r="H40" s="126" t="str">
+      <c r="H40" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5245,7 +5235,7 @@
       <c r="E41" s="30"/>
       <c r="F41" s="37"/>
       <c r="G41" s="30"/>
-      <c r="H41" s="126" t="str">
+      <c r="H41" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5276,7 +5266,7 @@
       <c r="E42" s="30"/>
       <c r="F42" s="37"/>
       <c r="G42" s="30"/>
-      <c r="H42" s="126" t="str">
+      <c r="H42" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5307,7 +5297,7 @@
       <c r="E43" s="67"/>
       <c r="F43" s="68"/>
       <c r="G43" s="67"/>
-      <c r="H43" s="129" t="str">
+      <c r="H43" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5338,7 +5328,7 @@
       <c r="E44" s="59"/>
       <c r="F44" s="60"/>
       <c r="G44" s="59"/>
-      <c r="H44" s="128" t="str">
+      <c r="H44" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5369,7 +5359,7 @@
       <c r="E45" s="30"/>
       <c r="F45" s="37"/>
       <c r="G45" s="30"/>
-      <c r="H45" s="126" t="str">
+      <c r="H45" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5400,7 +5390,7 @@
       <c r="E46" s="30"/>
       <c r="F46" s="37"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="126" t="str">
+      <c r="H46" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5431,7 +5421,7 @@
       <c r="E47" s="30"/>
       <c r="F47" s="37"/>
       <c r="G47" s="30"/>
-      <c r="H47" s="126" t="str">
+      <c r="H47" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5462,7 +5452,7 @@
       <c r="E48" s="30"/>
       <c r="F48" s="37"/>
       <c r="G48" s="30"/>
-      <c r="H48" s="126" t="str">
+      <c r="H48" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5493,7 +5483,7 @@
       <c r="E49" s="30"/>
       <c r="F49" s="37"/>
       <c r="G49" s="30"/>
-      <c r="H49" s="126" t="str">
+      <c r="H49" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5524,7 +5514,7 @@
       <c r="E50" s="30"/>
       <c r="F50" s="37"/>
       <c r="G50" s="30"/>
-      <c r="H50" s="126" t="str">
+      <c r="H50" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5555,7 +5545,7 @@
       <c r="E51" s="67"/>
       <c r="F51" s="68"/>
       <c r="G51" s="67"/>
-      <c r="H51" s="129" t="str">
+      <c r="H51" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5586,7 +5576,7 @@
       <c r="E52" s="59"/>
       <c r="F52" s="60"/>
       <c r="G52" s="59"/>
-      <c r="H52" s="128" t="str">
+      <c r="H52" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5617,7 +5607,7 @@
       <c r="E53" s="30"/>
       <c r="F53" s="37"/>
       <c r="G53" s="30"/>
-      <c r="H53" s="126" t="str">
+      <c r="H53" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5648,7 +5638,7 @@
       <c r="E54" s="30"/>
       <c r="F54" s="37"/>
       <c r="G54" s="30"/>
-      <c r="H54" s="126" t="str">
+      <c r="H54" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5679,7 +5669,7 @@
       <c r="E55" s="30"/>
       <c r="F55" s="37"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="126" t="str">
+      <c r="H55" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5710,7 +5700,7 @@
       <c r="E56" s="30"/>
       <c r="F56" s="37"/>
       <c r="G56" s="30"/>
-      <c r="H56" s="126" t="str">
+      <c r="H56" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5741,7 +5731,7 @@
       <c r="E57" s="30"/>
       <c r="F57" s="37"/>
       <c r="G57" s="30"/>
-      <c r="H57" s="126" t="str">
+      <c r="H57" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5772,7 +5762,7 @@
       <c r="E58" s="30"/>
       <c r="F58" s="37"/>
       <c r="G58" s="30"/>
-      <c r="H58" s="126" t="str">
+      <c r="H58" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5803,7 +5793,7 @@
       <c r="E59" s="67"/>
       <c r="F59" s="68"/>
       <c r="G59" s="67"/>
-      <c r="H59" s="129" t="str">
+      <c r="H59" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5834,7 +5824,7 @@
       <c r="E60" s="59"/>
       <c r="F60" s="60"/>
       <c r="G60" s="59"/>
-      <c r="H60" s="128" t="str">
+      <c r="H60" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5865,7 +5855,7 @@
       <c r="E61" s="30"/>
       <c r="F61" s="37"/>
       <c r="G61" s="30"/>
-      <c r="H61" s="126" t="str">
+      <c r="H61" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5896,7 +5886,7 @@
       <c r="E62" s="30"/>
       <c r="F62" s="37"/>
       <c r="G62" s="30"/>
-      <c r="H62" s="126" t="str">
+      <c r="H62" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5927,7 +5917,7 @@
       <c r="E63" s="30"/>
       <c r="F63" s="37"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="126" t="str">
+      <c r="H63" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5958,7 +5948,7 @@
       <c r="E64" s="30"/>
       <c r="F64" s="37"/>
       <c r="G64" s="30"/>
-      <c r="H64" s="126" t="str">
+      <c r="H64" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5989,7 +5979,7 @@
       <c r="E65" s="30"/>
       <c r="F65" s="37"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="126" t="str">
+      <c r="H65" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6020,7 +6010,7 @@
       <c r="E66" s="30"/>
       <c r="F66" s="37"/>
       <c r="G66" s="30"/>
-      <c r="H66" s="126" t="str">
+      <c r="H66" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6051,7 +6041,7 @@
       <c r="E67" s="67"/>
       <c r="F67" s="68"/>
       <c r="G67" s="67"/>
-      <c r="H67" s="129" t="str">
+      <c r="H67" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6082,7 +6072,7 @@
       <c r="E68" s="59"/>
       <c r="F68" s="60"/>
       <c r="G68" s="59"/>
-      <c r="H68" s="128" t="str">
+      <c r="H68" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6113,7 +6103,7 @@
       <c r="E69" s="30"/>
       <c r="F69" s="37"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="126" t="str">
+      <c r="H69" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6144,7 +6134,7 @@
       <c r="E70" s="30"/>
       <c r="F70" s="37"/>
       <c r="G70" s="30"/>
-      <c r="H70" s="126" t="str">
+      <c r="H70" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6175,7 +6165,7 @@
       <c r="E71" s="30"/>
       <c r="F71" s="37"/>
       <c r="G71" s="30"/>
-      <c r="H71" s="126" t="str">
+      <c r="H71" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6206,7 +6196,7 @@
       <c r="E72" s="30"/>
       <c r="F72" s="37"/>
       <c r="G72" s="30"/>
-      <c r="H72" s="126" t="str">
+      <c r="H72" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6237,7 +6227,7 @@
       <c r="E73" s="30"/>
       <c r="F73" s="37"/>
       <c r="G73" s="30"/>
-      <c r="H73" s="126" t="str">
+      <c r="H73" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6268,7 +6258,7 @@
       <c r="E74" s="30"/>
       <c r="F74" s="37"/>
       <c r="G74" s="30"/>
-      <c r="H74" s="126" t="str">
+      <c r="H74" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6299,7 +6289,7 @@
       <c r="E75" s="67"/>
       <c r="F75" s="68"/>
       <c r="G75" s="67"/>
-      <c r="H75" s="129" t="str">
+      <c r="H75" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6330,7 +6320,7 @@
       <c r="E76" s="59"/>
       <c r="F76" s="60"/>
       <c r="G76" s="59"/>
-      <c r="H76" s="128" t="str">
+      <c r="H76" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6361,7 +6351,7 @@
       <c r="E77" s="30"/>
       <c r="F77" s="37"/>
       <c r="G77" s="30"/>
-      <c r="H77" s="126" t="str">
+      <c r="H77" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6392,7 +6382,7 @@
       <c r="E78" s="30"/>
       <c r="F78" s="37"/>
       <c r="G78" s="30"/>
-      <c r="H78" s="126" t="str">
+      <c r="H78" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6423,7 +6413,7 @@
       <c r="E79" s="30"/>
       <c r="F79" s="37"/>
       <c r="G79" s="30"/>
-      <c r="H79" s="126" t="str">
+      <c r="H79" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6454,7 +6444,7 @@
       <c r="E80" s="30"/>
       <c r="F80" s="37"/>
       <c r="G80" s="30"/>
-      <c r="H80" s="126" t="str">
+      <c r="H80" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6485,7 +6475,7 @@
       <c r="E81" s="30"/>
       <c r="F81" s="37"/>
       <c r="G81" s="30"/>
-      <c r="H81" s="126" t="str">
+      <c r="H81" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6516,7 +6506,7 @@
       <c r="E82" s="30"/>
       <c r="F82" s="37"/>
       <c r="G82" s="30"/>
-      <c r="H82" s="126" t="str">
+      <c r="H82" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6547,7 +6537,7 @@
       <c r="E83" s="67"/>
       <c r="F83" s="68"/>
       <c r="G83" s="67"/>
-      <c r="H83" s="129" t="str">
+      <c r="H83" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6578,7 +6568,7 @@
       <c r="E84" s="59"/>
       <c r="F84" s="60"/>
       <c r="G84" s="59"/>
-      <c r="H84" s="128" t="str">
+      <c r="H84" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6609,7 +6599,7 @@
       <c r="E85" s="30"/>
       <c r="F85" s="37"/>
       <c r="G85" s="30"/>
-      <c r="H85" s="126" t="str">
+      <c r="H85" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6640,7 +6630,7 @@
       <c r="E86" s="30"/>
       <c r="F86" s="37"/>
       <c r="G86" s="30"/>
-      <c r="H86" s="126" t="str">
+      <c r="H86" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6671,7 +6661,7 @@
       <c r="E87" s="30"/>
       <c r="F87" s="37"/>
       <c r="G87" s="30"/>
-      <c r="H87" s="126" t="str">
+      <c r="H87" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6702,7 +6692,7 @@
       <c r="E88" s="30"/>
       <c r="F88" s="37"/>
       <c r="G88" s="30"/>
-      <c r="H88" s="126" t="str">
+      <c r="H88" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6733,7 +6723,7 @@
       <c r="E89" s="30"/>
       <c r="F89" s="37"/>
       <c r="G89" s="30"/>
-      <c r="H89" s="126" t="str">
+      <c r="H89" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6764,7 +6754,7 @@
       <c r="E90" s="30"/>
       <c r="F90" s="37"/>
       <c r="G90" s="30"/>
-      <c r="H90" s="126" t="str">
+      <c r="H90" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6795,7 +6785,7 @@
       <c r="E91" s="67"/>
       <c r="F91" s="68"/>
       <c r="G91" s="67"/>
-      <c r="H91" s="129" t="str">
+      <c r="H91" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6826,7 +6816,7 @@
       <c r="E92" s="59"/>
       <c r="F92" s="60"/>
       <c r="G92" s="59"/>
-      <c r="H92" s="128" t="str">
+      <c r="H92" s="85" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6857,7 +6847,7 @@
       <c r="E93" s="30"/>
       <c r="F93" s="37"/>
       <c r="G93" s="30"/>
-      <c r="H93" s="126" t="str">
+      <c r="H93" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6888,7 +6878,7 @@
       <c r="E94" s="30"/>
       <c r="F94" s="37"/>
       <c r="G94" s="30"/>
-      <c r="H94" s="126" t="str">
+      <c r="H94" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6919,7 +6909,7 @@
       <c r="E95" s="30"/>
       <c r="F95" s="37"/>
       <c r="G95" s="30"/>
-      <c r="H95" s="126" t="str">
+      <c r="H95" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6950,7 +6940,7 @@
       <c r="E96" s="30"/>
       <c r="F96" s="37"/>
       <c r="G96" s="30"/>
-      <c r="H96" s="126" t="str">
+      <c r="H96" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6981,7 +6971,7 @@
       <c r="E97" s="30"/>
       <c r="F97" s="37"/>
       <c r="G97" s="30"/>
-      <c r="H97" s="126" t="str">
+      <c r="H97" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7012,7 +7002,7 @@
       <c r="E98" s="30"/>
       <c r="F98" s="37"/>
       <c r="G98" s="30"/>
-      <c r="H98" s="126" t="str">
+      <c r="H98" s="83" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7043,7 +7033,7 @@
       <c r="E99" s="67"/>
       <c r="F99" s="68"/>
       <c r="G99" s="67"/>
-      <c r="H99" s="129" t="str">
+      <c r="H99" s="86" t="str">
         <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7061,12 +7051,12 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
-      <c r="E100" s="123" t="s">
+      <c r="E100" s="127" t="s">
         <v>228</v>
       </c>
-      <c r="F100" s="124"/>
-      <c r="G100" s="124"/>
-      <c r="H100" s="125"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
+      <c r="H100" s="129"/>
       <c r="I100" s="18">
         <v>1</v>
       </c>
@@ -7255,12 +7245,12 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D4:H99">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:K99 M4:M99">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>COUNTIF(D4,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7300,7 +7290,7 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
